--- a/docs/Requirements.xlsx
+++ b/docs/Requirements.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorrit/Documents/master-software-engineering/thesis/micro-recomposer/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorrit/Documents/master-software-engineering/thesis/DYNAMOS/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BCA34D-0B53-0447-AAD1-3F8BCEF49B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A88AE4-48A2-7842-8B36-F9DF2886CF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{D6BE7BD5-07AA-4048-B7F7-9B37E5199ABD}"/>
+    <workbookView xWindow="3720" yWindow="2200" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{D6BE7BD5-07AA-4048-B7F7-9B37E5199ABD}"/>
   </bookViews>
   <sheets>
     <sheet name="Microservices" sheetId="1" r:id="rId1"/>
-    <sheet name="Dynamos" sheetId="2" r:id="rId2"/>
+    <sheet name="agent actions" sheetId="3" r:id="rId2"/>
+    <sheet name="Dynamos" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="83">
   <si>
     <t>Receive messages from an input queue</t>
   </si>
@@ -229,13 +230,70 @@
   </si>
   <si>
     <t>Set up consumer of dead-letter-queue. Analyze whether the architecture is being created or that there really is some error</t>
+  </si>
+  <si>
+    <t>Generate a unique name based on the given job name</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>X </t>
+  </si>
+  <si>
+    <t>Register composition request for later use</t>
+  </si>
+  <si>
+    <t>Create a queue with that unique name, as input for the jobs</t>
+  </si>
+  <si>
+    <t>Wait for incoming HTTP data requests from the data analyst</t>
+  </si>
+  <si>
+    <t>Generate microservice chain and deploy job</t>
+  </si>
+  <si>
+    <t>1: Composition request</t>
+  </si>
+  <si>
+    <t>Data steward (Role: DataProvider)</t>
+  </si>
+  <si>
+    <t>Third party (Role: ComputerProvider)</t>
+  </si>
+  <si>
+    <t>Wait for incoming request from third party</t>
+  </si>
+  <si>
+    <t>2: Data Request</t>
+  </si>
+  <si>
+    <t>Generate and deploy microservice chain, possibly including optional services from the HTTP request</t>
+  </si>
+  <si>
+    <t>Forward request to other data stewards</t>
+  </si>
+  <si>
+    <t>Wait for results</t>
+  </si>
+  <si>
+    <t>Put the request into the queue for this job</t>
+  </si>
+  <si>
+    <t>3: Results</t>
+  </si>
+  <si>
+    <t>Send result to ComputeProvider</t>
+  </si>
+  <si>
+    <t>After processing, return results to data analyst</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -256,6 +314,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -278,13 +355,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,7 +683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3603E5-5A9B-B045-91DD-31FCAE949AFA}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -817,6 +899,166 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF6F638-91F0-0947-A05F-FF90DFB48E58}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="A1:C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A469EDB9-BA4C-4942-8C93-E43D2C82CF7F}">
   <dimension ref="A1:B36"/>
   <sheetViews>

--- a/docs/Requirements.xlsx
+++ b/docs/Requirements.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorrit/Documents/master-software-engineering/thesis/DYNAMOS/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A88AE4-48A2-7842-8B36-F9DF2886CF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0503D2-1B50-114D-8479-F0ED53A9AB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="2200" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{D6BE7BD5-07AA-4048-B7F7-9B37E5199ABD}"/>
+    <workbookView xWindow="5120" yWindow="2200" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{D6BE7BD5-07AA-4048-B7F7-9B37E5199ABD}"/>
   </bookViews>
   <sheets>
     <sheet name="Microservices" sheetId="1" r:id="rId1"/>
     <sheet name="agent actions" sheetId="3" r:id="rId2"/>
-    <sheet name="Dynamos" sheetId="2" r:id="rId3"/>
+    <sheet name="results" sheetId="4" r:id="rId3"/>
+    <sheet name="Dynamos" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="86">
   <si>
     <t>Receive messages from an input queue</t>
   </si>
@@ -287,6 +288,15 @@
   </si>
   <si>
     <t>After processing, return results to data analyst</t>
+  </si>
+  <si>
+    <t>proto</t>
+  </si>
+  <si>
+    <t>Json</t>
+  </si>
+  <si>
+    <t>disk</t>
   </si>
 </sst>
 </file>
@@ -355,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -365,8 +375,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -902,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF6F638-91F0-0947-A05F-FF90DFB48E58}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="A1:C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1059,6 +1070,65 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E058B4D8-EEB6-994D-9F38-3AD51C0357E5}">
+  <dimension ref="A2:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>10000</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1344567</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1179764</v>
+      </c>
+      <c r="D4" s="9">
+        <v>983455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>30000</v>
+      </c>
+      <c r="B5" s="9">
+        <v>4036427</v>
+      </c>
+      <c r="C5" s="9">
+        <v>3542478</v>
+      </c>
+      <c r="D5" s="9">
+        <v>2955314</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A469EDB9-BA4C-4942-8C93-E43D2C82CF7F}">
   <dimension ref="A1:B36"/>
   <sheetViews>

--- a/docs/Requirements.xlsx
+++ b/docs/Requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorrit/Documents/master-software-engineering/thesis/DYNAMOS/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0503D2-1B50-114D-8479-F0ED53A9AB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950CE0AF-A00A-4242-840F-09912DD3C597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5120" yWindow="2200" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{D6BE7BD5-07AA-4048-B7F7-9B37E5199ABD}"/>
   </bookViews>
@@ -375,9 +375,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -933,11 +933,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -1074,7 +1074,7 @@
   <dimension ref="A2:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1099,13 +1099,13 @@
       <c r="A4">
         <v>10000</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>1344567</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>1179764</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>983455</v>
       </c>
     </row>
@@ -1113,13 +1113,13 @@
       <c r="A5">
         <v>30000</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>4036427</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>3542478</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>2955314</v>
       </c>
     </row>

--- a/docs/Requirements.xlsx
+++ b/docs/Requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorrit/Documents/master-software-engineering/thesis/DYNAMOS/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950CE0AF-A00A-4242-840F-09912DD3C597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC00728-8870-D149-B906-8616D311CC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="2200" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{D6BE7BD5-07AA-4048-B7F7-9B37E5199ABD}"/>
+    <workbookView xWindow="2100" yWindow="1940" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{D6BE7BD5-07AA-4048-B7F7-9B37E5199ABD}"/>
   </bookViews>
   <sheets>
     <sheet name="Microservices" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="134">
   <si>
     <t>Receive messages from an input queue</t>
   </si>
@@ -290,20 +290,164 @@
     <t>After processing, return results to data analyst</t>
   </si>
   <si>
-    <t>proto</t>
-  </si>
-  <si>
-    <t>Json</t>
-  </si>
-  <si>
-    <t>disk</t>
+    <t>TraceID</t>
+  </si>
+  <si>
+    <t>Archetype</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>JSON string</t>
+  </si>
+  <si>
+    <t>JSON bytes</t>
+  </si>
+  <si>
+    <t>proto-wire format</t>
+  </si>
+  <si>
+    <t>disk (bytes)</t>
+  </si>
+  <si>
+    <t>Seconds to write to file</t>
+  </si>
+  <si>
+    <t>0.021</t>
+  </si>
+  <si>
+    <t>0.055</t>
+  </si>
+  <si>
+    <t>0.117</t>
+  </si>
+  <si>
+    <t>0.168</t>
+  </si>
+  <si>
+    <t>DataThroughTtp</t>
+  </si>
+  <si>
+    <t>Total time</t>
+  </si>
+  <si>
+    <t>11.9</t>
+  </si>
+  <si>
+    <t>b0aa7091c839796822260a12a8920d50</t>
+  </si>
+  <si>
+    <t>3.14</t>
+  </si>
+  <si>
+    <t>62f38f06b7826e166d875ecc7944e3ab</t>
+  </si>
+  <si>
+    <t>3.19</t>
+  </si>
+  <si>
+    <t>bbb3b105566e7b0051c933bf806e82e3</t>
+  </si>
+  <si>
+    <t>3.86</t>
+  </si>
+  <si>
+    <t>3d2a0d7bd5204cd7a54bdddc3416d745</t>
+  </si>
+  <si>
+    <t>2.98</t>
+  </si>
+  <si>
+    <t>c0bac2379cfe4b7edbc8ca66530379a5</t>
+  </si>
+  <si>
+    <t>2.99</t>
+  </si>
+  <si>
+    <t>59b56d872e4fc86b276a42eaf16b66a9</t>
+  </si>
+  <si>
+    <t>6.84</t>
+  </si>
+  <si>
+    <t>1495941eda9f4127d17349bc98999bd9</t>
+  </si>
+  <si>
+    <t>6.77</t>
+  </si>
+  <si>
+    <t>ee70d6511929dcc13825bda4ea273852</t>
+  </si>
+  <si>
+    <t>5.28</t>
+  </si>
+  <si>
+    <t>0abf854cab71b78a00d54333fe497f93</t>
+  </si>
+  <si>
+    <t>5.42</t>
+  </si>
+  <si>
+    <t>12aeab211e56f7dda68fcc2da95ad091</t>
+  </si>
+  <si>
+    <t>5.09</t>
+  </si>
+  <si>
+    <t>9c93032c8e7ce5a2f2fb93beb36d6cf8</t>
+  </si>
+  <si>
+    <t>ea634f31089539e7a7ff62a4ae74ff4b</t>
+  </si>
+  <si>
+    <t>10.7</t>
+  </si>
+  <si>
+    <t>94ca493d38d2f001c51c071e7f81a6fe</t>
+  </si>
+  <si>
+    <t>7.77</t>
+  </si>
+  <si>
+    <t>e5be6bba30dce2e3e57c619ca44832c2</t>
+  </si>
+  <si>
+    <t>7.31</t>
+  </si>
+  <si>
+    <t>6f6eb7ec6e99897fb4551f79a7969d35</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>7e34cdb0b7a0dbe5d04266a3f1362464</t>
+  </si>
+  <si>
+    <t>11.7</t>
+  </si>
+  <si>
+    <t>f9ce4c7d15493f24bfe4e410a803275b</t>
+  </si>
+  <si>
+    <t>11.2</t>
+  </si>
+  <si>
+    <t>9ade36b4d5bddbfdfdbc01737a9337a9</t>
+  </si>
+  <si>
+    <t>6ab6d2440e14a880a917ad190e21af54</t>
+  </si>
+  <si>
+    <t>10.8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -344,6 +488,14 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -362,10 +514,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -375,11 +528,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -933,11 +1099,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -1071,59 +1237,532 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E058B4D8-EEB6-994D-9F38-3AD51C0357E5}">
-  <dimension ref="A2:D5"/>
+  <dimension ref="B9:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C9" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D9" s="9" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="E9" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="10">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="E10" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11">
+        <v>14973</v>
+      </c>
+      <c r="I10" s="11">
+        <v>13647</v>
+      </c>
+      <c r="J10" s="11">
+        <v>307</v>
+      </c>
+      <c r="K10" s="11">
+        <v>9986</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="10">
+        <v>100</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="10">
+        <v>100</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="10">
+        <v>100</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="10">
+        <v>100</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="10">
         <v>10000</v>
       </c>
-      <c r="B4" s="7">
-        <v>1344567</v>
-      </c>
-      <c r="C4" s="7">
-        <v>1179764</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="E16" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11">
+        <v>1344899</v>
+      </c>
+      <c r="I16" s="11">
+        <v>1180220</v>
+      </c>
+      <c r="J16" s="11">
+        <v>307</v>
+      </c>
+      <c r="K16" s="11">
         <v>983455</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="L16" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="10">
+        <v>10000</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="10">
+        <v>10000</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="10">
+        <v>10000</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="10">
+        <v>10000</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="10">
+        <v>20000</v>
+      </c>
+      <c r="E22" s="10">
+        <v>10</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11">
+        <v>2693365</v>
+      </c>
+      <c r="I22" s="11">
+        <v>2364465</v>
+      </c>
+      <c r="J22" s="11">
+        <v>307</v>
+      </c>
+      <c r="K22" s="11">
+        <v>2463677</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B23" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="10">
+        <v>20000</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B24" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="10">
+        <v>20000</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B25" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="10">
+        <v>20000</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B26" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="10">
+        <v>20000</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B28" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="10">
         <v>30000</v>
       </c>
-      <c r="B5" s="7">
-        <v>4036427</v>
-      </c>
-      <c r="C5" s="7">
-        <v>3542478</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="E28" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="11">
+        <v>4036759</v>
+      </c>
+      <c r="I28" s="11">
+        <v>3542934</v>
+      </c>
+      <c r="J28" s="11">
+        <v>307</v>
+      </c>
+      <c r="K28" s="11">
         <v>2955314</v>
       </c>
+      <c r="L28" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B29" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="10">
+        <v>30000</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B30" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="10">
+        <v>30000</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B31" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="10">
+        <v>30000</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B32" s="13"/>
+      <c r="C32" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="10">
+        <v>30000</v>
+      </c>
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="10"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1" tooltip="Trace: b0aa7091c839796822260a12a8920d50" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22bde90582-8a87-45cf-981a-9f5d1777f6f0%22%2C%22queries%22%3A%5B%7B%22query%22%3A%22b0aa7091c839796822260a12a8920d50%22%7D%5D%7D" xr:uid="{FA862687-D425-5244-A318-080B25310B8D}"/>
+    <hyperlink ref="B11" r:id="rId2" tooltip="Trace: 62f38f06b7826e166d875ecc7944e3ab" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22bde90582-8a87-45cf-981a-9f5d1777f6f0%22%2C%22queries%22%3A%5B%7B%22query%22%3A%2262f38f06b7826e166d875ecc7944e3ab%22%7D%5D%7D" xr:uid="{D560CD0F-740B-6D4B-8F05-3CEA4CE3C6C1}"/>
+    <hyperlink ref="B12" r:id="rId3" tooltip="Trace: bbb3b105566e7b0051c933bf806e82e3" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22bde90582-8a87-45cf-981a-9f5d1777f6f0%22%2C%22queries%22%3A%5B%7B%22query%22%3A%22bbb3b105566e7b0051c933bf806e82e3%22%7D%5D%7D" xr:uid="{C2EB725E-B7DE-3E46-9AAE-8A3622C16999}"/>
+    <hyperlink ref="B13" r:id="rId4" tooltip="Trace: 3d2a0d7bd5204cd7a54bdddc3416d745" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22bde90582-8a87-45cf-981a-9f5d1777f6f0%22%2C%22queries%22%3A%5B%7B%22query%22%3A%223d2a0d7bd5204cd7a54bdddc3416d745%22%7D%5D%7D" xr:uid="{FD207D8E-A912-104C-9AD0-88C142DEBA05}"/>
+    <hyperlink ref="B16" r:id="rId5" tooltip="Trace: 59b56d872e4fc86b276a42eaf16b66a9" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22bde90582-8a87-45cf-981a-9f5d1777f6f0%22%2C%22queries%22%3A%5B%7B%22query%22%3A%2259b56d872e4fc86b276a42eaf16b66a9%22%7D%5D%7D" xr:uid="{DA551EAD-26A6-114E-A527-E568858E61AE}"/>
+    <hyperlink ref="B17" r:id="rId6" tooltip="Trace: 1495941eda9f4127d17349bc98999bd9" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22bde90582-8a87-45cf-981a-9f5d1777f6f0%22%2C%22queries%22%3A%5B%7B%22query%22%3A%221495941eda9f4127d17349bc98999bd9%22%7D%5D%7D" xr:uid="{EB29317C-D4D8-E241-ADD3-AC921A0B7CEB}"/>
+    <hyperlink ref="B18" r:id="rId7" tooltip="Trace: ee70d6511929dcc13825bda4ea273852" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22bde90582-8a87-45cf-981a-9f5d1777f6f0%22%2C%22queries%22%3A%5B%7B%22query%22%3A%22ee70d6511929dcc13825bda4ea273852%22%7D%5D%7D" xr:uid="{AB201069-4D6B-F142-8FA8-E32F705FACC9}"/>
+    <hyperlink ref="B19" r:id="rId8" tooltip="Trace: 0abf854cab71b78a00d54333fe497f93" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22bde90582-8a87-45cf-981a-9f5d1777f6f0%22%2C%22queries%22%3A%5B%7B%22query%22%3A%220abf854cab71b78a00d54333fe497f93%22%7D%5D%7D" xr:uid="{DDB9BE39-BEEF-7440-B2C6-AC0576892B97}"/>
+    <hyperlink ref="B20" r:id="rId9" tooltip="Trace: 12aeab211e56f7dda68fcc2da95ad091" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22bde90582-8a87-45cf-981a-9f5d1777f6f0%22%2C%22queries%22%3A%5B%7B%22query%22%3A%2212aeab211e56f7dda68fcc2da95ad091%22%7D%5D%7D" xr:uid="{426AA024-2EBD-8440-B0BF-FE91C03D8648}"/>
+    <hyperlink ref="B22" r:id="rId10" tooltip="Trace: 9c93032c8e7ce5a2f2fb93beb36d6cf8" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22bde90582-8a87-45cf-981a-9f5d1777f6f0%22%2C%22queries%22%3A%5B%7B%22query%22%3A%229c93032c8e7ce5a2f2fb93beb36d6cf8%22%7D%5D%7D" xr:uid="{B5BC3DA0-FA28-FF47-8488-8831E44DD075}"/>
+    <hyperlink ref="B23" r:id="rId11" tooltip="Trace: ea634f31089539e7a7ff62a4ae74ff4b" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22bde90582-8a87-45cf-981a-9f5d1777f6f0%22%2C%22queries%22%3A%5B%7B%22query%22%3A%22ea634f31089539e7a7ff62a4ae74ff4b%22%7D%5D%7D" xr:uid="{04841AC9-B9A3-CF4D-9144-6CE46CA6511D}"/>
+    <hyperlink ref="B24" r:id="rId12" tooltip="Trace: 94ca493d38d2f001c51c071e7f81a6fe" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22bde90582-8a87-45cf-981a-9f5d1777f6f0%22%2C%22queries%22%3A%5B%7B%22query%22%3A%2294ca493d38d2f001c51c071e7f81a6fe%22%7D%5D%7D" xr:uid="{57F53D48-84B1-CB4C-A51C-6ABD97F30C3F}"/>
+    <hyperlink ref="B25" r:id="rId13" tooltip="Trace: e5be6bba30dce2e3e57c619ca44832c2" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22bde90582-8a87-45cf-981a-9f5d1777f6f0%22%2C%22queries%22%3A%5B%7B%22query%22%3A%22e5be6bba30dce2e3e57c619ca44832c2%22%7D%5D%7D" xr:uid="{F0E11DC4-9089-674F-8893-F68986294EB9}"/>
+    <hyperlink ref="B26" r:id="rId14" tooltip="Trace: 6f6eb7ec6e99897fb4551f79a7969d35" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22bde90582-8a87-45cf-981a-9f5d1777f6f0%22%2C%22queries%22%3A%5B%7B%22query%22%3A%226f6eb7ec6e99897fb4551f79a7969d35%22%7D%5D%7D" xr:uid="{B7E97498-B31F-034B-8863-E064AC49A007}"/>
+    <hyperlink ref="B28" r:id="rId15" tooltip="Trace: 7e34cdb0b7a0dbe5d04266a3f1362464" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22bde90582-8a87-45cf-981a-9f5d1777f6f0%22%2C%22queries%22%3A%5B%7B%22query%22%3A%227e34cdb0b7a0dbe5d04266a3f1362464%22%7D%5D%7D" xr:uid="{AF334414-E124-5741-B3C8-25C65F3E9CB1}"/>
+    <hyperlink ref="B29" r:id="rId16" tooltip="Trace: f9ce4c7d15493f24bfe4e410a803275b" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22bde90582-8a87-45cf-981a-9f5d1777f6f0%22%2C%22queries%22%3A%5B%7B%22query%22%3A%22f9ce4c7d15493f24bfe4e410a803275b%22%7D%5D%7D" xr:uid="{E099D857-1F81-8D43-B914-F080D0313FA3}"/>
+    <hyperlink ref="B30" r:id="rId17" tooltip="Trace: 9ade36b4d5bddbfdfdbc01737a9337a9" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22bde90582-8a87-45cf-981a-9f5d1777f6f0%22%2C%22queries%22%3A%5B%7B%22query%22%3A%229ade36b4d5bddbfdfdbc01737a9337a9%22%7D%5D%7D" xr:uid="{442E219F-32EF-BB40-A1F8-B2DE7F505124}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/docs/Requirements.xlsx
+++ b/docs/Requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorrit/Documents/master-software-engineering/thesis/DYNAMOS/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC00728-8870-D149-B906-8616D311CC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5864A003-B4BD-464C-B1A4-5BBC03434BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="1940" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{D6BE7BD5-07AA-4048-B7F7-9B37E5199ABD}"/>
+    <workbookView xWindow="2100" yWindow="1940" windowWidth="31740" windowHeight="17440" activeTab="2" xr2:uid="{D6BE7BD5-07AA-4048-B7F7-9B37E5199ABD}"/>
   </bookViews>
   <sheets>
     <sheet name="Microservices" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="results" sheetId="4" r:id="rId3"/>
     <sheet name="Dynamos" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="137">
   <si>
     <t>Receive messages from an input queue</t>
   </si>
@@ -290,12 +290,6 @@
     <t>After processing, return results to data analyst</t>
   </si>
   <si>
-    <t>TraceID</t>
-  </si>
-  <si>
-    <t>Archetype</t>
-  </si>
-  <si>
     <t>Limit</t>
   </si>
   <si>
@@ -314,9 +308,6 @@
     <t>Seconds to write to file</t>
   </si>
   <si>
-    <t>0.021</t>
-  </si>
-  <si>
     <t>0.055</t>
   </si>
   <si>
@@ -326,128 +317,146 @@
     <t>0.168</t>
   </si>
   <si>
-    <t>DataThroughTtp</t>
-  </si>
-  <si>
     <t>Total time</t>
   </si>
   <si>
-    <t>11.9</t>
-  </si>
-  <si>
-    <t>b0aa7091c839796822260a12a8920d50</t>
-  </si>
-  <si>
-    <t>3.14</t>
-  </si>
-  <si>
-    <t>62f38f06b7826e166d875ecc7944e3ab</t>
-  </si>
-  <si>
-    <t>3.19</t>
-  </si>
-  <si>
-    <t>bbb3b105566e7b0051c933bf806e82e3</t>
-  </si>
-  <si>
-    <t>3.86</t>
-  </si>
-  <si>
-    <t>3d2a0d7bd5204cd7a54bdddc3416d745</t>
-  </si>
-  <si>
-    <t>2.98</t>
-  </si>
-  <si>
-    <t>c0bac2379cfe4b7edbc8ca66530379a5</t>
-  </si>
-  <si>
-    <t>2.99</t>
-  </si>
-  <si>
-    <t>59b56d872e4fc86b276a42eaf16b66a9</t>
-  </si>
-  <si>
-    <t>6.84</t>
-  </si>
-  <si>
-    <t>1495941eda9f4127d17349bc98999bd9</t>
-  </si>
-  <si>
     <t>6.77</t>
   </si>
   <si>
-    <t>ee70d6511929dcc13825bda4ea273852</t>
-  </si>
-  <si>
-    <t>5.28</t>
-  </si>
-  <si>
-    <t>0abf854cab71b78a00d54333fe497f93</t>
-  </si>
-  <si>
-    <t>5.42</t>
-  </si>
-  <si>
-    <t>12aeab211e56f7dda68fcc2da95ad091</t>
-  </si>
-  <si>
-    <t>5.09</t>
-  </si>
-  <si>
-    <t>9c93032c8e7ce5a2f2fb93beb36d6cf8</t>
-  </si>
-  <si>
-    <t>ea634f31089539e7a7ff62a4ae74ff4b</t>
-  </si>
-  <si>
-    <t>10.7</t>
-  </si>
-  <si>
-    <t>94ca493d38d2f001c51c071e7f81a6fe</t>
-  </si>
-  <si>
-    <t>7.77</t>
-  </si>
-  <si>
-    <t>e5be6bba30dce2e3e57c619ca44832c2</t>
-  </si>
-  <si>
-    <t>7.31</t>
-  </si>
-  <si>
-    <t>6f6eb7ec6e99897fb4551f79a7969d35</t>
-  </si>
-  <si>
-    <t>7.3</t>
-  </si>
-  <si>
-    <t>7e34cdb0b7a0dbe5d04266a3f1362464</t>
-  </si>
-  <si>
-    <t>11.7</t>
-  </si>
-  <si>
-    <t>f9ce4c7d15493f24bfe4e410a803275b</t>
-  </si>
-  <si>
-    <t>11.2</t>
-  </si>
-  <si>
-    <t>9ade36b4d5bddbfdfdbc01737a9337a9</t>
-  </si>
-  <si>
-    <t>6ab6d2440e14a880a917ad190e21af54</t>
-  </si>
-  <si>
-    <t>10.8</t>
+    <t>TraceID DataThroughTtp</t>
+  </si>
+  <si>
+    <t>TraceID ComputeToData</t>
+  </si>
+  <si>
+    <t>MP1</t>
+  </si>
+  <si>
+    <t>MP2</t>
+  </si>
+  <si>
+    <t>MP3</t>
+  </si>
+  <si>
+    <t>MP4</t>
+  </si>
+  <si>
+    <t>MP5</t>
+  </si>
+  <si>
+    <t>MP6</t>
+  </si>
+  <si>
+    <t>MP7</t>
+  </si>
+  <si>
+    <t>MP8</t>
+  </si>
+  <si>
+    <t>MP9</t>
+  </si>
+  <si>
+    <t>Compute to data</t>
+  </si>
+  <si>
+    <t>671b13bd98f809825dc37030fa95903f</t>
+  </si>
+  <si>
+    <t>4.49</t>
+  </si>
+  <si>
+    <t>Data through a trusted third party</t>
+  </si>
+  <si>
+    <t>c8da236bd443a1a4837744b37f8239d8</t>
+  </si>
+  <si>
+    <t>4.41</t>
+  </si>
+  <si>
+    <t>397fa67094492151620db74873ce64e9</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>8080d41bbd78431993f023220c4ec912</t>
+  </si>
+  <si>
+    <t>4.58</t>
+  </si>
+  <si>
+    <t>a792aeb2d0f5ba7cbc4f452d98a74607</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>bebfc6fd</t>
+  </si>
+  <si>
+    <t>f4e494e3a7607fcee24b4e29d7c26eb3</t>
+  </si>
+  <si>
+    <t>5.45</t>
+  </si>
+  <si>
+    <t>fb45bd6c7bc2eb420e483a207144f227</t>
+  </si>
+  <si>
+    <t>728a3fa50bb27a80c109f0b66e2730c5</t>
+  </si>
+  <si>
+    <t>6.09</t>
+  </si>
+  <si>
+    <t>981def94b6abf804d5b92b03a5b5eab3</t>
+  </si>
+  <si>
+    <t>5.95</t>
+  </si>
+  <si>
+    <t>999c62f1951388f4e1aec67b0f19d23f</t>
+  </si>
+  <si>
+    <t>6.01</t>
+  </si>
+  <si>
+    <t>9117661af5e0d2e6682a926fc40c79d6</t>
+  </si>
+  <si>
+    <t>7.82</t>
+  </si>
+  <si>
+    <t>5ee3f6aa83282c996e7e61ca4a5c8da0</t>
+  </si>
+  <si>
+    <t>8.08</t>
+  </si>
+  <si>
+    <t>c7bb8be8cb5c585b27de791211148a52</t>
+  </si>
+  <si>
+    <t>8.06</t>
+  </si>
+  <si>
+    <t>3ff6b1cc4294cfba7c2a2a06ab995cdd</t>
+  </si>
+  <si>
+    <t>8.22</t>
+  </si>
+  <si>
+    <t>4bfc4fe9a001ca2b2a5baec9e6a40fb9</t>
+  </si>
+  <si>
+    <t>8.01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -489,9 +498,23 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -505,7 +528,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -513,12 +536,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -539,10 +648,35 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1237,531 +1371,848 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E058B4D8-EEB6-994D-9F38-3AD51C0357E5}">
-  <dimension ref="B9:L33"/>
+  <dimension ref="B5:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.6640625" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.6640625" customWidth="1"/>
+    <col min="20" max="21" width="19.6640625" customWidth="1"/>
+    <col min="22" max="22" width="35" customWidth="1"/>
+    <col min="23" max="23" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="36.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="9" t="s">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B8" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="27"/>
+      <c r="J8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="15"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C9" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>84</v>
-      </c>
       <c r="D9" s="9" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="F9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="P9" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C10" s="10">
+        <v>10000</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="I10" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" s="22">
+        <f>322-238</f>
+        <v>84</v>
+      </c>
+      <c r="L10" s="22">
+        <f>759-609</f>
+        <v>150</v>
+      </c>
+      <c r="M10" s="22">
+        <f>1071-848</f>
+        <v>223</v>
+      </c>
+      <c r="N10" s="22">
+        <v>98</v>
+      </c>
+      <c r="O10" s="22">
+        <f>994-870</f>
+        <v>124</v>
+      </c>
+      <c r="P10" s="22">
+        <f>1124-994</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C11" s="10">
+        <v>10000</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="I11" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" s="22">
+        <f>322-238</f>
+        <v>84</v>
+      </c>
+      <c r="L11" s="22">
+        <f>508-345</f>
+        <v>163</v>
+      </c>
+      <c r="M11" s="22">
+        <f>858-605</f>
+        <v>253</v>
+      </c>
+      <c r="N11" s="22">
+        <v>96</v>
+      </c>
+      <c r="O11" s="22">
+        <f>388-291</f>
+        <v>97</v>
+      </c>
+      <c r="P11" s="22">
+        <f>525-388</f>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B12" s="12"/>
+      <c r="C12" s="10">
+        <v>10000</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="I12" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" s="22">
+        <f>326-226</f>
+        <v>100</v>
+      </c>
+      <c r="L12" s="22">
+        <f>501-326</f>
+        <v>175</v>
+      </c>
+      <c r="M12" s="22">
+        <f>850-586</f>
+        <v>264</v>
+      </c>
+      <c r="N12" s="22">
+        <v>95</v>
+      </c>
+      <c r="O12" s="22">
+        <f>361-273</f>
         <v>88</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="P12" s="22">
+        <f>478-361</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B13" s="12"/>
+      <c r="C13" s="10">
+        <v>10000</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="I13" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" s="22">
+        <f>345-258</f>
         <v>87</v>
       </c>
-      <c r="J9" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="10">
-        <v>100</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11">
-        <v>14973</v>
-      </c>
-      <c r="I10" s="11">
-        <v>13647</v>
-      </c>
-      <c r="J10" s="11">
-        <v>307</v>
-      </c>
-      <c r="K10" s="11">
-        <v>9986</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="10">
-        <v>100</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="L13" s="22">
+        <f>474-322</f>
+        <v>152</v>
+      </c>
+      <c r="M13" s="22">
+        <f>831-575</f>
+        <v>256</v>
+      </c>
+      <c r="N13" s="28">
+        <v>111</v>
+      </c>
+      <c r="O13" s="22">
+        <f>368-260</f>
+        <v>108</v>
+      </c>
+      <c r="P13" s="22">
+        <f>492-368</f>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B14" s="12"/>
+      <c r="C14" s="10">
+        <v>10000</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="I14" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="K14" s="22">
+        <f>609-517</f>
+        <v>92</v>
+      </c>
+      <c r="L14" s="22">
+        <f>759-609</f>
+        <v>150</v>
+      </c>
+      <c r="M14" s="22">
+        <f>1107-864</f>
+        <v>243</v>
+      </c>
+      <c r="N14" s="28">
+        <v>97</v>
+      </c>
+      <c r="O14" s="22">
+        <f>594-493</f>
         <v>101</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="10">
-        <v>100</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="10">
-        <v>100</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="10">
-        <v>100</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="P14" s="22">
+        <f>720-594</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="10">
-        <v>10000</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="J15" s="21"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="23"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C16" s="10">
+        <v>20000</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11">
-        <v>1344899</v>
-      </c>
-      <c r="I16" s="11">
-        <v>1180220</v>
-      </c>
-      <c r="J16" s="11">
-        <v>307</v>
-      </c>
-      <c r="K16" s="11">
-        <v>983455</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="10">
-        <v>10000</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>111</v>
-      </c>
+      <c r="I16" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" s="22">
+        <f>656-465</f>
+        <v>191</v>
+      </c>
+      <c r="L16" s="22">
+        <f>979-656</f>
+        <v>323</v>
+      </c>
+      <c r="M16" s="22">
+        <f>890-120</f>
+        <v>770</v>
+      </c>
+      <c r="N16" s="22">
+        <v>273</v>
+      </c>
+      <c r="O16" s="22">
+        <f>18328-18123</f>
+        <v>205</v>
+      </c>
+      <c r="P16" s="23">
+        <f>18592-18328</f>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" s="12"/>
+      <c r="C17" s="10">
+        <v>20000</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="10">
-        <v>10000</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>113</v>
-      </c>
+      <c r="I17" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17" s="22">
+        <f>1059-832</f>
+        <v>227</v>
+      </c>
+      <c r="L17" s="22">
+        <v>300</v>
+      </c>
+      <c r="M17" s="22">
+        <f>46971-46491</f>
+        <v>480</v>
+      </c>
+      <c r="N17" s="22">
+        <v>211</v>
+      </c>
+      <c r="O17" s="22">
+        <f>47931-47750</f>
+        <v>181</v>
+      </c>
+      <c r="P17" s="23">
+        <f>48190-47931</f>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B18" s="12"/>
+      <c r="C18" s="10">
+        <v>20000</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="10">
-        <v>10000</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>115</v>
-      </c>
+      <c r="I18" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="K18" s="22">
+        <f>1085-930</f>
+        <v>155</v>
+      </c>
+      <c r="L18" s="22">
+        <f>377-86</f>
+        <v>291</v>
+      </c>
+      <c r="M18" s="22">
+        <f>14954-14500</f>
+        <v>454</v>
+      </c>
+      <c r="N18" s="22">
+        <v>211</v>
+      </c>
+      <c r="O18" s="22">
+        <f>15875-15702</f>
+        <v>173</v>
+      </c>
+      <c r="P18" s="23">
+        <f>16114-15875</f>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B19" s="12"/>
+      <c r="C19" s="10">
+        <v>20000</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="10">
-        <v>10000</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>117</v>
-      </c>
+      <c r="I19" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="K19" s="22">
+        <f>299-142</f>
+        <v>157</v>
+      </c>
+      <c r="L19" s="22">
+        <f>580-299</f>
+        <v>281</v>
+      </c>
+      <c r="M19" s="28">
+        <f>38129-37707</f>
+        <v>422</v>
+      </c>
+      <c r="N19" s="28">
+        <v>190</v>
+      </c>
+      <c r="O19" s="22">
+        <f>39069-38879</f>
+        <v>190</v>
+      </c>
+      <c r="P19" s="23">
+        <f>39295-39069</f>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B20" s="12"/>
+      <c r="C20" s="10">
+        <v>20000</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I20" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" s="22">
+        <f>764-599</f>
+        <v>165</v>
+      </c>
+      <c r="L20" s="22">
+        <f>1076-764</f>
+        <v>312</v>
+      </c>
+      <c r="M20" s="28">
+        <f>56625-56178</f>
+        <v>447</v>
+      </c>
+      <c r="N20" s="28">
+        <v>202</v>
+      </c>
+      <c r="O20" s="22">
+        <f>57580-57395</f>
+        <v>185</v>
+      </c>
+      <c r="P20" s="23">
+        <f>57812-57580</f>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
       <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="10">
+      <c r="J21" s="21"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="23"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B22" s="12"/>
+      <c r="C22" s="10">
+        <v>30000</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="I22" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="22">
+        <f>18421-18174</f>
+        <v>247</v>
+      </c>
+      <c r="L22" s="22">
+        <f>18845-18421</f>
+        <v>424</v>
+      </c>
+      <c r="M22" s="22">
+        <f>19736-19039</f>
+        <v>697</v>
+      </c>
+      <c r="N22" s="28">
+        <v>320</v>
+      </c>
+      <c r="O22" s="22">
+        <f>21336-21024</f>
+        <v>312</v>
+      </c>
+      <c r="P22" s="23">
+        <f>21732-21336</f>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B23" s="12"/>
+      <c r="C23" s="10">
+        <v>30000</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="I23" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="K23" s="22">
+        <f>35955-35585</f>
+        <v>370</v>
+      </c>
+      <c r="L23" s="22">
+        <f>36415-35955</f>
+        <v>460</v>
+      </c>
+      <c r="M23" s="22">
+        <f>37294-36627</f>
+        <v>667</v>
+      </c>
+      <c r="N23" s="28">
+        <v>278</v>
+      </c>
+      <c r="O23" s="22">
+        <f>38700-38434</f>
+        <v>266</v>
+      </c>
+      <c r="P23" s="23">
+        <f>39057-38700</f>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B24" s="12"/>
+      <c r="C24" s="10">
+        <v>30000</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="I24" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="K24" s="22">
+        <f>1067-666</f>
+        <v>401</v>
+      </c>
+      <c r="L24" s="22">
+        <f>642-167</f>
+        <v>475</v>
+      </c>
+      <c r="M24" s="22">
+        <f>1506-840</f>
+        <v>666</v>
+      </c>
+      <c r="N24" s="22">
+        <v>287</v>
+      </c>
+      <c r="O24" s="22">
+        <f>2882-2619</f>
+        <v>263</v>
+      </c>
+      <c r="P24" s="23">
+        <f>3233-2882</f>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B25" s="12"/>
+      <c r="C25" s="10">
+        <v>30000</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="I25" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="K25" s="22">
+        <f>15283-15030</f>
+        <v>253</v>
+      </c>
+      <c r="L25" s="22">
+        <f>15751-15283</f>
+        <v>468</v>
+      </c>
+      <c r="M25" s="22">
+        <f>16632-15954</f>
+        <v>678</v>
+      </c>
+      <c r="N25" s="22">
+        <f>309</f>
+        <v>309</v>
+      </c>
+      <c r="O25" s="22">
+        <f>18290-17859</f>
+        <v>431</v>
+      </c>
+      <c r="P25" s="23">
+        <f>18681-18290</f>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B26" s="12"/>
+      <c r="C26" s="10">
+        <v>30000</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="I26" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J26" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="K26" s="25">
+        <f>31457-31217</f>
+        <v>240</v>
+      </c>
+      <c r="L26" s="25">
+        <f>31943-31457</f>
+        <v>486</v>
+      </c>
+      <c r="M26" s="25">
+        <f>32866-32218</f>
+        <v>648</v>
+      </c>
+      <c r="N26" s="25">
+        <v>283</v>
+      </c>
+      <c r="O26" s="25">
+        <f>34310-34032</f>
+        <v>278</v>
+      </c>
+      <c r="P26" s="26">
+        <f>34674-34310</f>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="I27" s="10"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C30" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C31" s="10">
+        <v>10000</v>
+      </c>
+      <c r="D31" s="11">
+        <v>1344899</v>
+      </c>
+      <c r="E31" s="11">
+        <v>1180220</v>
+      </c>
+      <c r="F31" s="11">
+        <v>307</v>
+      </c>
+      <c r="G31" s="11">
+        <v>983455</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C32">
         <v>20000</v>
       </c>
-      <c r="E22" s="10">
-        <v>10</v>
-      </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11">
+      <c r="D32" s="11">
         <v>2693365</v>
       </c>
-      <c r="I22" s="11">
+      <c r="E32" s="11">
         <v>2364465</v>
       </c>
-      <c r="J22" s="11">
+      <c r="F32" s="11">
         <v>307</v>
       </c>
-      <c r="K22" s="11">
+      <c r="G32" s="11">
         <v>2463677</v>
       </c>
-      <c r="L22" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="10">
-        <v>20000</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B24" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="10">
-        <v>20000</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="10"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="10">
-        <v>20000</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B26" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" s="10">
-        <v>20000</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B28" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="10">
+      <c r="H32" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C33">
         <v>30000</v>
       </c>
-      <c r="E28" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="11">
+      <c r="D33" s="11">
         <v>4036759</v>
       </c>
-      <c r="I28" s="11">
+      <c r="E33" s="11">
         <v>3542934</v>
       </c>
-      <c r="J28" s="11">
+      <c r="F33" s="11">
         <v>307</v>
       </c>
-      <c r="K28" s="11">
+      <c r="G33" s="11">
         <v>2955314</v>
       </c>
-      <c r="L28" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="10">
-        <v>30000</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="10">
-        <v>30000</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B31" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="10">
-        <v>30000</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B32" s="13"/>
-      <c r="C32" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="10">
-        <v>30000</v>
-      </c>
-      <c r="E32" s="10"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="10"/>
+      <c r="H33" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="D8:G8"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" tooltip="Trace: b0aa7091c839796822260a12a8920d50" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22bde90582-8a87-45cf-981a-9f5d1777f6f0%22%2C%22queries%22%3A%5B%7B%22query%22%3A%22b0aa7091c839796822260a12a8920d50%22%7D%5D%7D" xr:uid="{FA862687-D425-5244-A318-080B25310B8D}"/>
-    <hyperlink ref="B11" r:id="rId2" tooltip="Trace: 62f38f06b7826e166d875ecc7944e3ab" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22bde90582-8a87-45cf-981a-9f5d1777f6f0%22%2C%22queries%22%3A%5B%7B%22query%22%3A%2262f38f06b7826e166d875ecc7944e3ab%22%7D%5D%7D" xr:uid="{D560CD0F-740B-6D4B-8F05-3CEA4CE3C6C1}"/>
-    <hyperlink ref="B12" r:id="rId3" tooltip="Trace: bbb3b105566e7b0051c933bf806e82e3" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22bde90582-8a87-45cf-981a-9f5d1777f6f0%22%2C%22queries%22%3A%5B%7B%22query%22%3A%22bbb3b105566e7b0051c933bf806e82e3%22%7D%5D%7D" xr:uid="{C2EB725E-B7DE-3E46-9AAE-8A3622C16999}"/>
-    <hyperlink ref="B13" r:id="rId4" tooltip="Trace: 3d2a0d7bd5204cd7a54bdddc3416d745" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22bde90582-8a87-45cf-981a-9f5d1777f6f0%22%2C%22queries%22%3A%5B%7B%22query%22%3A%223d2a0d7bd5204cd7a54bdddc3416d745%22%7D%5D%7D" xr:uid="{FD207D8E-A912-104C-9AD0-88C142DEBA05}"/>
-    <hyperlink ref="B16" r:id="rId5" tooltip="Trace: 59b56d872e4fc86b276a42eaf16b66a9" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22bde90582-8a87-45cf-981a-9f5d1777f6f0%22%2C%22queries%22%3A%5B%7B%22query%22%3A%2259b56d872e4fc86b276a42eaf16b66a9%22%7D%5D%7D" xr:uid="{DA551EAD-26A6-114E-A527-E568858E61AE}"/>
-    <hyperlink ref="B17" r:id="rId6" tooltip="Trace: 1495941eda9f4127d17349bc98999bd9" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22bde90582-8a87-45cf-981a-9f5d1777f6f0%22%2C%22queries%22%3A%5B%7B%22query%22%3A%221495941eda9f4127d17349bc98999bd9%22%7D%5D%7D" xr:uid="{EB29317C-D4D8-E241-ADD3-AC921A0B7CEB}"/>
-    <hyperlink ref="B18" r:id="rId7" tooltip="Trace: ee70d6511929dcc13825bda4ea273852" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22bde90582-8a87-45cf-981a-9f5d1777f6f0%22%2C%22queries%22%3A%5B%7B%22query%22%3A%22ee70d6511929dcc13825bda4ea273852%22%7D%5D%7D" xr:uid="{AB201069-4D6B-F142-8FA8-E32F705FACC9}"/>
-    <hyperlink ref="B19" r:id="rId8" tooltip="Trace: 0abf854cab71b78a00d54333fe497f93" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22bde90582-8a87-45cf-981a-9f5d1777f6f0%22%2C%22queries%22%3A%5B%7B%22query%22%3A%220abf854cab71b78a00d54333fe497f93%22%7D%5D%7D" xr:uid="{DDB9BE39-BEEF-7440-B2C6-AC0576892B97}"/>
-    <hyperlink ref="B20" r:id="rId9" tooltip="Trace: 12aeab211e56f7dda68fcc2da95ad091" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22bde90582-8a87-45cf-981a-9f5d1777f6f0%22%2C%22queries%22%3A%5B%7B%22query%22%3A%2212aeab211e56f7dda68fcc2da95ad091%22%7D%5D%7D" xr:uid="{426AA024-2EBD-8440-B0BF-FE91C03D8648}"/>
-    <hyperlink ref="B22" r:id="rId10" tooltip="Trace: 9c93032c8e7ce5a2f2fb93beb36d6cf8" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22bde90582-8a87-45cf-981a-9f5d1777f6f0%22%2C%22queries%22%3A%5B%7B%22query%22%3A%229c93032c8e7ce5a2f2fb93beb36d6cf8%22%7D%5D%7D" xr:uid="{B5BC3DA0-FA28-FF47-8488-8831E44DD075}"/>
-    <hyperlink ref="B23" r:id="rId11" tooltip="Trace: ea634f31089539e7a7ff62a4ae74ff4b" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22bde90582-8a87-45cf-981a-9f5d1777f6f0%22%2C%22queries%22%3A%5B%7B%22query%22%3A%22ea634f31089539e7a7ff62a4ae74ff4b%22%7D%5D%7D" xr:uid="{04841AC9-B9A3-CF4D-9144-6CE46CA6511D}"/>
-    <hyperlink ref="B24" r:id="rId12" tooltip="Trace: 94ca493d38d2f001c51c071e7f81a6fe" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22bde90582-8a87-45cf-981a-9f5d1777f6f0%22%2C%22queries%22%3A%5B%7B%22query%22%3A%2294ca493d38d2f001c51c071e7f81a6fe%22%7D%5D%7D" xr:uid="{57F53D48-84B1-CB4C-A51C-6ABD97F30C3F}"/>
-    <hyperlink ref="B25" r:id="rId13" tooltip="Trace: e5be6bba30dce2e3e57c619ca44832c2" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22bde90582-8a87-45cf-981a-9f5d1777f6f0%22%2C%22queries%22%3A%5B%7B%22query%22%3A%22e5be6bba30dce2e3e57c619ca44832c2%22%7D%5D%7D" xr:uid="{F0E11DC4-9089-674F-8893-F68986294EB9}"/>
-    <hyperlink ref="B26" r:id="rId14" tooltip="Trace: 6f6eb7ec6e99897fb4551f79a7969d35" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22bde90582-8a87-45cf-981a-9f5d1777f6f0%22%2C%22queries%22%3A%5B%7B%22query%22%3A%226f6eb7ec6e99897fb4551f79a7969d35%22%7D%5D%7D" xr:uid="{B7E97498-B31F-034B-8863-E064AC49A007}"/>
-    <hyperlink ref="B28" r:id="rId15" tooltip="Trace: 7e34cdb0b7a0dbe5d04266a3f1362464" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22bde90582-8a87-45cf-981a-9f5d1777f6f0%22%2C%22queries%22%3A%5B%7B%22query%22%3A%227e34cdb0b7a0dbe5d04266a3f1362464%22%7D%5D%7D" xr:uid="{AF334414-E124-5741-B3C8-25C65F3E9CB1}"/>
-    <hyperlink ref="B29" r:id="rId16" tooltip="Trace: f9ce4c7d15493f24bfe4e410a803275b" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22bde90582-8a87-45cf-981a-9f5d1777f6f0%22%2C%22queries%22%3A%5B%7B%22query%22%3A%22f9ce4c7d15493f24bfe4e410a803275b%22%7D%5D%7D" xr:uid="{E099D857-1F81-8D43-B914-F080D0313FA3}"/>
-    <hyperlink ref="B30" r:id="rId17" tooltip="Trace: 9ade36b4d5bddbfdfdbc01737a9337a9" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22bde90582-8a87-45cf-981a-9f5d1777f6f0%22%2C%22queries%22%3A%5B%7B%22query%22%3A%229ade36b4d5bddbfdfdbc01737a9337a9%22%7D%5D%7D" xr:uid="{442E219F-32EF-BB40-A1F8-B2DE7F505124}"/>
+    <hyperlink ref="I10" r:id="rId1" tooltip="Trace: 671b13bd98f809825dc37030fa95903f" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-5m%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22PC9A941E8F2E49454%22%2C%22queries%22%3A%5B%7B%22query%22%3A%22671b13bd98f809825dc37030fa95903f%22%7D%5D%7D" xr:uid="{424B5E4F-49DC-C541-8233-FD3C2F1232DD}"/>
+    <hyperlink ref="I11" r:id="rId2" tooltip="Trace: c8da236bd443a1a4837744b37f8239d8" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-5m%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22PC9A941E8F2E49454%22%2C%22queries%22%3A%5B%7B%22query%22%3A%22c8da236bd443a1a4837744b37f8239d8%22%7D%5D%7D" xr:uid="{C5CD8A30-58DB-B348-98A1-FD4CEBACC3D5}"/>
+    <hyperlink ref="I12" r:id="rId3" tooltip="Trace: 397fa67094492151620db74873ce64e9" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-5m%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22PC9A941E8F2E49454%22%2C%22queries%22%3A%5B%7B%22query%22%3A%22397fa67094492151620db74873ce64e9%22%7D%5D%7D" xr:uid="{1DF3CC91-4E08-7945-8971-5BB4311C6F33}"/>
+    <hyperlink ref="I13" r:id="rId4" tooltip="Trace: 8080d41bbd78431993f023220c4ec912" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-5m%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22PC9A941E8F2E49454%22%2C%22queries%22%3A%5B%7B%22query%22%3A%228080d41bbd78431993f023220c4ec912%22%7D%5D%7D" xr:uid="{5A6E4631-6FED-B14B-A622-24F56EF73F4B}"/>
+    <hyperlink ref="I14" r:id="rId5" tooltip="Trace: a792aeb2d0f5ba7cbc4f452d98a74607" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-5m%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22PC9A941E8F2E49454%22%2C%22queries%22%3A%5B%7B%22query%22%3A%22a792aeb2d0f5ba7cbc4f452d98a74607%22%7D%5D%7D" xr:uid="{4706F2A4-ECB6-644F-B94C-B5B5BBE98AC3}"/>
+    <hyperlink ref="I16" r:id="rId6" tooltip="Trace: f4e494e3a7607fcee24b4e29d7c26eb3" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22PC9A941E8F2E49454%22%2C%22queries%22%3A%5B%7B%22query%22%3A%22f4e494e3a7607fcee24b4e29d7c26eb3%22%7D%5D%7D" xr:uid="{598D7319-A4E7-4D45-BB6E-E40098F995FA}"/>
+    <hyperlink ref="I17" r:id="rId7" tooltip="Trace: fb45bd6c7bc2eb420e483a207144f227" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22PC9A941E8F2E49454%22%2C%22queries%22%3A%5B%7B%22query%22%3A%22fb45bd6c7bc2eb420e483a207144f227%22%7D%5D%7D" xr:uid="{5CD9EEC9-45B7-2C48-89A6-3A2118552EEE}"/>
+    <hyperlink ref="I18" r:id="rId8" tooltip="Trace: 728a3fa50bb27a80c109f0b66e2730c5" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22PC9A941E8F2E49454%22%2C%22queries%22%3A%5B%7B%22query%22%3A%22728a3fa50bb27a80c109f0b66e2730c5%22%7D%5D%7D" xr:uid="{A66AB600-B40C-934D-BDF6-477AF3685AA3}"/>
+    <hyperlink ref="I19" r:id="rId9" tooltip="Trace: 981def94b6abf804d5b92b03a5b5eab3" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22PC9A941E8F2E49454%22%2C%22queries%22%3A%5B%7B%22query%22%3A%22981def94b6abf804d5b92b03a5b5eab3%22%7D%5D%7D" xr:uid="{B2D953F2-1223-654C-B261-2C6BBB0A31D1}"/>
+    <hyperlink ref="I20" r:id="rId10" tooltip="Trace: 999c62f1951388f4e1aec67b0f19d23f" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22PC9A941E8F2E49454%22%2C%22queries%22%3A%5B%7B%22query%22%3A%22999c62f1951388f4e1aec67b0f19d23f%22%7D%5D%7D" xr:uid="{1157093E-6648-6F45-890A-984670D78C33}"/>
+    <hyperlink ref="I22" r:id="rId11" tooltip="Trace: 9117661af5e0d2e6682a926fc40c79d6" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22PC9A941E8F2E49454%22%2C%22queries%22%3A%5B%7B%22query%22%3A%229117661af5e0d2e6682a926fc40c79d6%22%7D%5D%7D" xr:uid="{DA697E46-769A-C640-948B-3A352DE40249}"/>
+    <hyperlink ref="I23" r:id="rId12" tooltip="Trace: 5ee3f6aa83282c996e7e61ca4a5c8da0" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22PC9A941E8F2E49454%22%2C%22queries%22%3A%5B%7B%22query%22%3A%225ee3f6aa83282c996e7e61ca4a5c8da0%22%7D%5D%7D" xr:uid="{7AB21127-74D1-D245-AF18-B3794BF6303C}"/>
+    <hyperlink ref="I24" r:id="rId13" tooltip="Trace: c7bb8be8cb5c585b27de791211148a52" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22PC9A941E8F2E49454%22%2C%22queries%22%3A%5B%7B%22query%22%3A%22c7bb8be8cb5c585b27de791211148a52%22%7D%5D%7D" xr:uid="{1E0A3D41-6DC1-F647-8CE9-A56ED16DEF0F}"/>
+    <hyperlink ref="I25" r:id="rId14" tooltip="Trace: 3ff6b1cc4294cfba7c2a2a06ab995cdd" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22PC9A941E8F2E49454%22%2C%22queries%22%3A%5B%7B%22query%22%3A%223ff6b1cc4294cfba7c2a2a06ab995cdd%22%7D%5D%7D" xr:uid="{68A7FFE1-4779-9E47-AFEC-D9909871537C}"/>
+    <hyperlink ref="I26" r:id="rId15" tooltip="Trace: 4bfc4fe9a001ca2b2a5baec9e6a40fb9" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22PC9A941E8F2E49454%22%2C%22queries%22%3A%5B%7B%22query%22%3A%224bfc4fe9a001ca2b2a5baec9e6a40fb9%22%7D%5D%7D" xr:uid="{B6C09F00-3DD7-474A-B68F-1E3E96AB61D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Requirements.xlsx
+++ b/docs/Requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorrit/Documents/master-software-engineering/thesis/DYNAMOS/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5864A003-B4BD-464C-B1A4-5BBC03434BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812FCB98-2257-984C-B055-3AC3D64098B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="1940" windowWidth="31740" windowHeight="17440" activeTab="2" xr2:uid="{D6BE7BD5-07AA-4048-B7F7-9B37E5199ABD}"/>
+    <workbookView xWindow="17920" yWindow="1580" windowWidth="31740" windowHeight="17440" activeTab="2" xr2:uid="{D6BE7BD5-07AA-4048-B7F7-9B37E5199ABD}"/>
   </bookViews>
   <sheets>
     <sheet name="Microservices" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="163">
   <si>
     <t>Receive messages from an input queue</t>
   </si>
@@ -392,9 +392,6 @@
     <t>4.5</t>
   </si>
   <si>
-    <t>bebfc6fd</t>
-  </si>
-  <si>
     <t>f4e494e3a7607fcee24b4e29d7c26eb3</t>
   </si>
   <si>
@@ -450,6 +447,87 @@
   </si>
   <si>
     <t>8.01</t>
+  </si>
+  <si>
+    <t>4433b19eced5d4739439989288f15f0a</t>
+  </si>
+  <si>
+    <t>3.31</t>
+  </si>
+  <si>
+    <t>cf582a7c1445d40e4815756699f00cef</t>
+  </si>
+  <si>
+    <t>3.43</t>
+  </si>
+  <si>
+    <t>24f5181f8b604a0b328a45a8346ed422</t>
+  </si>
+  <si>
+    <t>3.51</t>
+  </si>
+  <si>
+    <t>3d5de56aee170d75e636a491b2a9d4b0</t>
+  </si>
+  <si>
+    <t>4.12</t>
+  </si>
+  <si>
+    <t>9f8442162985c967d47d4a64f1c8be4a</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>555c7732b118ddae6487c0f7335a3811</t>
+  </si>
+  <si>
+    <t>b7be3ebf9b59c78da1e7465bde376bf0</t>
+  </si>
+  <si>
+    <t>5.08</t>
+  </si>
+  <si>
+    <t>7df306ae8e6ad503b66475c5fcae312e</t>
+  </si>
+  <si>
+    <t>4.85</t>
+  </si>
+  <si>
+    <t>51aee5c2f10794e0c00f9a9affc36be2</t>
+  </si>
+  <si>
+    <t>4.69</t>
+  </si>
+  <si>
+    <t>1f5cf3101001ec2958d87157de9ff05e</t>
+  </si>
+  <si>
+    <t>6.47</t>
+  </si>
+  <si>
+    <t>9b5a3a699733e5cf9fc9ce610030ae3e</t>
+  </si>
+  <si>
+    <t>988b82a173043c9fb255ef6836a13da4</t>
+  </si>
+  <si>
+    <t>f7be89afcdc3892b2bd2e65d5ea0edcb</t>
+  </si>
+  <si>
+    <t>5.59</t>
+  </si>
+  <si>
+    <t>938ef240abfc392dc6ce906e84570887</t>
+  </si>
+  <si>
+    <t>5.89</t>
+  </si>
+  <si>
+    <t>61a026f82c5fd6fbcc2a1672aca7aa15</t>
+  </si>
+  <si>
+    <t>4.74</t>
   </si>
 </sst>
 </file>
@@ -1371,10 +1449,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E058B4D8-EEB6-994D-9F38-3AD51C0357E5}">
-  <dimension ref="B5:P42"/>
+  <dimension ref="B8:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1396,11 +1474,6 @@
     <col min="24" max="24" width="36.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="I5" t="s">
-        <v>117</v>
-      </c>
-    </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>95</v>
@@ -1465,12 +1538,27 @@
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B10" s="12" t="s">
+        <v>136</v>
+      </c>
       <c r="C10" s="10">
         <v>10000</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="10">
+        <f>16032-15917</f>
+        <v>115</v>
+      </c>
+      <c r="F10" s="10">
+        <f>16159-16060</f>
+        <v>99</v>
+      </c>
+      <c r="G10">
+        <f>16316-16159</f>
+        <v>157</v>
+      </c>
       <c r="I10" s="12" t="s">
         <v>106</v>
       </c>
@@ -1502,12 +1590,27 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B11" s="12" t="s">
+        <v>138</v>
+      </c>
       <c r="C11" s="10">
         <v>10000</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" s="10">
+        <f>33806-33710</f>
+        <v>96</v>
+      </c>
+      <c r="F11" s="10">
+        <f>33936-33826</f>
+        <v>110</v>
+      </c>
+      <c r="G11">
+        <f>34096-33936</f>
+        <v>160</v>
+      </c>
       <c r="I11" s="12" t="s">
         <v>109</v>
       </c>
@@ -1539,13 +1642,27 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B12" s="12"/>
+      <c r="B12" s="12" t="s">
+        <v>161</v>
+      </c>
       <c r="C12" s="10">
         <v>10000</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="D12" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="10">
+        <f>34295-34183</f>
+        <v>112</v>
+      </c>
+      <c r="F12" s="10">
+        <f>34559-34461</f>
+        <v>98</v>
+      </c>
+      <c r="G12">
+        <f>34703-34559</f>
+        <v>144</v>
+      </c>
       <c r="I12" s="12" t="s">
         <v>111</v>
       </c>
@@ -1577,13 +1694,27 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B13" s="12"/>
+      <c r="B13" s="12" t="s">
+        <v>140</v>
+      </c>
       <c r="C13" s="10">
         <v>10000</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="D13" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="10">
+        <f>53636-53539</f>
+        <v>97</v>
+      </c>
+      <c r="F13" s="10">
+        <f>53768-53660</f>
+        <v>108</v>
+      </c>
+      <c r="G13">
+        <f>53967-53768</f>
+        <v>199</v>
+      </c>
       <c r="I13" s="12" t="s">
         <v>113</v>
       </c>
@@ -1615,13 +1746,27 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B14" s="12"/>
+      <c r="B14" s="12" t="s">
+        <v>142</v>
+      </c>
       <c r="C14" s="10">
         <v>10000</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="D14" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="10">
+        <f>45372-45259</f>
+        <v>113</v>
+      </c>
+      <c r="F14" s="10">
+        <f>45519-45400</f>
+        <v>119</v>
+      </c>
+      <c r="G14">
+        <f>45694-45519</f>
+        <v>175</v>
+      </c>
       <c r="I14" s="12" t="s">
         <v>115</v>
       </c>
@@ -1668,17 +1813,32 @@
       <c r="P15" s="23"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B16" s="12" t="s">
+        <v>144</v>
+      </c>
       <c r="C16" s="10">
         <v>20000</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16">
+        <f>14915-14729</f>
+        <v>186</v>
+      </c>
+      <c r="F16" s="10">
+        <f>15152-14947</f>
+        <v>205</v>
+      </c>
+      <c r="G16">
+        <f>15499-15152</f>
+        <v>347</v>
+      </c>
       <c r="I16" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J16" s="21" t="s">
         <v>118</v>
-      </c>
-      <c r="J16" s="21" t="s">
-        <v>119</v>
       </c>
       <c r="K16" s="22">
         <f>656-465</f>
@@ -1705,15 +1865,29 @@
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B17" s="12"/>
+      <c r="B17" s="12" t="s">
+        <v>146</v>
+      </c>
       <c r="C17" s="10">
         <v>20000</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="D17" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17">
+        <f>26228-26061</f>
+        <v>167</v>
+      </c>
+      <c r="F17" s="10">
+        <f>26515-26259</f>
+        <v>256</v>
+      </c>
+      <c r="G17">
+        <f>26841-26515</f>
+        <v>326</v>
+      </c>
       <c r="I17" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J17" s="21" t="s">
         <v>93</v>
@@ -1742,18 +1916,32 @@
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="12"/>
+      <c r="B18" s="12" t="s">
+        <v>147</v>
+      </c>
       <c r="C18" s="10">
         <v>20000</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+      <c r="D18" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="10">
+        <f>42879-42539</f>
+        <v>340</v>
+      </c>
+      <c r="F18" s="10">
+        <f>43368-43026</f>
+        <v>342</v>
+      </c>
+      <c r="G18">
+        <f>43707-43368</f>
+        <v>339</v>
+      </c>
       <c r="I18" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J18" s="21" t="s">
         <v>121</v>
-      </c>
-      <c r="J18" s="21" t="s">
-        <v>122</v>
       </c>
       <c r="K18" s="22">
         <f>1085-930</f>
@@ -1780,18 +1968,32 @@
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B19" s="12"/>
+      <c r="B19" s="12" t="s">
+        <v>149</v>
+      </c>
       <c r="C19" s="10">
         <v>20000</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="D19" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" s="10">
+        <f>56432-56251</f>
+        <v>181</v>
+      </c>
+      <c r="F19" s="10">
+        <f>56713-56474</f>
+        <v>239</v>
+      </c>
+      <c r="G19">
+        <f>57062-56713</f>
+        <v>349</v>
+      </c>
       <c r="I19" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J19" s="21" t="s">
         <v>123</v>
-      </c>
-      <c r="J19" s="21" t="s">
-        <v>124</v>
       </c>
       <c r="K19" s="22">
         <f>299-142</f>
@@ -1818,18 +2020,32 @@
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="12"/>
+      <c r="B20" s="12" t="s">
+        <v>151</v>
+      </c>
       <c r="C20" s="10">
         <v>20000</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="D20" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="10">
+        <f>15159-14968</f>
+        <v>191</v>
+      </c>
+      <c r="F20" s="10">
+        <f>15476-15195</f>
+        <v>281</v>
+      </c>
+      <c r="G20">
+        <f>15815-15476</f>
+        <v>339</v>
+      </c>
       <c r="I20" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J20" s="21" t="s">
         <v>125</v>
-      </c>
-      <c r="J20" s="21" t="s">
-        <v>126</v>
       </c>
       <c r="K20" s="22">
         <f>764-599</f>
@@ -1871,18 +2087,32 @@
       <c r="P21" s="23"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="12"/>
+      <c r="B22" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="C22" s="10">
         <v>30000</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="D22" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" s="10">
+        <f>38623-38305</f>
+        <v>318</v>
+      </c>
+      <c r="F22" s="10">
+        <f>39444-38768</f>
+        <v>676</v>
+      </c>
+      <c r="G22">
+        <f>40151-39444</f>
+        <v>707</v>
+      </c>
       <c r="I22" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J22" s="21" t="s">
         <v>127</v>
-      </c>
-      <c r="J22" s="21" t="s">
-        <v>128</v>
       </c>
       <c r="K22" s="22">
         <f>18421-18174</f>
@@ -1909,16 +2139,32 @@
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B23" s="12"/>
+      <c r="B23" s="12" t="s">
+        <v>155</v>
+      </c>
       <c r="C23" s="10">
         <v>30000</v>
       </c>
-      <c r="D23" s="10"/>
+      <c r="D23" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23">
+        <f>58544-58291</f>
+        <v>253</v>
+      </c>
+      <c r="F23">
+        <f>59243-58585</f>
+        <v>658</v>
+      </c>
+      <c r="G23">
+        <f>59743-59243</f>
+        <v>500</v>
+      </c>
       <c r="I23" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="J23" s="21" t="s">
         <v>129</v>
-      </c>
-      <c r="J23" s="21" t="s">
-        <v>130</v>
       </c>
       <c r="K23" s="22">
         <f>35955-35585</f>
@@ -1945,16 +2191,32 @@
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="12"/>
+      <c r="B24" s="12" t="s">
+        <v>156</v>
+      </c>
       <c r="C24" s="10">
         <v>30000</v>
       </c>
-      <c r="D24" s="10"/>
+      <c r="D24" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24">
+        <f>12829-12579</f>
+        <v>250</v>
+      </c>
+      <c r="F24">
+        <f>13386-12888</f>
+        <v>498</v>
+      </c>
+      <c r="G24">
+        <f>13972-13386</f>
+        <v>586</v>
+      </c>
       <c r="I24" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J24" s="21" t="s">
         <v>131</v>
-      </c>
-      <c r="J24" s="21" t="s">
-        <v>132</v>
       </c>
       <c r="K24" s="22">
         <f>1067-666</f>
@@ -1981,16 +2243,32 @@
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B25" s="12"/>
+      <c r="B25" s="12" t="s">
+        <v>157</v>
+      </c>
       <c r="C25" s="10">
         <v>30000</v>
       </c>
-      <c r="D25" s="10"/>
+      <c r="D25" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E25">
+        <f>29479-29210</f>
+        <v>269</v>
+      </c>
+      <c r="F25">
+        <f>30220-29551</f>
+        <v>669</v>
+      </c>
+      <c r="G25">
+        <f>30841-30220</f>
+        <v>621</v>
+      </c>
       <c r="I25" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J25" s="21" t="s">
         <v>133</v>
-      </c>
-      <c r="J25" s="21" t="s">
-        <v>134</v>
       </c>
       <c r="K25" s="22">
         <f>15283-15030</f>
@@ -2018,16 +2296,32 @@
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B26" s="12"/>
+      <c r="B26" s="12" t="s">
+        <v>159</v>
+      </c>
       <c r="C26" s="10">
         <v>30000</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E26">
+        <f>43684-43452</f>
+        <v>232</v>
+      </c>
+      <c r="F26">
+        <f>44048-43733</f>
+        <v>315</v>
+      </c>
+      <c r="G26">
+        <f>44524-44048</f>
+        <v>476</v>
+      </c>
       <c r="I26" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="J26" s="24" t="s">
         <v>135</v>
-      </c>
-      <c r="J26" s="24" t="s">
-        <v>136</v>
       </c>
       <c r="K26" s="25">
         <f>31457-31217</f>
@@ -2213,6 +2507,19 @@
     <hyperlink ref="I24" r:id="rId13" tooltip="Trace: c7bb8be8cb5c585b27de791211148a52" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22PC9A941E8F2E49454%22%2C%22queries%22%3A%5B%7B%22query%22%3A%22c7bb8be8cb5c585b27de791211148a52%22%7D%5D%7D" xr:uid="{1E0A3D41-6DC1-F647-8CE9-A56ED16DEF0F}"/>
     <hyperlink ref="I25" r:id="rId14" tooltip="Trace: 3ff6b1cc4294cfba7c2a2a06ab995cdd" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22PC9A941E8F2E49454%22%2C%22queries%22%3A%5B%7B%22query%22%3A%223ff6b1cc4294cfba7c2a2a06ab995cdd%22%7D%5D%7D" xr:uid="{68A7FFE1-4779-9E47-AFEC-D9909871537C}"/>
     <hyperlink ref="I26" r:id="rId15" tooltip="Trace: 4bfc4fe9a001ca2b2a5baec9e6a40fb9" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22PC9A941E8F2E49454%22%2C%22queries%22%3A%5B%7B%22query%22%3A%224bfc4fe9a001ca2b2a5baec9e6a40fb9%22%7D%5D%7D" xr:uid="{B6C09F00-3DD7-474A-B68F-1E3E96AB61D5}"/>
+    <hyperlink ref="B10" r:id="rId16" tooltip="Trace: 4433b19eced5d4739439989288f15f0a" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22PC9A941E8F2E49454%22%2C%22queries%22%3A%5B%7B%22query%22%3A%224433b19eced5d4739439989288f15f0a%22%7D%5D%7D" xr:uid="{4BB6B610-C03E-A44C-B3D7-893B3A592F02}"/>
+    <hyperlink ref="B11" r:id="rId17" tooltip="Trace: cf582a7c1445d40e4815756699f00cef" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22PC9A941E8F2E49454%22%2C%22queries%22%3A%5B%7B%22query%22%3A%22cf582a7c1445d40e4815756699f00cef%22%7D%5D%7D" xr:uid="{C121BD4B-F158-0A4F-81B1-EC976A27C6AA}"/>
+    <hyperlink ref="B14" r:id="rId18" tooltip="Trace: 3d5de56aee170d75e636a491b2a9d4b0" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22PC9A941E8F2E49454%22%2C%22queries%22%3A%5B%7B%22query%22%3A%223d5de56aee170d75e636a491b2a9d4b0%22%7D%5D%7D" xr:uid="{62BB0104-1323-6E49-B8AE-F7CAC9977B43}"/>
+    <hyperlink ref="B16" r:id="rId19" tooltip="Trace: 9f8442162985c967d47d4a64f1c8be4a" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22PC9A941E8F2E49454%22%2C%22queries%22%3A%5B%7B%22query%22%3A%229f8442162985c967d47d4a64f1c8be4a%22%7D%5D%7D" xr:uid="{DE9FE605-BF7E-4C42-BAE3-20D3FA0A17A8}"/>
+    <hyperlink ref="B17" r:id="rId20" tooltip="Trace: 555c7732b118ddae6487c0f7335a3811" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22PC9A941E8F2E49454%22%2C%22queries%22%3A%5B%7B%22query%22%3A%22555c7732b118ddae6487c0f7335a3811%22%7D%5D%7D" xr:uid="{CC9898BD-9097-B942-9DC2-E8BB60F5CD2C}"/>
+    <hyperlink ref="B18" r:id="rId21" tooltip="Trace: b7be3ebf9b59c78da1e7465bde376bf0" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22PC9A941E8F2E49454%22%2C%22queries%22%3A%5B%7B%22query%22%3A%22b7be3ebf9b59c78da1e7465bde376bf0%22%7D%5D%7D" xr:uid="{4A1D1B8D-CF73-254E-B62B-E0792E891022}"/>
+    <hyperlink ref="B19" r:id="rId22" tooltip="Trace: 7df306ae8e6ad503b66475c5fcae312e" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22PC9A941E8F2E49454%22%2C%22queries%22%3A%5B%7B%22query%22%3A%227df306ae8e6ad503b66475c5fcae312e%22%7D%5D%7D" xr:uid="{9D89EEF3-5195-BB4F-92AB-DB30DA8F95BE}"/>
+    <hyperlink ref="B20" r:id="rId23" tooltip="Trace: 51aee5c2f10794e0c00f9a9affc36be2" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22PC9A941E8F2E49454%22%2C%22queries%22%3A%5B%7B%22query%22%3A%2251aee5c2f10794e0c00f9a9affc36be2%22%7D%5D%7D" xr:uid="{5F19F994-95E3-EB41-A454-56D74C6BFFC5}"/>
+    <hyperlink ref="B22" r:id="rId24" tooltip="Trace: 1f5cf3101001ec2958d87157de9ff05e" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22PC9A941E8F2E49454%22%2C%22queries%22%3A%5B%7B%22query%22%3A%221f5cf3101001ec2958d87157de9ff05e%22%7D%5D%7D" xr:uid="{2DEF1C2E-179E-004E-BBEC-E425A0E54ACA}"/>
+    <hyperlink ref="B23" r:id="rId25" tooltip="Trace: 9b5a3a699733e5cf9fc9ce610030ae3e" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22PC9A941E8F2E49454%22%2C%22queries%22%3A%5B%7B%22query%22%3A%229b5a3a699733e5cf9fc9ce610030ae3e%22%7D%5D%7D" xr:uid="{69D00CAF-F389-FD4B-900B-4CFBAAC60851}"/>
+    <hyperlink ref="B24" r:id="rId26" tooltip="Trace: 988b82a173043c9fb255ef6836a13da4" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22PC9A941E8F2E49454%22%2C%22queries%22%3A%5B%7B%22query%22%3A%22988b82a173043c9fb255ef6836a13da4%22%7D%5D%7D" xr:uid="{5A55AFCB-EF24-D641-B08A-B546E90D767B}"/>
+    <hyperlink ref="B25" r:id="rId27" tooltip="Trace: f7be89afcdc3892b2bd2e65d5ea0edcb" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22PC9A941E8F2E49454%22%2C%22queries%22%3A%5B%7B%22query%22%3A%22f7be89afcdc3892b2bd2e65d5ea0edcb%22%7D%5D%7D" xr:uid="{43F1EF18-EB94-314E-A8CD-63072792D9CF}"/>
+    <hyperlink ref="B26" r:id="rId28" tooltip="Trace: 938ef240abfc392dc6ce906e84570887" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22PC9A941E8F2E49454%22%2C%22queries%22%3A%5B%7B%22query%22%3A%22938ef240abfc392dc6ce906e84570887%22%7D%5D%7D" xr:uid="{5E263B18-FE6A-BC44-A6D1-9AAD270B6871}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Requirements.xlsx
+++ b/docs/Requirements.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorrit/Documents/master-software-engineering/thesis/DYNAMOS/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812FCB98-2257-984C-B055-3AC3D64098B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B1BAFE-D905-204E-826E-BCFC4624B400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17920" yWindow="1580" windowWidth="31740" windowHeight="17440" activeTab="2" xr2:uid="{D6BE7BD5-07AA-4048-B7F7-9B37E5199ABD}"/>
+    <workbookView xWindow="11500" yWindow="22100" windowWidth="32120" windowHeight="20200" activeTab="3" xr2:uid="{D6BE7BD5-07AA-4048-B7F7-9B37E5199ABD}"/>
   </bookViews>
   <sheets>
     <sheet name="Microservices" sheetId="1" r:id="rId1"/>
     <sheet name="agent actions" sheetId="3" r:id="rId2"/>
-    <sheet name="results" sheetId="4" r:id="rId3"/>
-    <sheet name="Dynamos" sheetId="2" r:id="rId4"/>
+    <sheet name="Experiment 1" sheetId="4" r:id="rId3"/>
+    <sheet name="Experiment 2" sheetId="5" r:id="rId4"/>
+    <sheet name="Dynamos" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="182">
   <si>
     <t>Receive messages from an input queue</t>
   </si>
@@ -293,9 +294,6 @@
     <t>Limit</t>
   </si>
   <si>
-    <t>JSON string</t>
-  </si>
-  <si>
     <t>JSON bytes</t>
   </si>
   <si>
@@ -317,9 +315,6 @@
     <t>0.168</t>
   </si>
   <si>
-    <t>Total time</t>
-  </si>
-  <si>
     <t>6.77</t>
   </si>
   <si>
@@ -528,13 +523,76 @@
   </si>
   <si>
     <t>4.74</t>
+  </si>
+  <si>
+    <t>Latency</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>STDEV</t>
+  </si>
+  <si>
+    <t>MP2, MP4, MP8</t>
+  </si>
+  <si>
+    <t>MP3, MP5, MP9</t>
+  </si>
+  <si>
+    <t>Measuring points</t>
+  </si>
+  <si>
+    <t>Transfer speed MB/s</t>
+  </si>
+  <si>
+    <t>Avg. gRPC transfer speed</t>
+  </si>
+  <si>
+    <t>Vs. Just gRPC</t>
+  </si>
+  <si>
+    <t>Startup time</t>
+  </si>
+  <si>
+    <t>Processing time</t>
+  </si>
+  <si>
+    <t>Transfer times</t>
+  </si>
+  <si>
+    <t>Startup percentage</t>
+  </si>
+  <si>
+    <t>Total processing time</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Startup time: </t>
+  </si>
+  <si>
+    <t>Starttime query - starttime sendMicroservicComm</t>
+  </si>
+  <si>
+    <t>Load and query csv + dataframe_to_protobuf + handleSqldatarequest</t>
+  </si>
+  <si>
+    <t>Latency - (Startup + processing time)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -597,16 +655,58 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF24292E"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -700,12 +800,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -715,8 +833,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -727,6 +843,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -736,28 +862,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1311,11 +1442,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -1449,10 +1580,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E058B4D8-EEB6-994D-9F38-3AD51C0357E5}">
-  <dimension ref="B8:P42"/>
+  <dimension ref="B4:U76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1463,1031 +1594,2281 @@
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.6640625" customWidth="1"/>
-    <col min="14" max="14" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.6640625" customWidth="1"/>
-    <col min="20" max="21" width="19.6640625" customWidth="1"/>
-    <col min="22" max="22" width="35" customWidth="1"/>
-    <col min="23" max="23" width="35.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.33203125" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.6640625" customWidth="1"/>
+    <col min="15" max="15" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.6640625" customWidth="1"/>
+    <col min="21" max="22" width="19.6640625" customWidth="1"/>
+    <col min="23" max="23" width="35" customWidth="1"/>
+    <col min="24" max="24" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="36.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="9" t="s">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="K8" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="21"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="27"/>
-      <c r="J8" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="15"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C9" s="9" t="s">
+      <c r="G9" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="K9" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="L9" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="M9" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="K9" s="19" t="s">
+      <c r="N9" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="O9" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="P9" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="N9" s="19" t="s">
+      <c r="Q9" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="O9" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="P9" s="20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B10" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="10">
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B10" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="8">
         <v>10000</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" s="10">
+      <c r="D10" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="8">
         <f>16032-15917</f>
         <v>115</v>
       </c>
-      <c r="F10" s="10">
-        <f>16159-16060</f>
+      <c r="F10">
+        <f>27734-27635</f>
         <v>99</v>
       </c>
       <c r="G10">
         <f>16316-16159</f>
         <v>157</v>
       </c>
-      <c r="I10" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="K10" s="22">
+      <c r="I10" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" s="8">
+        <v>10000</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10">
         <f>322-238</f>
         <v>84</v>
       </c>
-      <c r="L10" s="22">
+      <c r="M10">
         <f>759-609</f>
         <v>150</v>
       </c>
-      <c r="M10" s="22">
+      <c r="N10">
         <f>1071-848</f>
         <v>223</v>
       </c>
-      <c r="N10" s="22">
+      <c r="O10">
         <v>98</v>
       </c>
-      <c r="O10" s="22">
+      <c r="P10">
         <f>994-870</f>
         <v>124</v>
       </c>
-      <c r="P10" s="22">
+      <c r="Q10">
         <f>1124-994</f>
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B11" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="10">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B11" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="8">
         <v>10000</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E11" s="10">
+      <c r="D11" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="8">
         <f>33806-33710</f>
         <v>96</v>
       </c>
-      <c r="F11" s="10">
-        <f>33936-33826</f>
-        <v>110</v>
+      <c r="F11">
+        <f>33773-33659</f>
+        <v>114</v>
       </c>
       <c r="G11">
         <f>34096-33936</f>
         <v>160</v>
       </c>
-      <c r="I11" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="J11" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="K11" s="22">
+      <c r="I11" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" s="8">
+        <v>10000</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11">
         <f>322-238</f>
         <v>84</v>
       </c>
-      <c r="L11" s="22">
+      <c r="M11">
         <f>508-345</f>
         <v>163</v>
       </c>
-      <c r="M11" s="22">
+      <c r="N11">
         <f>858-605</f>
         <v>253</v>
       </c>
-      <c r="N11" s="22">
+      <c r="O11">
         <v>96</v>
       </c>
-      <c r="O11" s="22">
+      <c r="P11">
         <f>388-291</f>
         <v>97</v>
       </c>
-      <c r="P11" s="22">
+      <c r="Q11">
         <f>525-388</f>
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B12" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="C12" s="10">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B12" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="8">
         <v>10000</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" s="10">
+      <c r="D12" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="8">
         <f>34295-34183</f>
         <v>112</v>
       </c>
-      <c r="F12" s="10">
-        <f>34559-34461</f>
-        <v>98</v>
+      <c r="F12">
+        <f>53058-52958</f>
+        <v>100</v>
       </c>
       <c r="G12">
         <f>34703-34559</f>
         <v>144</v>
       </c>
-      <c r="I12" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="K12" s="22">
+      <c r="I12" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" s="8">
+        <v>10000</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12">
         <f>326-226</f>
         <v>100</v>
       </c>
-      <c r="L12" s="22">
+      <c r="M12">
         <f>501-326</f>
         <v>175</v>
       </c>
-      <c r="M12" s="22">
+      <c r="N12">
         <f>850-586</f>
         <v>264</v>
       </c>
-      <c r="N12" s="22">
+      <c r="O12">
         <v>95</v>
       </c>
-      <c r="O12" s="22">
+      <c r="P12">
         <f>361-273</f>
         <v>88</v>
       </c>
-      <c r="P12" s="22">
+      <c r="Q12">
         <f>478-361</f>
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B13" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" s="10">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B13" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="8">
         <v>10000</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="D13" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="8">
         <f>53636-53539</f>
         <v>97</v>
       </c>
-      <c r="F13" s="10">
-        <f>53768-53660</f>
-        <v>108</v>
+      <c r="F13">
+        <f>12678-12565</f>
+        <v>113</v>
       </c>
       <c r="G13">
         <f>53967-53768</f>
         <v>199</v>
       </c>
-      <c r="I13" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="J13" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="K13" s="22">
+      <c r="I13" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" s="8">
+        <v>10000</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L13">
         <f>345-258</f>
         <v>87</v>
       </c>
-      <c r="L13" s="22">
+      <c r="M13">
         <f>474-322</f>
         <v>152</v>
       </c>
-      <c r="M13" s="22">
+      <c r="N13">
         <f>831-575</f>
         <v>256</v>
       </c>
-      <c r="N13" s="28">
+      <c r="O13">
         <v>111</v>
       </c>
-      <c r="O13" s="22">
+      <c r="P13">
         <f>368-260</f>
         <v>108</v>
       </c>
-      <c r="P13" s="22">
+      <c r="Q13">
         <f>492-368</f>
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B14" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" s="10">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B14" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="8">
         <v>10000</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E14" s="10">
+      <c r="D14" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="8">
         <f>45372-45259</f>
         <v>113</v>
       </c>
-      <c r="F14" s="10">
-        <f>45519-45400</f>
-        <v>119</v>
+      <c r="F14">
+        <f>35192-35075</f>
+        <v>117</v>
       </c>
       <c r="G14">
         <f>45694-45519</f>
         <v>175</v>
       </c>
-      <c r="I14" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="J14" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="K14" s="22">
+      <c r="I14" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J14" s="8">
+        <v>10000</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L14">
         <f>609-517</f>
         <v>92</v>
       </c>
-      <c r="L14" s="22">
+      <c r="M14">
         <f>759-609</f>
         <v>150</v>
       </c>
-      <c r="M14" s="22">
+      <c r="N14">
         <f>1107-864</f>
         <v>243</v>
       </c>
-      <c r="N14" s="28">
+      <c r="O14">
         <v>97</v>
       </c>
-      <c r="O14" s="22">
+      <c r="P14">
         <f>594-493</f>
         <v>101</v>
       </c>
-      <c r="P14" s="22">
+      <c r="Q14">
         <f>720-594</f>
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="23"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B16" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C16" s="10">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="12"/>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B16" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="8">
         <v>20000</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>145</v>
+      <c r="D16" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="E16">
         <f>14915-14729</f>
         <v>186</v>
       </c>
-      <c r="F16" s="10">
-        <f>15152-14947</f>
-        <v>205</v>
+      <c r="F16">
+        <f>31986-31787</f>
+        <v>199</v>
       </c>
       <c r="G16">
         <f>15499-15152</f>
         <v>347</v>
       </c>
-      <c r="I16" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="J16" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="K16" s="22">
+      <c r="I16" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J16" s="8">
+        <v>20000</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L16">
         <f>656-465</f>
         <v>191</v>
       </c>
-      <c r="L16" s="22">
+      <c r="M16">
         <f>979-656</f>
         <v>323</v>
       </c>
-      <c r="M16" s="22">
+      <c r="N16">
         <f>890-120</f>
         <v>770</v>
       </c>
-      <c r="N16" s="22">
+      <c r="O16">
         <v>273</v>
       </c>
-      <c r="O16" s="22">
+      <c r="P16">
         <f>18328-18123</f>
         <v>205</v>
       </c>
-      <c r="P16" s="23">
+      <c r="Q16" s="13">
         <f>18592-18328</f>
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B17" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" s="10">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B17" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="8">
         <v>20000</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>162</v>
+      <c r="D17" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="E17">
         <f>26228-26061</f>
         <v>167</v>
       </c>
-      <c r="F17" s="10">
-        <f>26515-26259</f>
-        <v>256</v>
+      <c r="F17">
+        <f>40062-39873</f>
+        <v>189</v>
       </c>
       <c r="G17">
         <f>26841-26515</f>
         <v>326</v>
       </c>
-      <c r="I17" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="J17" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="K17" s="22">
+      <c r="I17" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J17" s="8">
+        <v>20000</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L17">
         <f>1059-832</f>
         <v>227</v>
       </c>
-      <c r="L17" s="22">
+      <c r="M17">
         <v>300</v>
       </c>
-      <c r="M17" s="22">
+      <c r="N17">
         <f>46971-46491</f>
         <v>480</v>
       </c>
-      <c r="N17" s="22">
+      <c r="O17">
         <v>211</v>
       </c>
-      <c r="O17" s="22">
+      <c r="P17">
         <f>47931-47750</f>
         <v>181</v>
       </c>
-      <c r="P17" s="23">
+      <c r="Q17" s="13">
         <f>48190-47931</f>
         <v>259</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C18" s="10">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B18" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="8">
         <v>20000</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E18" s="10">
+      <c r="D18" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" s="8">
         <f>42879-42539</f>
         <v>340</v>
       </c>
-      <c r="F18" s="10">
-        <f>43368-43026</f>
-        <v>342</v>
+      <c r="F18">
+        <f>19445-19251</f>
+        <v>194</v>
       </c>
       <c r="G18">
         <f>43707-43368</f>
         <v>339</v>
       </c>
-      <c r="I18" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="J18" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="K18" s="22">
+      <c r="I18" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J18" s="8">
+        <v>20000</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="L18">
         <f>1085-930</f>
         <v>155</v>
       </c>
-      <c r="L18" s="22">
+      <c r="M18">
         <f>377-86</f>
         <v>291</v>
       </c>
-      <c r="M18" s="22">
+      <c r="N18">
         <f>14954-14500</f>
         <v>454</v>
       </c>
-      <c r="N18" s="22">
+      <c r="O18">
         <v>211</v>
       </c>
-      <c r="O18" s="22">
+      <c r="P18">
         <f>15875-15702</f>
         <v>173</v>
       </c>
-      <c r="P18" s="23">
+      <c r="Q18" s="13">
         <f>16114-15875</f>
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B19" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C19" s="10">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B19" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="8">
         <v>20000</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="E19" s="10">
+      <c r="D19" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="8">
         <f>56432-56251</f>
         <v>181</v>
       </c>
-      <c r="F19" s="10">
-        <f>56713-56474</f>
-        <v>239</v>
+      <c r="F19">
+        <f>25657-25407</f>
+        <v>250</v>
       </c>
       <c r="G19">
         <f>57062-56713</f>
         <v>349</v>
       </c>
-      <c r="I19" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="J19" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="K19" s="22">
+      <c r="I19" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J19" s="8">
+        <v>20000</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L19">
         <f>299-142</f>
         <v>157</v>
       </c>
-      <c r="L19" s="22">
+      <c r="M19">
         <f>580-299</f>
         <v>281</v>
       </c>
-      <c r="M19" s="28">
+      <c r="N19">
         <f>38129-37707</f>
         <v>422</v>
       </c>
-      <c r="N19" s="28">
+      <c r="O19">
         <v>190</v>
       </c>
-      <c r="O19" s="22">
+      <c r="P19">
         <f>39069-38879</f>
         <v>190</v>
       </c>
-      <c r="P19" s="23">
+      <c r="Q19" s="13">
         <f>39295-39069</f>
         <v>226</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C20" s="10">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B20" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="8">
         <v>20000</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E20" s="10">
+      <c r="D20" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" s="8">
         <f>15159-14968</f>
         <v>191</v>
       </c>
-      <c r="F20" s="10">
-        <f>15476-15195</f>
-        <v>281</v>
+      <c r="F20">
+        <f>42950-42751</f>
+        <v>199</v>
       </c>
       <c r="G20">
         <f>15815-15476</f>
         <v>339</v>
       </c>
-      <c r="I20" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="J20" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="K20" s="22">
+      <c r="I20" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J20" s="8">
+        <v>20000</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L20">
         <f>764-599</f>
         <v>165</v>
       </c>
-      <c r="L20" s="22">
+      <c r="M20">
         <f>1076-764</f>
         <v>312</v>
       </c>
-      <c r="M20" s="28">
+      <c r="N20">
         <f>56625-56178</f>
         <v>447</v>
       </c>
-      <c r="N20" s="28">
+      <c r="O20">
         <v>202</v>
       </c>
-      <c r="O20" s="22">
+      <c r="P20">
         <f>57580-57395</f>
         <v>185</v>
       </c>
-      <c r="P20" s="23">
+      <c r="Q20" s="13">
         <f>57812-57580</f>
         <v>232</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="23"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="C22" s="10">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="12"/>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B22" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="8">
         <v>30000</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E22" s="10">
-        <f>38623-38305</f>
-        <v>318</v>
-      </c>
-      <c r="F22" s="10">
-        <f>39444-38768</f>
-        <v>676</v>
+      <c r="D22" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22">
+        <f>59213-58994</f>
+        <v>219</v>
+      </c>
+      <c r="F22">
+        <f>57375-57090</f>
+        <v>285</v>
       </c>
       <c r="G22">
         <f>40151-39444</f>
         <v>707</v>
       </c>
-      <c r="I22" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="J22" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="K22" s="22">
+      <c r="I22" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="J22" s="8">
+        <v>30000</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="L22">
         <f>18421-18174</f>
         <v>247</v>
       </c>
-      <c r="L22" s="22">
+      <c r="M22">
         <f>18845-18421</f>
         <v>424</v>
       </c>
-      <c r="M22" s="22">
+      <c r="N22">
         <f>19736-19039</f>
         <v>697</v>
       </c>
-      <c r="N22" s="28">
+      <c r="O22">
         <v>320</v>
       </c>
-      <c r="O22" s="22">
+      <c r="P22">
         <f>21336-21024</f>
         <v>312</v>
       </c>
-      <c r="P22" s="23">
+      <c r="Q22" s="13">
         <f>21732-21336</f>
         <v>396</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B23" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C23" s="10">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B23" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="8">
         <v>30000</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>125</v>
+      <c r="D23" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="E23">
-        <f>58544-58291</f>
-        <v>253</v>
+        <f>12346-12083</f>
+        <v>263</v>
       </c>
       <c r="F23">
-        <f>59243-58585</f>
-        <v>658</v>
+        <f>33402-33103</f>
+        <v>299</v>
       </c>
       <c r="G23">
         <f>59743-59243</f>
         <v>500</v>
       </c>
-      <c r="I23" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J23" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="K23" s="22">
+      <c r="I23" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="J23" s="8">
+        <v>30000</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L23">
         <f>35955-35585</f>
         <v>370</v>
       </c>
-      <c r="L23" s="22">
+      <c r="M23">
         <f>36415-35955</f>
         <v>460</v>
       </c>
-      <c r="M23" s="22">
+      <c r="N23">
         <f>37294-36627</f>
         <v>667</v>
       </c>
-      <c r="N23" s="28">
+      <c r="O23">
         <v>278</v>
       </c>
-      <c r="O23" s="22">
+      <c r="P23">
         <f>38700-38434</f>
         <v>266</v>
       </c>
-      <c r="P23" s="23">
+      <c r="Q23" s="13">
         <f>39057-38700</f>
         <v>357</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="C24" s="10">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B24" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="8">
         <v>30000</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>125</v>
+      <c r="D24" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="E24">
-        <f>12829-12579</f>
-        <v>250</v>
+        <f>23635-23379</f>
+        <v>256</v>
       </c>
       <c r="F24">
-        <f>13386-12888</f>
-        <v>498</v>
+        <f>23987-23690</f>
+        <v>297</v>
       </c>
       <c r="G24">
         <f>13972-13386</f>
         <v>586</v>
       </c>
-      <c r="I24" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="J24" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="K24" s="22">
+      <c r="I24" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="J24" s="8">
+        <v>30000</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="L24">
         <f>1067-666</f>
         <v>401</v>
       </c>
-      <c r="L24" s="22">
+      <c r="M24">
         <f>642-167</f>
         <v>475</v>
       </c>
-      <c r="M24" s="22">
+      <c r="N24">
         <f>1506-840</f>
         <v>666</v>
       </c>
-      <c r="N24" s="22">
+      <c r="O24">
         <v>287</v>
       </c>
-      <c r="O24" s="22">
+      <c r="P24">
         <f>2882-2619</f>
         <v>263</v>
       </c>
-      <c r="P24" s="23">
+      <c r="Q24" s="13">
         <f>3233-2882</f>
         <v>351</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B25" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C25" s="10">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B25" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="8">
         <v>30000</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>158</v>
+      <c r="D25" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="E25">
-        <f>29479-29210</f>
-        <v>269</v>
+        <f>33052-32785</f>
+        <v>267</v>
       </c>
       <c r="F25">
-        <f>30220-29551</f>
-        <v>669</v>
+        <f>12864-12400</f>
+        <v>464</v>
       </c>
       <c r="G25">
         <f>30841-30220</f>
         <v>621</v>
       </c>
-      <c r="I25" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="J25" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="K25" s="22">
+      <c r="I25" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="J25" s="8">
+        <v>30000</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L25">
         <f>15283-15030</f>
         <v>253</v>
       </c>
-      <c r="L25" s="22">
+      <c r="M25">
         <f>15751-15283</f>
         <v>468</v>
       </c>
-      <c r="M25" s="22">
+      <c r="N25">
         <f>16632-15954</f>
         <v>678</v>
       </c>
-      <c r="N25" s="22">
+      <c r="O25">
         <f>309</f>
         <v>309</v>
       </c>
-      <c r="O25" s="22">
+      <c r="P25">
         <f>18290-17859</f>
         <v>431</v>
       </c>
-      <c r="P25" s="23">
+      <c r="Q25" s="13">
         <f>18681-18290</f>
         <v>391</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B26" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="C26" s="10">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B26" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="8">
         <v>30000</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>160</v>
+      <c r="D26" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="E26">
-        <f>43684-43452</f>
-        <v>232</v>
+        <f>57054-56817</f>
+        <v>237</v>
       </c>
       <c r="F26">
-        <f>44048-43733</f>
-        <v>315</v>
+        <f>59533-59255</f>
+        <v>278</v>
       </c>
       <c r="G26">
         <f>44524-44048</f>
         <v>476</v>
       </c>
-      <c r="I26" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="J26" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="K26" s="25">
+      <c r="I26" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="J26" s="8">
+        <v>30000</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="L26" s="15">
         <f>31457-31217</f>
         <v>240</v>
       </c>
-      <c r="L26" s="25">
+      <c r="M26" s="15">
         <f>31943-31457</f>
         <v>486</v>
       </c>
-      <c r="M26" s="25">
+      <c r="N26" s="15">
         <f>32866-32218</f>
         <v>648</v>
       </c>
-      <c r="N26" s="25">
+      <c r="O26" s="15">
         <v>283</v>
       </c>
-      <c r="O26" s="25">
+      <c r="P26" s="15">
         <f>34310-34032</f>
         <v>278</v>
       </c>
-      <c r="P26" s="26">
+      <c r="Q26" s="16">
         <f>34674-34310</f>
         <v>364</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="I27" s="10"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C30" s="9" t="s">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C30" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C31" s="10">
+      <c r="G30" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C31" s="8">
         <v>10000</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="9">
         <v>1344899</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="9">
         <v>1180220</v>
       </c>
-      <c r="F31" s="11">
-        <v>307</v>
-      </c>
-      <c r="G31" s="11">
+      <c r="F31" s="9">
         <v>983455</v>
       </c>
-      <c r="H31" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="G31" s="31">
+        <f>AVERAGE(E10:E14,L10:L14,F10:F14,O10:P14)</f>
+        <v>101.52</v>
+      </c>
+      <c r="H31" s="30">
+        <f>(D31/G31)/1000</f>
+        <v>13.24762608353034</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M31" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="N31" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="O31" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="P31" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q31" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="R31" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="S31" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="T31" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="U31" s="25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C32">
         <v>20000</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="9">
         <v>2693365</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="9">
         <v>2364465</v>
       </c>
-      <c r="F32" s="11">
-        <v>307</v>
-      </c>
-      <c r="G32" s="11">
+      <c r="F32" s="9">
         <v>2463677</v>
       </c>
-      <c r="H32" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="G32" s="27">
+        <f>AVERAGE(E16:F20,L16:L20,O16:P20)</f>
+        <v>200.48</v>
+      </c>
+      <c r="H32" s="30">
+        <f>(D32/G32)/1000</f>
+        <v>13.43458200319234</v>
+      </c>
+      <c r="J32" s="8">
+        <v>10000</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="L32" s="8">
+        <f>16032-15917</f>
+        <v>115</v>
+      </c>
+      <c r="M32">
+        <f>27734-27635</f>
+        <v>99</v>
+      </c>
+      <c r="N32">
+        <f>16316-16159</f>
+        <v>157</v>
+      </c>
+      <c r="O32" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="P32">
+        <f>322-238</f>
+        <v>84</v>
+      </c>
+      <c r="Q32">
+        <f>759-609</f>
+        <v>150</v>
+      </c>
+      <c r="R32">
+        <f>1071-848</f>
+        <v>223</v>
+      </c>
+      <c r="S32">
+        <v>98</v>
+      </c>
+      <c r="T32">
+        <f>994-870</f>
+        <v>124</v>
+      </c>
+      <c r="U32">
+        <f>1124-994</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C33">
         <v>30000</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="9">
         <v>4036759</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="9">
         <v>3542934</v>
       </c>
-      <c r="F33" s="11">
-        <v>307</v>
-      </c>
-      <c r="G33" s="11">
+      <c r="F33" s="9">
         <v>2955314</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="G33" s="27">
+        <f>AVERAGE(E22:F26,L22:L26,O22:P26)</f>
+        <v>296.12</v>
+      </c>
+      <c r="H33" s="30">
+        <f>(D33/G33)/1000</f>
+        <v>13.63217276779684</v>
+      </c>
+      <c r="J33" s="8">
+        <v>10000</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="L33" s="8">
+        <f>33806-33710</f>
+        <v>96</v>
+      </c>
+      <c r="M33">
+        <f>33773-33659</f>
+        <v>114</v>
+      </c>
+      <c r="N33">
+        <f>34096-33936</f>
+        <v>160</v>
+      </c>
+      <c r="O33" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="P33">
+        <f>322-238</f>
+        <v>84</v>
+      </c>
+      <c r="Q33">
+        <f>508-345</f>
+        <v>163</v>
+      </c>
+      <c r="R33">
+        <f>858-605</f>
+        <v>253</v>
+      </c>
+      <c r="S33">
+        <v>96</v>
+      </c>
+      <c r="T33">
+        <f>388-291</f>
+        <v>97</v>
+      </c>
+      <c r="U33">
+        <f>525-388</f>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="J34" s="8">
+        <v>10000</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="L34" s="8">
+        <f>34295-34183</f>
+        <v>112</v>
+      </c>
+      <c r="M34">
+        <f>53058-52958</f>
+        <v>100</v>
+      </c>
+      <c r="N34">
+        <f>34703-34559</f>
+        <v>144</v>
+      </c>
+      <c r="O34" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="P34">
+        <f>326-226</f>
+        <v>100</v>
+      </c>
+      <c r="Q34">
+        <f>501-326</f>
+        <v>175</v>
+      </c>
+      <c r="R34">
+        <f>850-586</f>
+        <v>264</v>
+      </c>
+      <c r="S34">
+        <v>95</v>
+      </c>
+      <c r="T34">
+        <f>361-273</f>
+        <v>88</v>
+      </c>
+      <c r="U34">
+        <f>478-361</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="J35" s="8">
+        <v>10000</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="L35" s="8">
+        <f>53636-53539</f>
+        <v>97</v>
+      </c>
+      <c r="M35">
+        <f>12678-12565</f>
+        <v>113</v>
+      </c>
+      <c r="N35">
+        <f>53967-53768</f>
+        <v>199</v>
+      </c>
+      <c r="O35" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="P35">
+        <f>345-258</f>
+        <v>87</v>
+      </c>
+      <c r="Q35">
+        <f>474-322</f>
+        <v>152</v>
+      </c>
+      <c r="R35">
+        <f>831-575</f>
+        <v>256</v>
+      </c>
+      <c r="S35">
+        <v>111</v>
+      </c>
+      <c r="T35">
+        <f>368-260</f>
+        <v>108</v>
+      </c>
+      <c r="U35">
+        <f>492-368</f>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C36" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H36" s="8"/>
+      <c r="I36">
+        <f>E31/D31</f>
+        <v>0.8775528868710587</v>
+      </c>
+      <c r="J36" s="8">
+        <v>10000</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L36" s="8">
+        <f>45372-45259</f>
+        <v>113</v>
+      </c>
+      <c r="M36">
+        <f>35192-35075</f>
+        <v>117</v>
+      </c>
+      <c r="N36">
+        <f>45694-45519</f>
+        <v>175</v>
+      </c>
+      <c r="O36" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="P36">
+        <f>609-517</f>
+        <v>92</v>
+      </c>
+      <c r="Q36">
+        <f>759-609</f>
+        <v>150</v>
+      </c>
+      <c r="R36">
+        <f>1107-864</f>
+        <v>243</v>
+      </c>
+      <c r="S36">
+        <v>97</v>
+      </c>
+      <c r="T36">
+        <f>594-493</f>
+        <v>101</v>
+      </c>
+      <c r="U36">
+        <f>720-594</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C37" s="8">
+        <v>10000</v>
+      </c>
+      <c r="D37" s="9">
+        <v>1344899</v>
+      </c>
+      <c r="E37" s="9">
+        <f>AVERAGE($G$10:$G$14,$M$10:$M$14,$Q$10:$Q$14)</f>
+        <v>150.6</v>
+      </c>
+      <c r="F37" s="30">
+        <f>(D37/E37)/1000</f>
+        <v>8.9302722443559102</v>
+      </c>
+      <c r="G37" s="32">
+        <f>F37/H31</f>
+        <v>0.6741035856573705</v>
+      </c>
+      <c r="H37" s="9"/>
+      <c r="I37">
+        <f>E32/D32</f>
+        <v>0.87788509912321577</v>
+      </c>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="O37" s="12"/>
+      <c r="U37" s="13"/>
+    </row>
+    <row r="38" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>20000</v>
+      </c>
+      <c r="D38" s="9">
+        <v>2693365</v>
+      </c>
+      <c r="E38" s="9">
+        <f>AVERAGE($G$16:$G$20,$M$16:$M$20,$Q$16:$Q$20)</f>
+        <v>295.13333333333333</v>
+      </c>
+      <c r="F38" s="30">
+        <f t="shared" ref="F38:F39" si="0">(D38/E38)/1000</f>
+        <v>9.1259261350801903</v>
+      </c>
+      <c r="G38" s="32">
+        <f>F38/H32</f>
+        <v>0.67928619832843906</v>
+      </c>
+      <c r="H38" s="9"/>
+      <c r="I38">
+        <f>E33/D33</f>
+        <v>0.87766795094777761</v>
+      </c>
+      <c r="J38" s="8">
+        <v>20000</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L38">
+        <f>14915-14729</f>
+        <v>186</v>
+      </c>
+      <c r="M38">
+        <f>31986-31787</f>
+        <v>199</v>
+      </c>
+      <c r="N38">
+        <f>15499-15152</f>
+        <v>347</v>
+      </c>
+      <c r="O38" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="P38">
+        <f>656-465</f>
+        <v>191</v>
+      </c>
+      <c r="Q38">
+        <f>979-656</f>
+        <v>323</v>
+      </c>
+      <c r="R38">
+        <f>890-120</f>
+        <v>770</v>
+      </c>
+      <c r="S38">
+        <v>273</v>
+      </c>
+      <c r="T38">
+        <f>18328-18123</f>
+        <v>205</v>
+      </c>
+      <c r="U38" s="13">
+        <f>18592-18328</f>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="39" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>30000</v>
+      </c>
+      <c r="D39" s="9">
+        <v>4036759</v>
+      </c>
+      <c r="E39" s="9">
+        <f>AVERAGE($G$22:$G$26,$M$22:$M$26,$Q$22:$Q$26)</f>
+        <v>470.8</v>
+      </c>
+      <c r="F39" s="30">
+        <f t="shared" si="0"/>
+        <v>8.5742544604927797</v>
+      </c>
+      <c r="G39" s="32">
+        <f>F39/H33</f>
+        <v>0.62897196261682253</v>
+      </c>
+      <c r="H39" s="9"/>
+      <c r="J39" s="8">
+        <v>20000</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="L39">
+        <f>26228-26061</f>
+        <v>167</v>
+      </c>
+      <c r="M39">
+        <f>40062-39873</f>
+        <v>189</v>
+      </c>
+      <c r="N39">
+        <f>26841-26515</f>
+        <v>326</v>
+      </c>
+      <c r="O39" s="12" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-    </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-    </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-    </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="10"/>
-    </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-    </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-    </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
+      <c r="P39">
+        <f>1059-832</f>
+        <v>227</v>
+      </c>
+      <c r="Q39">
+        <v>300</v>
+      </c>
+      <c r="R39">
+        <f>46971-46491</f>
+        <v>480</v>
+      </c>
+      <c r="S39">
+        <v>211</v>
+      </c>
+      <c r="T39">
+        <f>47931-47750</f>
+        <v>181</v>
+      </c>
+      <c r="U39" s="13">
+        <f>48190-47931</f>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="40" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="H40" s="8"/>
+      <c r="J40" s="8">
+        <v>20000</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="L40" s="8">
+        <f>42879-42539</f>
+        <v>340</v>
+      </c>
+      <c r="M40">
+        <f>19445-19251</f>
+        <v>194</v>
+      </c>
+      <c r="N40">
+        <f>43707-43368</f>
+        <v>339</v>
+      </c>
+      <c r="O40" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="P40">
+        <f>1085-930</f>
+        <v>155</v>
+      </c>
+      <c r="Q40">
+        <f>377-86</f>
+        <v>291</v>
+      </c>
+      <c r="R40">
+        <f>14954-14500</f>
+        <v>454</v>
+      </c>
+      <c r="S40">
+        <v>211</v>
+      </c>
+      <c r="T40">
+        <f>15875-15702</f>
+        <v>173</v>
+      </c>
+      <c r="U40" s="13">
+        <f>16114-15875</f>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="H41" s="8"/>
+      <c r="J41" s="8">
+        <v>20000</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="L41" s="8">
+        <f>56432-56251</f>
+        <v>181</v>
+      </c>
+      <c r="M41">
+        <f>25657-25407</f>
+        <v>250</v>
+      </c>
+      <c r="N41">
+        <f>57062-56713</f>
+        <v>349</v>
+      </c>
+      <c r="O41" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P41">
+        <f>299-142</f>
+        <v>157</v>
+      </c>
+      <c r="Q41">
+        <f>580-299</f>
+        <v>281</v>
+      </c>
+      <c r="R41">
+        <f>38129-37707</f>
+        <v>422</v>
+      </c>
+      <c r="S41">
+        <v>190</v>
+      </c>
+      <c r="T41">
+        <f>39069-38879</f>
+        <v>190</v>
+      </c>
+      <c r="U41" s="13">
+        <f>39295-39069</f>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="I42" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J42" s="8">
+        <v>20000</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="L42" s="8">
+        <f>15159-14968</f>
+        <v>191</v>
+      </c>
+      <c r="M42">
+        <f>42950-42751</f>
+        <v>199</v>
+      </c>
+      <c r="N42">
+        <f>15815-15476</f>
+        <v>339</v>
+      </c>
+      <c r="O42" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="P42">
+        <f>764-599</f>
+        <v>165</v>
+      </c>
+      <c r="Q42">
+        <f>1076-764</f>
+        <v>312</v>
+      </c>
+      <c r="R42">
+        <f>56625-56178</f>
+        <v>447</v>
+      </c>
+      <c r="S42">
+        <v>202</v>
+      </c>
+      <c r="T42">
+        <f>57580-57395</f>
+        <v>185</v>
+      </c>
+      <c r="U42" s="13">
+        <f>57812-57580</f>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="43" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="I43" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="O43" s="12"/>
+      <c r="U43" s="13"/>
+    </row>
+    <row r="44" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="I44" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J44" s="8">
+        <v>30000</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="L44">
+        <f>59213-58994</f>
+        <v>219</v>
+      </c>
+      <c r="M44">
+        <f>57375-57090</f>
+        <v>285</v>
+      </c>
+      <c r="N44">
+        <f>40151-39444</f>
+        <v>707</v>
+      </c>
+      <c r="O44" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="P44">
+        <f>18421-18174</f>
+        <v>247</v>
+      </c>
+      <c r="Q44">
+        <f>18845-18421</f>
+        <v>424</v>
+      </c>
+      <c r="R44">
+        <f>19736-19039</f>
+        <v>697</v>
+      </c>
+      <c r="S44">
+        <v>320</v>
+      </c>
+      <c r="T44">
+        <f>21336-21024</f>
+        <v>312</v>
+      </c>
+      <c r="U44" s="13">
+        <f>21732-21336</f>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="45" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="H45" s="9"/>
+      <c r="I45" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J45" s="8">
+        <v>30000</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="L45">
+        <f>12346-12083</f>
+        <v>263</v>
+      </c>
+      <c r="M45">
+        <f>33402-33103</f>
+        <v>299</v>
+      </c>
+      <c r="N45">
+        <f>59743-59243</f>
+        <v>500</v>
+      </c>
+      <c r="O45" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="P45">
+        <f>35955-35585</f>
+        <v>370</v>
+      </c>
+      <c r="Q45">
+        <f>36415-35955</f>
+        <v>460</v>
+      </c>
+      <c r="R45">
+        <f>37294-36627</f>
+        <v>667</v>
+      </c>
+      <c r="S45">
+        <v>278</v>
+      </c>
+      <c r="T45">
+        <f>38700-38434</f>
+        <v>266</v>
+      </c>
+      <c r="U45" s="13">
+        <f>39057-38700</f>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="46" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="H46" s="9"/>
+      <c r="J46" s="8">
+        <v>30000</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="L46">
+        <f>23635-23379</f>
+        <v>256</v>
+      </c>
+      <c r="M46">
+        <f>23987-23690</f>
+        <v>297</v>
+      </c>
+      <c r="N46">
+        <f>13972-13386</f>
+        <v>586</v>
+      </c>
+      <c r="O46" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="P46">
+        <f>1067-666</f>
+        <v>401</v>
+      </c>
+      <c r="Q46">
+        <f>642-167</f>
+        <v>475</v>
+      </c>
+      <c r="R46">
+        <f>1506-840</f>
+        <v>666</v>
+      </c>
+      <c r="S46">
+        <v>287</v>
+      </c>
+      <c r="T46">
+        <f>2882-2619</f>
+        <v>263</v>
+      </c>
+      <c r="U46" s="13">
+        <f>3233-2882</f>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="47" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="H47" s="9"/>
+      <c r="J47" s="8">
+        <v>30000</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="L47">
+        <f>33052-32785</f>
+        <v>267</v>
+      </c>
+      <c r="M47">
+        <f>12864-12400</f>
+        <v>464</v>
+      </c>
+      <c r="N47">
+        <f>30841-30220</f>
+        <v>621</v>
+      </c>
+      <c r="O47" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="P47">
+        <f>15283-15030</f>
+        <v>253</v>
+      </c>
+      <c r="Q47">
+        <f>15751-15283</f>
+        <v>468</v>
+      </c>
+      <c r="R47">
+        <f>16632-15954</f>
+        <v>678</v>
+      </c>
+      <c r="S47">
+        <f>309</f>
+        <v>309</v>
+      </c>
+      <c r="T47">
+        <f>18290-17859</f>
+        <v>431</v>
+      </c>
+      <c r="U47" s="13">
+        <f>18681-18290</f>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="48" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="H48" s="9"/>
+      <c r="J48" s="8">
+        <v>30000</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="L48">
+        <f>57054-56817</f>
+        <v>237</v>
+      </c>
+      <c r="M48">
+        <f>59533-59255</f>
+        <v>278</v>
+      </c>
+      <c r="N48">
+        <f>44524-44048</f>
+        <v>476</v>
+      </c>
+      <c r="O48" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="P48" s="15">
+        <f>31457-31217</f>
+        <v>240</v>
+      </c>
+      <c r="Q48" s="15">
+        <f>31943-31457</f>
+        <v>486</v>
+      </c>
+      <c r="R48" s="15">
+        <f>32866-32218</f>
+        <v>648</v>
+      </c>
+      <c r="S48" s="15">
+        <v>283</v>
+      </c>
+      <c r="T48" s="15">
+        <f>34310-34032</f>
+        <v>278</v>
+      </c>
+      <c r="U48" s="16">
+        <f>34674-34310</f>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H49" s="9"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H50" s="9"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H51" s="9"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H52" s="9"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H53" s="9"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H54" s="9"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H55" s="9"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" t="s">
+        <v>162</v>
+      </c>
+      <c r="E57" t="s">
+        <v>163</v>
+      </c>
+      <c r="F57" t="s">
+        <v>164</v>
+      </c>
+      <c r="G57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58">
+        <v>10000</v>
+      </c>
+      <c r="D58" s="9">
+        <f>AVERAGE($E$10:E14)</f>
+        <v>106.6</v>
+      </c>
+      <c r="E58" s="9">
+        <f>MIN($E$10:E14)</f>
+        <v>96</v>
+      </c>
+      <c r="F58" s="9">
+        <f>MAX($E$10:E14)</f>
+        <v>115</v>
+      </c>
+      <c r="G58" s="9">
+        <f>STDEV($E$10:E14)</f>
+        <v>9.2897793299948734</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C59" s="8">
+        <v>20000</v>
+      </c>
+      <c r="D59" s="9">
+        <f>AVERAGE($E$16:$E$20)</f>
+        <v>213</v>
+      </c>
+      <c r="E59" s="9">
+        <f>MIN($E$16:$E$20)</f>
+        <v>167</v>
+      </c>
+      <c r="F59" s="9">
+        <f>MAX($E$16:$E$20)</f>
+        <v>340</v>
+      </c>
+      <c r="G59" s="9">
+        <f>STDEV($E$16:$E$20)</f>
+        <v>71.557669050913049</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C60" s="8">
+        <v>30000</v>
+      </c>
+      <c r="D60" s="9">
+        <f>AVERAGE($E$22:$E$26)</f>
+        <v>248.4</v>
+      </c>
+      <c r="E60" s="9">
+        <f>MIN($E$22:$E$26)</f>
+        <v>219</v>
+      </c>
+      <c r="F60" s="9">
+        <f>MAX($E$22:$E$26)</f>
+        <v>267</v>
+      </c>
+      <c r="G60" s="9">
+        <f>STDEV($E$22:$E$26)</f>
+        <v>20.069877926883361</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>166</v>
+      </c>
+      <c r="C62">
+        <v>10000</v>
+      </c>
+      <c r="D62" s="27">
+        <f>AVERAGE(F10:$F$14,L10:$L$14,P10:$P$14)</f>
+        <v>100.53333333333333</v>
+      </c>
+      <c r="E62" s="27">
+        <f>MIN(F10:$F$14,$L$10:L14,P10:$P$14)</f>
+        <v>84</v>
+      </c>
+      <c r="F62" s="27">
+        <f>MAX($F$10:F14,L10:$L$14,$P$10:P14)</f>
+        <v>124</v>
+      </c>
+      <c r="G62" s="27">
+        <f>STDEV($F$10:F14,$L$10:L14,P10:$P$14)</f>
+        <v>12.506379324549695</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C63" s="8">
+        <v>20000</v>
+      </c>
+      <c r="D63" s="9">
+        <f>AVERAGE($F16:$F20,$L16:$L20,$P16:$P20)</f>
+        <v>190.66666666666666</v>
+      </c>
+      <c r="E63" s="9">
+        <f>MIN($F16:$F20,$L16:$L20,$P16:$P20)</f>
+        <v>155</v>
+      </c>
+      <c r="F63" s="9">
+        <f>MAX($F16:$F20,$L16:$L20,$P16:$P20)</f>
+        <v>250</v>
+      </c>
+      <c r="G63" s="9">
+        <f>STDEV($F16:$F20,$L16:$L20,$P16:$P20)</f>
+        <v>24.930379249498237</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C64" s="8">
+        <v>30000</v>
+      </c>
+      <c r="D64" s="9">
+        <f>AVERAGE($F22:$F26,$L22:$L26,$P22:$P26)</f>
+        <v>312.26666666666665</v>
+      </c>
+      <c r="E64" s="9">
+        <f>MIN($F22:$F26,$L22:$L26,$P22:$P26)</f>
+        <v>240</v>
+      </c>
+      <c r="F64" s="9">
+        <f>MAX($F22:$F26,$L22:$L26,$P22:$P26)</f>
+        <v>464</v>
+      </c>
+      <c r="G64" s="9">
+        <f>STDEV($F22:$F26,$L22:$L26,$P22:$P26)</f>
+        <v>70.402380912120009</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>167</v>
+      </c>
+      <c r="C66">
+        <v>10000</v>
+      </c>
+      <c r="D66" s="9">
+        <f>AVERAGE($G$10:$G$14,$M$10:$M$14,$Q$10:$Q$14)</f>
+        <v>150.6</v>
+      </c>
+      <c r="E66" s="9">
+        <f>MIN($G$10:$G$14,$M$10:$M$14,$Q$10:$Q$14)</f>
+        <v>117</v>
+      </c>
+      <c r="F66" s="9">
+        <f>MAX($G$10:$G$14,$M$10:$M$14,$Q$10:$Q$14)</f>
+        <v>199</v>
+      </c>
+      <c r="G66" s="9">
+        <f>STDEV($G$10:$G$14,$M$10:$M$14,$Q$10:$Q$14)</f>
+        <v>22.222253968231254</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C67" s="8">
+        <v>20000</v>
+      </c>
+      <c r="D67" s="9">
+        <f>AVERAGE($G$16:$G$20,$M$16:$M$20,$Q$16:$Q$20)</f>
+        <v>295.13333333333333</v>
+      </c>
+      <c r="E67" s="9">
+        <f>MIN($G$16:$G$20,$M$16:$M$20,$Q$16:$Q$20)</f>
+        <v>226</v>
+      </c>
+      <c r="F67" s="9">
+        <f>MAX($G$16:$G$20,$M$16:$M$20,$Q$16:$Q$20)</f>
+        <v>349</v>
+      </c>
+      <c r="G67" s="9">
+        <f>STDEV($G$16:$G$20,$M$16:$M$20,$Q$16:$Q$20)</f>
+        <v>42.999778515487222</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C68" s="8">
+        <v>30000</v>
+      </c>
+      <c r="D68" s="9">
+        <f>AVERAGE($G$22:$G$26,$M$22:$M$26,$Q$22:$Q$26)</f>
+        <v>470.8</v>
+      </c>
+      <c r="E68" s="9">
+        <f>MIN($G$22:$G$26,$M$22:$M$26,$Q$22:$Q$26)</f>
+        <v>351</v>
+      </c>
+      <c r="F68" s="9">
+        <f>MAX($G$22:$G$26,$M$22:$M$26,$Q$22:$Q$26)</f>
+        <v>707</v>
+      </c>
+      <c r="G68" s="9">
+        <f>STDEV($G$22:$G$26,$M$22:$M$26,$Q$22:$Q$26)</f>
+        <v>102.02814737680406</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>99</v>
+      </c>
+      <c r="C70">
+        <v>10000</v>
+      </c>
+      <c r="D70" s="9">
+        <f>AVERAGE($N$10:$N$14)</f>
+        <v>247.8</v>
+      </c>
+      <c r="E70" s="9">
+        <f>MIN($N$10:$N$14)</f>
+        <v>223</v>
+      </c>
+      <c r="F70" s="9">
+        <f>MAX($N$10:$N$14)</f>
+        <v>264</v>
+      </c>
+      <c r="G70" s="9">
+        <f>STDEV($N$10:$N$14)</f>
+        <v>15.77022510936353</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C71" s="8">
+        <v>20000</v>
+      </c>
+      <c r="D71" s="9">
+        <f>AVERAGE($N$16:$N$20)</f>
+        <v>514.6</v>
+      </c>
+      <c r="E71" s="9">
+        <f>MIN($N$16:$N$20)</f>
+        <v>422</v>
+      </c>
+      <c r="F71" s="9">
+        <f>MAX($N$16:$N$20)</f>
+        <v>770</v>
+      </c>
+      <c r="G71" s="9">
+        <f>STDEV($N$16:$N$20)</f>
+        <v>144.25948842277234</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C72" s="8">
+        <v>30000</v>
+      </c>
+      <c r="D72" s="9">
+        <f>AVERAGE($N$22:$N$26)</f>
+        <v>671.2</v>
+      </c>
+      <c r="E72" s="9">
+        <f>MIN($N$22:$N$26)</f>
+        <v>648</v>
+      </c>
+      <c r="F72" s="9">
+        <f>MAX($N$22:$N$26)</f>
+        <v>697</v>
+      </c>
+      <c r="G72" s="9">
+        <f>STDEV($N$22:$N$26)</f>
+        <v>17.99166473676074</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>100</v>
+      </c>
+      <c r="C74">
+        <v>10000</v>
+      </c>
+      <c r="D74" s="9">
+        <f>AVERAGE($O$10:$O$14)</f>
+        <v>99.4</v>
+      </c>
+      <c r="E74" s="9">
+        <f>AVERAGE($O$10:$O$14)</f>
+        <v>99.4</v>
+      </c>
+      <c r="F74" s="9">
+        <f>AVERAGE($O$10:$O$14)</f>
+        <v>99.4</v>
+      </c>
+      <c r="G74" s="9">
+        <f>AVERAGE($O$10:$O$14)</f>
+        <v>99.4</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C75" s="8">
+        <v>20000</v>
+      </c>
+      <c r="D75" s="9">
+        <f>AVERAGE($O$16:$O$20)</f>
+        <v>217.4</v>
+      </c>
+      <c r="E75" s="9">
+        <f>MIN($O$16:$O$20)</f>
+        <v>190</v>
+      </c>
+      <c r="F75" s="9">
+        <f>MAX($O$16:$O$20)</f>
+        <v>273</v>
+      </c>
+      <c r="G75" s="9">
+        <f>STDEV($O$16:$O$20)</f>
+        <v>32.253681960359238</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C76" s="8">
+        <v>30000</v>
+      </c>
+      <c r="D76" s="9">
+        <f>AVERAGE($O$22:$O$26)</f>
+        <v>295.39999999999998</v>
+      </c>
+      <c r="E76" s="9">
+        <f>MIN($O$22:$O$26)</f>
+        <v>278</v>
+      </c>
+      <c r="F76" s="9">
+        <f>MAX($O$22:$O$26)</f>
+        <v>320</v>
+      </c>
+      <c r="G76" s="9">
+        <f>STDEV($O$22:$O$26)</f>
+        <v>18.146625030566977</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="K8:Q8"/>
     <mergeCell ref="D8:G8"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -2526,6 +3907,1129 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D402B211-41A9-054B-9CDE-A7E508CC657A}">
+  <dimension ref="A1:I54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E12" t="s">
+        <v>174</v>
+      </c>
+      <c r="G12" t="s">
+        <v>175</v>
+      </c>
+      <c r="H12" t="s">
+        <v>173</v>
+      </c>
+      <c r="I12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
+        <v>10000</v>
+      </c>
+      <c r="B13" s="8">
+        <v>3.22</v>
+      </c>
+      <c r="C13" s="30">
+        <f>(46935-45382)/1000</f>
+        <v>1.5529999999999999</v>
+      </c>
+      <c r="D13" s="30">
+        <f>0.677+0.337+0.136</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E13" s="30">
+        <f>B13-(D13+C13)</f>
+        <v>0.51700000000000035</v>
+      </c>
+      <c r="G13" s="32">
+        <f>C13/B13</f>
+        <v>0.48229813664596266</v>
+      </c>
+      <c r="H13" s="32">
+        <f>D13/B13</f>
+        <v>0.3571428571428571</v>
+      </c>
+      <c r="I13" s="32">
+        <f>E13/B13</f>
+        <v>0.16055900621118022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
+        <v>10000</v>
+      </c>
+      <c r="B14" s="8">
+        <v>3.41</v>
+      </c>
+      <c r="C14" s="30">
+        <f>(53772-52220)/1000</f>
+        <v>1.552</v>
+      </c>
+      <c r="D14" s="30">
+        <f>0.79+0.343+0.227</f>
+        <v>1.36</v>
+      </c>
+      <c r="E14" s="30">
+        <f t="shared" ref="E14:E29" si="0">B14-(D14+C14)</f>
+        <v>0.49800000000000022</v>
+      </c>
+      <c r="G14" s="32">
+        <f>C14/B14</f>
+        <v>0.45513196480938417</v>
+      </c>
+      <c r="H14" s="32">
+        <f>D14/B14</f>
+        <v>0.3988269794721408</v>
+      </c>
+      <c r="I14" s="32">
+        <f>E14/B14</f>
+        <v>0.14604105571847514</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
+        <v>10000</v>
+      </c>
+      <c r="B15" s="8">
+        <v>3.17</v>
+      </c>
+      <c r="C15" s="30">
+        <f>(60126-58557)/1000</f>
+        <v>1.569</v>
+      </c>
+      <c r="D15" s="30">
+        <f>0.654+0.347+0.135</f>
+        <v>1.1359999999999999</v>
+      </c>
+      <c r="E15" s="30">
+        <f t="shared" si="0"/>
+        <v>0.46499999999999986</v>
+      </c>
+      <c r="G15" s="32">
+        <f>C15/B15</f>
+        <v>0.49495268138801263</v>
+      </c>
+      <c r="H15" s="32">
+        <f>D15/B15</f>
+        <v>0.35835962145110406</v>
+      </c>
+      <c r="I15" s="32">
+        <f>E15/B15</f>
+        <v>0.14668769716088323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
+        <v>10000</v>
+      </c>
+      <c r="B16" s="8">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="C16" s="30">
+        <f>(6441-4331)/1000</f>
+        <v>2.11</v>
+      </c>
+      <c r="D16" s="30">
+        <f>0.814+0.44+0.141</f>
+        <v>1.395</v>
+      </c>
+      <c r="E16" s="30">
+        <f t="shared" si="0"/>
+        <v>0.63499999999999979</v>
+      </c>
+      <c r="G16" s="32">
+        <f>C16/B16</f>
+        <v>0.50966183574879231</v>
+      </c>
+      <c r="H16" s="32">
+        <f>D16/B16</f>
+        <v>0.33695652173913049</v>
+      </c>
+      <c r="I16" s="32">
+        <f>E16/B16</f>
+        <v>0.15338164251207725</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
+        <v>10000</v>
+      </c>
+      <c r="B17" s="8">
+        <v>3.73</v>
+      </c>
+      <c r="C17" s="30">
+        <f>(17727-15760)/1000</f>
+        <v>1.9670000000000001</v>
+      </c>
+      <c r="D17" s="30">
+        <f>0.707+0.376+0.137</f>
+        <v>1.22</v>
+      </c>
+      <c r="E17" s="30">
+        <f t="shared" si="0"/>
+        <v>0.54299999999999971</v>
+      </c>
+      <c r="G17" s="32">
+        <f>C17/B17</f>
+        <v>0.52734584450402144</v>
+      </c>
+      <c r="H17" s="32">
+        <f>D17/B17</f>
+        <v>0.32707774798927614</v>
+      </c>
+      <c r="I17" s="32">
+        <f>E17/B17</f>
+        <v>0.14557640750670234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="30"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
+        <v>20000</v>
+      </c>
+      <c r="B19" s="8">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="C19" s="30">
+        <f>(30512-28931)/1000</f>
+        <v>1.581</v>
+      </c>
+      <c r="D19" s="30">
+        <f>0.732+0.788+0.308</f>
+        <v>1.8280000000000001</v>
+      </c>
+      <c r="E19" s="30">
+        <f t="shared" si="0"/>
+        <v>0.9009999999999998</v>
+      </c>
+      <c r="G19" s="32">
+        <f>C19/B19</f>
+        <v>0.36682134570765662</v>
+      </c>
+      <c r="H19" s="32">
+        <f>D19/B19</f>
+        <v>0.42412993039443159</v>
+      </c>
+      <c r="I19" s="32">
+        <f>E19/B19</f>
+        <v>0.20904872389791179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
+        <v>20000</v>
+      </c>
+      <c r="B20" s="8">
+        <v>5.63</v>
+      </c>
+      <c r="C20" s="30">
+        <f>(37379-35219)/1000</f>
+        <v>2.16</v>
+      </c>
+      <c r="D20" s="30">
+        <f>0.882+1.23+0.313</f>
+        <v>2.4250000000000003</v>
+      </c>
+      <c r="E20" s="30">
+        <f t="shared" si="0"/>
+        <v>1.044999999999999</v>
+      </c>
+      <c r="G20" s="32">
+        <f>C20/B20</f>
+        <v>0.38365896980461817</v>
+      </c>
+      <c r="H20" s="32">
+        <f>D20/B20</f>
+        <v>0.43072824156305511</v>
+      </c>
+      <c r="I20" s="32">
+        <f>E20/B20</f>
+        <v>0.18561278863232666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
+        <v>20000</v>
+      </c>
+      <c r="B21" s="8">
+        <v>4.47</v>
+      </c>
+      <c r="C21" s="30">
+        <f>(44176-42565)/1000</f>
+        <v>1.611</v>
+      </c>
+      <c r="D21" s="30">
+        <f>0.762+0.348+0.731</f>
+        <v>1.8409999999999997</v>
+      </c>
+      <c r="E21" s="30">
+        <f t="shared" si="0"/>
+        <v>1.0179999999999998</v>
+      </c>
+      <c r="G21" s="32">
+        <f>C21/B21</f>
+        <v>0.3604026845637584</v>
+      </c>
+      <c r="H21" s="32">
+        <f>D21/B21</f>
+        <v>0.4118568232662192</v>
+      </c>
+      <c r="I21" s="32">
+        <f>E21/B21</f>
+        <v>0.22774049217002235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
+        <v>20000</v>
+      </c>
+      <c r="B22" s="8">
+        <v>4.42</v>
+      </c>
+      <c r="C22" s="30">
+        <f>(51500-49904)/1000</f>
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="D22" s="30">
+        <f>0.779+0.816+0.352</f>
+        <v>1.9470000000000001</v>
+      </c>
+      <c r="E22" s="30">
+        <f t="shared" si="0"/>
+        <v>0.87699999999999978</v>
+      </c>
+      <c r="G22" s="32">
+        <f>C22/B22</f>
+        <v>0.36108597285067878</v>
+      </c>
+      <c r="H22" s="32">
+        <f>D22/B22</f>
+        <v>0.44049773755656113</v>
+      </c>
+      <c r="I22" s="32">
+        <f>E22/B22</f>
+        <v>0.19841628959276014</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
+        <v>20000</v>
+      </c>
+      <c r="B23" s="8">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="C23" s="30">
+        <f>(58885-57191)/1000</f>
+        <v>1.694</v>
+      </c>
+      <c r="D23" s="30">
+        <f>1.03+0.911+0.336</f>
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="E23" s="30">
+        <f t="shared" si="0"/>
+        <v>1.1390000000000002</v>
+      </c>
+      <c r="G23" s="32">
+        <f>C23/B23</f>
+        <v>0.33150684931506846</v>
+      </c>
+      <c r="H23" s="32">
+        <f>D23/B23</f>
+        <v>0.44559686888454014</v>
+      </c>
+      <c r="I23" s="32">
+        <f>E23/B23</f>
+        <v>0.22289628180039142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="30"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="8">
+        <v>30000</v>
+      </c>
+      <c r="B25" s="8">
+        <v>5.24</v>
+      </c>
+      <c r="C25" s="30">
+        <f>(34819-33278)/1000</f>
+        <v>1.5409999999999999</v>
+      </c>
+      <c r="D25" s="30">
+        <f>0.412+1.12+0.835</f>
+        <v>2.367</v>
+      </c>
+      <c r="E25" s="30">
+        <f t="shared" si="0"/>
+        <v>1.3320000000000003</v>
+      </c>
+      <c r="G25" s="32">
+        <f>C25/B25</f>
+        <v>0.29408396946564885</v>
+      </c>
+      <c r="H25" s="32">
+        <f>D25/B25</f>
+        <v>0.45171755725190837</v>
+      </c>
+      <c r="I25" s="32">
+        <f>E25/B25</f>
+        <v>0.25419847328244277</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="8">
+        <v>30000</v>
+      </c>
+      <c r="B26" s="8">
+        <v>5.76</v>
+      </c>
+      <c r="C26" s="30">
+        <f>(40627-38982)/1000</f>
+        <v>1.645</v>
+      </c>
+      <c r="D26" s="30">
+        <f>0.971+0.47755+1.4</f>
+        <v>2.8485499999999999</v>
+      </c>
+      <c r="E26" s="30">
+        <f t="shared" si="0"/>
+        <v>1.2664499999999999</v>
+      </c>
+      <c r="G26" s="32">
+        <f>C26/B26</f>
+        <v>0.28559027777777779</v>
+      </c>
+      <c r="H26" s="32">
+        <f>D26/B26</f>
+        <v>0.49453993055555556</v>
+      </c>
+      <c r="I26" s="32">
+        <f>E26/B26</f>
+        <v>0.21986979166666665</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="8">
+        <v>30000</v>
+      </c>
+      <c r="B27" s="8">
+        <v>5.34</v>
+      </c>
+      <c r="C27" s="30">
+        <f>(13207-11507)/1000</f>
+        <v>1.7</v>
+      </c>
+      <c r="D27" s="30">
+        <f>0.845+1.07+0.508</f>
+        <v>2.423</v>
+      </c>
+      <c r="E27" s="30">
+        <f t="shared" si="0"/>
+        <v>1.2169999999999996</v>
+      </c>
+      <c r="G27" s="32">
+        <f>C27/B27</f>
+        <v>0.31835205992509363</v>
+      </c>
+      <c r="H27" s="32">
+        <f>D27/B27</f>
+        <v>0.45374531835205995</v>
+      </c>
+      <c r="I27" s="32">
+        <f>E27/B27</f>
+        <v>0.22790262172284639</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="8">
+        <v>30000</v>
+      </c>
+      <c r="B28" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="C28" s="30">
+        <f>(24839-23215)/1000</f>
+        <v>1.6240000000000001</v>
+      </c>
+      <c r="D28" s="30">
+        <f>0.858+1.1+0.45</f>
+        <v>2.4080000000000004</v>
+      </c>
+      <c r="E28" s="30">
+        <f t="shared" si="0"/>
+        <v>1.1680000000000001</v>
+      </c>
+      <c r="G28" s="32">
+        <f>C28/B28</f>
+        <v>0.31230769230769234</v>
+      </c>
+      <c r="H28" s="32">
+        <f>D28/B28</f>
+        <v>0.46307692307692311</v>
+      </c>
+      <c r="I28" s="32">
+        <f>E28/B28</f>
+        <v>0.22461538461538463</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="8">
+        <v>30000</v>
+      </c>
+      <c r="B29" s="8">
+        <v>5.41</v>
+      </c>
+      <c r="C29" s="30">
+        <f>(33612-32045)/1000</f>
+        <v>1.5669999999999999</v>
+      </c>
+      <c r="D29" s="30">
+        <f>0.84+1.36+0.42</f>
+        <v>2.62</v>
+      </c>
+      <c r="E29" s="30">
+        <f t="shared" si="0"/>
+        <v>1.2229999999999999</v>
+      </c>
+      <c r="G29" s="32">
+        <f>C29/B29</f>
+        <v>0.28964879852125691</v>
+      </c>
+      <c r="H29" s="32">
+        <f>D29/B29</f>
+        <v>0.48428835489833644</v>
+      </c>
+      <c r="I29" s="32">
+        <f>E29/B29</f>
+        <v>0.22606284658040662</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="8"/>
+    </row>
+    <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32" t="s">
+        <v>177</v>
+      </c>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="8">
+        <v>10000</v>
+      </c>
+      <c r="B33" s="8">
+        <v>4.13</v>
+      </c>
+      <c r="C33" s="30">
+        <f>(8944-7216)/1000</f>
+        <v>1.728</v>
+      </c>
+      <c r="D33">
+        <f>0.98+0.216-0.12</f>
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="E33" s="30">
+        <f t="shared" ref="E33:E49" si="1">B33-(D33+C33)</f>
+        <v>1.3259999999999996</v>
+      </c>
+      <c r="G33" s="32">
+        <f>C33/B33</f>
+        <v>0.41840193704600487</v>
+      </c>
+      <c r="H33" s="32">
+        <f>D33/B33</f>
+        <v>0.26053268765133175</v>
+      </c>
+      <c r="I33" s="32">
+        <f>E33/B33</f>
+        <v>0.32106537530266338</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="8">
+        <v>10000</v>
+      </c>
+      <c r="B34" s="8">
+        <v>4.41</v>
+      </c>
+      <c r="C34" s="30">
+        <f>(18278-16646)/1000</f>
+        <v>1.6319999999999999</v>
+      </c>
+      <c r="D34">
+        <f>(723+378+315-205)/1000</f>
+        <v>1.2110000000000001</v>
+      </c>
+      <c r="E34" s="30">
+        <f t="shared" si="1"/>
+        <v>1.5670000000000002</v>
+      </c>
+      <c r="G34" s="32">
+        <f t="shared" ref="G34:G37" si="2">C34/B34</f>
+        <v>0.37006802721088433</v>
+      </c>
+      <c r="H34" s="32">
+        <f t="shared" ref="H34:H37" si="3">D34/B34</f>
+        <v>0.27460317460317463</v>
+      </c>
+      <c r="I34" s="32">
+        <f t="shared" ref="I34:I37" si="4">E34/B34</f>
+        <v>0.3553287981859411</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="8">
+        <v>10000</v>
+      </c>
+      <c r="B35" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="C35" s="30">
+        <f>(40807-39196)/1000</f>
+        <v>1.611</v>
+      </c>
+      <c r="D35">
+        <f>(738+436+245-120)/1000</f>
+        <v>1.2989999999999999</v>
+      </c>
+      <c r="E35" s="30">
+        <f t="shared" si="1"/>
+        <v>1.58</v>
+      </c>
+      <c r="G35" s="32">
+        <f t="shared" si="2"/>
+        <v>0.35879732739420933</v>
+      </c>
+      <c r="H35" s="32">
+        <f t="shared" si="3"/>
+        <v>0.28930957683741643</v>
+      </c>
+      <c r="I35" s="32">
+        <f t="shared" si="4"/>
+        <v>0.35189309576837419</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="8">
+        <v>10000</v>
+      </c>
+      <c r="B36" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="C36" s="30">
+        <f>(47402-45711)/1000</f>
+        <v>1.6910000000000001</v>
+      </c>
+      <c r="D36">
+        <f>(681+366+217-127)/1000</f>
+        <v>1.137</v>
+      </c>
+      <c r="E36" s="30">
+        <f t="shared" si="1"/>
+        <v>1.4719999999999995</v>
+      </c>
+      <c r="G36" s="32">
+        <f t="shared" si="2"/>
+        <v>0.39325581395348841</v>
+      </c>
+      <c r="H36" s="32">
+        <f t="shared" si="3"/>
+        <v>0.26441860465116279</v>
+      </c>
+      <c r="I36" s="32">
+        <f t="shared" si="4"/>
+        <v>0.34232558139534874</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="8">
+        <v>10000</v>
+      </c>
+      <c r="B37" s="8">
+        <v>3.99</v>
+      </c>
+      <c r="C37" s="30">
+        <f>(58488-56866)/1000</f>
+        <v>1.6220000000000001</v>
+      </c>
+      <c r="D37">
+        <f>(655+340+209-120)/1000</f>
+        <v>1.0840000000000001</v>
+      </c>
+      <c r="E37" s="30">
+        <f t="shared" si="1"/>
+        <v>1.2839999999999998</v>
+      </c>
+      <c r="G37" s="32">
+        <f t="shared" si="2"/>
+        <v>0.40651629072681705</v>
+      </c>
+      <c r="H37" s="32">
+        <f t="shared" si="3"/>
+        <v>0.27167919799498746</v>
+      </c>
+      <c r="I37" s="32">
+        <f t="shared" si="4"/>
+        <v>0.32180451127819543</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E38" s="30"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="8">
+        <v>20000</v>
+      </c>
+      <c r="B39" s="8">
+        <v>6.16</v>
+      </c>
+      <c r="C39">
+        <f>(55575-53906)/1000</f>
+        <v>1.669</v>
+      </c>
+      <c r="D39">
+        <f>(773+824+436-205)/1000</f>
+        <v>1.8280000000000001</v>
+      </c>
+      <c r="E39" s="30">
+        <f t="shared" si="1"/>
+        <v>2.6630000000000003</v>
+      </c>
+      <c r="G39" s="32">
+        <f t="shared" ref="G38:G54" si="5">C39/B39</f>
+        <v>0.27094155844155843</v>
+      </c>
+      <c r="H39" s="32">
+        <f t="shared" ref="H38:H54" si="6">D39/B39</f>
+        <v>0.29675324675324677</v>
+      </c>
+      <c r="I39" s="32">
+        <f t="shared" ref="I38:I54" si="7">E39/B39</f>
+        <v>0.43230519480519486</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="8">
+        <v>20000</v>
+      </c>
+      <c r="B40" s="8">
+        <v>6.41</v>
+      </c>
+      <c r="C40">
+        <f>(64461-62676)/1000</f>
+        <v>1.7849999999999999</v>
+      </c>
+      <c r="D40">
+        <f>(778+742+703-452)/1000</f>
+        <v>1.7709999999999999</v>
+      </c>
+      <c r="E40" s="30">
+        <f t="shared" si="1"/>
+        <v>2.8540000000000001</v>
+      </c>
+      <c r="G40" s="32">
+        <f t="shared" si="5"/>
+        <v>0.2784711388455538</v>
+      </c>
+      <c r="H40" s="32">
+        <f t="shared" si="6"/>
+        <v>0.27628705148205929</v>
+      </c>
+      <c r="I40" s="32">
+        <f t="shared" si="7"/>
+        <v>0.44524180967238691</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="8">
+        <v>20000</v>
+      </c>
+      <c r="B41" s="8">
+        <v>6.11</v>
+      </c>
+      <c r="C41">
+        <f>(15434-13705)/1000</f>
+        <v>1.7290000000000001</v>
+      </c>
+      <c r="D41">
+        <f>(887+791+432-265)/1000</f>
+        <v>1.845</v>
+      </c>
+      <c r="E41" s="30">
+        <f t="shared" si="1"/>
+        <v>2.5360000000000005</v>
+      </c>
+      <c r="G41" s="32">
+        <f t="shared" si="5"/>
+        <v>0.28297872340425534</v>
+      </c>
+      <c r="H41" s="32">
+        <f t="shared" si="6"/>
+        <v>0.30196399345335512</v>
+      </c>
+      <c r="I41" s="32">
+        <f t="shared" si="7"/>
+        <v>0.4150572831423896</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="8">
+        <v>20000</v>
+      </c>
+      <c r="B42" s="8">
+        <v>5.65</v>
+      </c>
+      <c r="C42">
+        <f>(12215-10626)/1000</f>
+        <v>1.589</v>
+      </c>
+      <c r="D42">
+        <f>(730+716+386-226)/1000</f>
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="E42" s="30">
+        <f t="shared" si="1"/>
+        <v>2.4550000000000001</v>
+      </c>
+      <c r="G42" s="32">
+        <f t="shared" si="5"/>
+        <v>0.2812389380530973</v>
+      </c>
+      <c r="H42" s="32">
+        <f t="shared" si="6"/>
+        <v>0.28424778761061947</v>
+      </c>
+      <c r="I42" s="32">
+        <f t="shared" si="7"/>
+        <v>0.43451327433628317</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="8">
+        <v>20000</v>
+      </c>
+      <c r="B43" s="8">
+        <v>6.84</v>
+      </c>
+      <c r="C43">
+        <f>(21190-18773)/1000</f>
+        <v>2.4169999999999998</v>
+      </c>
+      <c r="D43">
+        <f>(722+718+474-307)/1000</f>
+        <v>1.607</v>
+      </c>
+      <c r="E43" s="30">
+        <f t="shared" si="1"/>
+        <v>2.8159999999999998</v>
+      </c>
+      <c r="G43" s="32">
+        <f t="shared" si="5"/>
+        <v>0.35336257309941521</v>
+      </c>
+      <c r="H43" s="32">
+        <f t="shared" si="6"/>
+        <v>0.23494152046783626</v>
+      </c>
+      <c r="I43" s="32">
+        <f t="shared" si="7"/>
+        <v>0.4116959064327485</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E44" s="30"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="8">
+        <v>30000</v>
+      </c>
+      <c r="B45" s="8">
+        <v>7.66</v>
+      </c>
+      <c r="C45">
+        <f>(45123-43507)/1000</f>
+        <v>1.6160000000000001</v>
+      </c>
+      <c r="D45">
+        <f>(862+1112+582-285)/1000</f>
+        <v>2.2709999999999999</v>
+      </c>
+      <c r="E45" s="30">
+        <f t="shared" si="1"/>
+        <v>3.7730000000000001</v>
+      </c>
+      <c r="G45" s="32">
+        <f t="shared" si="5"/>
+        <v>0.21096605744125327</v>
+      </c>
+      <c r="H45" s="32">
+        <f t="shared" si="6"/>
+        <v>0.2964751958224543</v>
+      </c>
+      <c r="I45" s="32">
+        <f t="shared" si="7"/>
+        <v>0.49255874673629246</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="8">
+        <v>30000</v>
+      </c>
+      <c r="B46" s="8">
+        <v>7.59</v>
+      </c>
+      <c r="C46">
+        <f>(1747-184)/1000</f>
+        <v>1.5629999999999999</v>
+      </c>
+      <c r="D46">
+        <f>(1010+1112+582-327)/1000</f>
+        <v>2.3769999999999998</v>
+      </c>
+      <c r="E46" s="30">
+        <f t="shared" si="1"/>
+        <v>3.6500000000000004</v>
+      </c>
+      <c r="G46" s="32">
+        <f t="shared" si="5"/>
+        <v>0.20592885375494072</v>
+      </c>
+      <c r="H46" s="32">
+        <f t="shared" si="6"/>
+        <v>0.3131752305665349</v>
+      </c>
+      <c r="I46" s="32">
+        <f t="shared" si="7"/>
+        <v>0.48089591567852441</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="8">
+        <v>30000</v>
+      </c>
+      <c r="B47" s="8">
+        <v>7.7</v>
+      </c>
+      <c r="C47">
+        <f>(18853-17328)/1000</f>
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="D47">
+        <f>(807+1100+618-342)/1000</f>
+        <v>2.1829999999999998</v>
+      </c>
+      <c r="E47" s="30">
+        <f t="shared" si="1"/>
+        <v>3.9920000000000004</v>
+      </c>
+      <c r="G47" s="32">
+        <f t="shared" si="5"/>
+        <v>0.19805194805194803</v>
+      </c>
+      <c r="H47" s="32">
+        <f t="shared" si="6"/>
+        <v>0.28350649350649348</v>
+      </c>
+      <c r="I47" s="32">
+        <f t="shared" si="7"/>
+        <v>0.51844155844155848</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="8">
+        <v>30000</v>
+      </c>
+      <c r="B48" s="8">
+        <v>8.31</v>
+      </c>
+      <c r="C48">
+        <f>(34499-32895)/1000</f>
+        <v>1.6040000000000001</v>
+      </c>
+      <c r="D48">
+        <f>(828+1360+669-330)/1000</f>
+        <v>2.5270000000000001</v>
+      </c>
+      <c r="E48" s="30">
+        <f t="shared" si="1"/>
+        <v>4.1790000000000003</v>
+      </c>
+      <c r="G48" s="32">
+        <f t="shared" si="5"/>
+        <v>0.19302045728038508</v>
+      </c>
+      <c r="H48" s="32">
+        <f t="shared" si="6"/>
+        <v>0.30409145607701565</v>
+      </c>
+      <c r="I48" s="32">
+        <f t="shared" si="7"/>
+        <v>0.50288808664259932</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="8">
+        <v>30000</v>
+      </c>
+      <c r="B49" s="8">
+        <v>7.99</v>
+      </c>
+      <c r="C49">
+        <f>(45136-43378)/1000</f>
+        <v>1.758</v>
+      </c>
+      <c r="D49">
+        <f>(844+1120+608-354)/1000</f>
+        <v>2.218</v>
+      </c>
+      <c r="E49" s="30">
+        <f t="shared" si="1"/>
+        <v>4.0140000000000002</v>
+      </c>
+      <c r="G49" s="32">
+        <f t="shared" si="5"/>
+        <v>0.22002503128911138</v>
+      </c>
+      <c r="H49" s="32">
+        <f t="shared" si="6"/>
+        <v>0.27759699624530665</v>
+      </c>
+      <c r="I49" s="32">
+        <f t="shared" si="7"/>
+        <v>0.50237797246558202</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B11:E11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A469EDB9-BA4C-4942-8C93-E43D2C82CF7F}">
   <dimension ref="A1:B36"/>
   <sheetViews>

--- a/docs/Requirements.xlsx
+++ b/docs/Requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorrit/Documents/master-software-engineering/thesis/DYNAMOS/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B1BAFE-D905-204E-826E-BCFC4624B400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04AD650-A631-D24A-B373-3C93716A415A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11500" yWindow="22100" windowWidth="32120" windowHeight="20200" activeTab="3" xr2:uid="{D6BE7BD5-07AA-4048-B7F7-9B37E5199ABD}"/>
+    <workbookView xWindow="12240" yWindow="500" windowWidth="32120" windowHeight="20200" activeTab="3" xr2:uid="{D6BE7BD5-07AA-4048-B7F7-9B37E5199ABD}"/>
   </bookViews>
   <sheets>
     <sheet name="Microservices" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="194">
   <si>
     <t>Receive messages from an input queue</t>
   </si>
@@ -561,15 +561,9 @@
     <t>Startup time</t>
   </si>
   <si>
-    <t>Processing time</t>
-  </si>
-  <si>
     <t>Transfer times</t>
   </si>
   <si>
-    <t>Startup percentage</t>
-  </si>
-  <si>
     <t>Total processing time</t>
   </si>
   <si>
@@ -586,6 +580,48 @@
   </si>
   <si>
     <t>Latency - (Startup + processing time)</t>
+  </si>
+  <si>
+    <t>Startup</t>
+  </si>
+  <si>
+    <t>ProcessingTime</t>
+  </si>
+  <si>
+    <t>TransferTime</t>
+  </si>
+  <si>
+    <t>TransferTimes</t>
+  </si>
+  <si>
+    <t>TotalProcessingTime</t>
+  </si>
+  <si>
+    <t>StartupTime</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>Total Processing Time:</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>ComputToData TransferTime:</t>
+  </si>
+  <si>
+    <t>DataThroughTtp TransfertIme:</t>
+  </si>
+  <si>
+    <t>Total StartupTime:</t>
   </si>
 </sst>
 </file>
@@ -823,7 +859,7 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -883,6 +919,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -3908,10 +3945,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D402B211-41A9-054B-9CDE-A7E508CC657A}">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3919,36 +3956,36 @@
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" t="s">
         <v>178</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="22" t="s">
         <v>103</v>
       </c>
@@ -3956,7 +3993,7 @@
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>83</v>
       </c>
@@ -3964,25 +4001,25 @@
         <v>161</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="D12" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E12" t="s">
-        <v>174</v>
+        <v>183</v>
+      </c>
+      <c r="F12" t="s">
+        <v>180</v>
       </c>
       <c r="G12" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="H12" t="s">
-        <v>173</v>
-      </c>
-      <c r="I12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>10000</v>
       </c>
@@ -4001,20 +4038,20 @@
         <f>B13-(D13+C13)</f>
         <v>0.51700000000000035</v>
       </c>
-      <c r="G13" s="32">
+      <c r="F13" s="32">
         <f>C13/B13</f>
         <v>0.48229813664596266</v>
       </c>
-      <c r="H13" s="32">
+      <c r="G13" s="32">
         <f>D13/B13</f>
         <v>0.3571428571428571</v>
       </c>
-      <c r="I13" s="32">
+      <c r="H13" s="32">
         <f>E13/B13</f>
         <v>0.16055900621118022</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>10000</v>
       </c>
@@ -4033,20 +4070,20 @@
         <f t="shared" ref="E14:E29" si="0">B14-(D14+C14)</f>
         <v>0.49800000000000022</v>
       </c>
-      <c r="G14" s="32">
+      <c r="F14" s="32">
         <f>C14/B14</f>
         <v>0.45513196480938417</v>
       </c>
-      <c r="H14" s="32">
+      <c r="G14" s="32">
         <f>D14/B14</f>
         <v>0.3988269794721408</v>
       </c>
-      <c r="I14" s="32">
+      <c r="H14" s="32">
         <f>E14/B14</f>
         <v>0.14604105571847514</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>10000</v>
       </c>
@@ -4065,20 +4102,20 @@
         <f t="shared" si="0"/>
         <v>0.46499999999999986</v>
       </c>
-      <c r="G15" s="32">
+      <c r="F15" s="32">
         <f>C15/B15</f>
         <v>0.49495268138801263</v>
       </c>
-      <c r="H15" s="32">
+      <c r="G15" s="32">
         <f>D15/B15</f>
         <v>0.35835962145110406</v>
       </c>
-      <c r="I15" s="32">
+      <c r="H15" s="32">
         <f>E15/B15</f>
         <v>0.14668769716088323</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10000</v>
       </c>
@@ -4097,20 +4134,20 @@
         <f t="shared" si="0"/>
         <v>0.63499999999999979</v>
       </c>
-      <c r="G16" s="32">
+      <c r="F16" s="32">
         <f>C16/B16</f>
         <v>0.50966183574879231</v>
       </c>
-      <c r="H16" s="32">
+      <c r="G16" s="32">
         <f>D16/B16</f>
         <v>0.33695652173913049</v>
       </c>
-      <c r="I16" s="32">
+      <c r="H16" s="32">
         <f>E16/B16</f>
         <v>0.15338164251207725</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>10000</v>
       </c>
@@ -4129,30 +4166,30 @@
         <f t="shared" si="0"/>
         <v>0.54299999999999971</v>
       </c>
-      <c r="G17" s="32">
+      <c r="F17" s="32">
         <f>C17/B17</f>
         <v>0.52734584450402144</v>
       </c>
-      <c r="H17" s="32">
+      <c r="G17" s="32">
         <f>D17/B17</f>
         <v>0.32707774798927614</v>
       </c>
-      <c r="I17" s="32">
+      <c r="H17" s="32">
         <f>E17/B17</f>
         <v>0.14557640750670234</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="30"/>
       <c r="D18" s="34"/>
       <c r="E18" s="30"/>
+      <c r="F18" s="32"/>
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>20000</v>
       </c>
@@ -4171,20 +4208,20 @@
         <f t="shared" si="0"/>
         <v>0.9009999999999998</v>
       </c>
-      <c r="G19" s="32">
+      <c r="F19" s="32">
         <f>C19/B19</f>
         <v>0.36682134570765662</v>
       </c>
-      <c r="H19" s="32">
+      <c r="G19" s="32">
         <f>D19/B19</f>
         <v>0.42412993039443159</v>
       </c>
-      <c r="I19" s="32">
+      <c r="H19" s="32">
         <f>E19/B19</f>
         <v>0.20904872389791179</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>20000</v>
       </c>
@@ -4203,20 +4240,20 @@
         <f t="shared" si="0"/>
         <v>1.044999999999999</v>
       </c>
-      <c r="G20" s="32">
+      <c r="F20" s="32">
         <f>C20/B20</f>
         <v>0.38365896980461817</v>
       </c>
-      <c r="H20" s="32">
+      <c r="G20" s="32">
         <f>D20/B20</f>
         <v>0.43072824156305511</v>
       </c>
-      <c r="I20" s="32">
+      <c r="H20" s="32">
         <f>E20/B20</f>
         <v>0.18561278863232666</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>20000</v>
       </c>
@@ -4235,20 +4272,20 @@
         <f t="shared" si="0"/>
         <v>1.0179999999999998</v>
       </c>
-      <c r="G21" s="32">
+      <c r="F21" s="32">
         <f>C21/B21</f>
         <v>0.3604026845637584</v>
       </c>
-      <c r="H21" s="32">
+      <c r="G21" s="32">
         <f>D21/B21</f>
         <v>0.4118568232662192</v>
       </c>
-      <c r="I21" s="32">
+      <c r="H21" s="32">
         <f>E21/B21</f>
         <v>0.22774049217002235</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>20000</v>
       </c>
@@ -4267,20 +4304,20 @@
         <f t="shared" si="0"/>
         <v>0.87699999999999978</v>
       </c>
-      <c r="G22" s="32">
+      <c r="F22" s="32">
         <f>C22/B22</f>
         <v>0.36108597285067878</v>
       </c>
-      <c r="H22" s="32">
+      <c r="G22" s="32">
         <f>D22/B22</f>
         <v>0.44049773755656113</v>
       </c>
-      <c r="I22" s="32">
+      <c r="H22" s="32">
         <f>E22/B22</f>
         <v>0.19841628959276014</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>20000</v>
       </c>
@@ -4299,30 +4336,30 @@
         <f t="shared" si="0"/>
         <v>1.1390000000000002</v>
       </c>
-      <c r="G23" s="32">
+      <c r="F23" s="32">
         <f>C23/B23</f>
         <v>0.33150684931506846</v>
       </c>
-      <c r="H23" s="32">
+      <c r="G23" s="32">
         <f>D23/B23</f>
         <v>0.44559686888454014</v>
       </c>
-      <c r="I23" s="32">
+      <c r="H23" s="32">
         <f>E23/B23</f>
         <v>0.22289628180039142</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="30"/>
       <c r="D24" s="34"/>
       <c r="E24" s="30"/>
+      <c r="F24" s="32"/>
       <c r="G24" s="32"/>
       <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>30000</v>
       </c>
@@ -4341,20 +4378,20 @@
         <f t="shared" si="0"/>
         <v>1.3320000000000003</v>
       </c>
-      <c r="G25" s="32">
+      <c r="F25" s="32">
         <f>C25/B25</f>
         <v>0.29408396946564885</v>
       </c>
-      <c r="H25" s="32">
+      <c r="G25" s="32">
         <f>D25/B25</f>
         <v>0.45171755725190837</v>
       </c>
-      <c r="I25" s="32">
+      <c r="H25" s="32">
         <f>E25/B25</f>
         <v>0.25419847328244277</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>30000</v>
       </c>
@@ -4373,20 +4410,20 @@
         <f t="shared" si="0"/>
         <v>1.2664499999999999</v>
       </c>
-      <c r="G26" s="32">
+      <c r="F26" s="32">
         <f>C26/B26</f>
         <v>0.28559027777777779</v>
       </c>
-      <c r="H26" s="32">
+      <c r="G26" s="32">
         <f>D26/B26</f>
         <v>0.49453993055555556</v>
       </c>
-      <c r="I26" s="32">
+      <c r="H26" s="32">
         <f>E26/B26</f>
         <v>0.21986979166666665</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>30000</v>
       </c>
@@ -4405,20 +4442,20 @@
         <f t="shared" si="0"/>
         <v>1.2169999999999996</v>
       </c>
-      <c r="G27" s="32">
+      <c r="F27" s="32">
         <f>C27/B27</f>
         <v>0.31835205992509363</v>
       </c>
-      <c r="H27" s="32">
+      <c r="G27" s="32">
         <f>D27/B27</f>
         <v>0.45374531835205995</v>
       </c>
-      <c r="I27" s="32">
+      <c r="H27" s="32">
         <f>E27/B27</f>
         <v>0.22790262172284639</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>30000</v>
       </c>
@@ -4437,20 +4474,20 @@
         <f t="shared" si="0"/>
         <v>1.1680000000000001</v>
       </c>
-      <c r="G28" s="32">
+      <c r="F28" s="32">
         <f>C28/B28</f>
         <v>0.31230769230769234</v>
       </c>
-      <c r="H28" s="32">
+      <c r="G28" s="32">
         <f>D28/B28</f>
         <v>0.46307692307692311</v>
       </c>
-      <c r="I28" s="32">
+      <c r="H28" s="32">
         <f>E28/B28</f>
         <v>0.22461538461538463</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>30000</v>
       </c>
@@ -4469,23 +4506,23 @@
         <f t="shared" si="0"/>
         <v>1.2229999999999999</v>
       </c>
-      <c r="G29" s="32">
+      <c r="F29" s="32">
         <f>C29/B29</f>
         <v>0.28964879852125691</v>
       </c>
-      <c r="H29" s="32">
+      <c r="G29" s="32">
         <f>D29/B29</f>
         <v>0.48428835489833644</v>
       </c>
-      <c r="I29" s="32">
+      <c r="H29" s="32">
         <f>E29/B29</f>
         <v>0.22606284658040662</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="8"/>
     </row>
-    <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>83</v>
       </c>
@@ -4496,15 +4533,15 @@
         <v>172</v>
       </c>
       <c r="D32" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E32" t="s">
-        <v>177</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="F32" s="33"/>
       <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>10000</v>
       </c>
@@ -4515,7 +4552,7 @@
         <f>(8944-7216)/1000</f>
         <v>1.728</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="30">
         <f>0.98+0.216-0.12</f>
         <v>1.0760000000000001</v>
       </c>
@@ -4523,20 +4560,20 @@
         <f t="shared" ref="E33:E49" si="1">B33-(D33+C33)</f>
         <v>1.3259999999999996</v>
       </c>
-      <c r="G33" s="32">
+      <c r="F33" s="32">
         <f>C33/B33</f>
         <v>0.41840193704600487</v>
       </c>
-      <c r="H33" s="32">
+      <c r="G33" s="32">
         <f>D33/B33</f>
         <v>0.26053268765133175</v>
       </c>
-      <c r="I33" s="32">
+      <c r="H33" s="32">
         <f>E33/B33</f>
         <v>0.32106537530266338</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>10000</v>
       </c>
@@ -4547,7 +4584,7 @@
         <f>(18278-16646)/1000</f>
         <v>1.6319999999999999</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="30">
         <f>(723+378+315-205)/1000</f>
         <v>1.2110000000000001</v>
       </c>
@@ -4555,20 +4592,20 @@
         <f t="shared" si="1"/>
         <v>1.5670000000000002</v>
       </c>
+      <c r="F34" s="32">
+        <f t="shared" ref="F34:F37" si="2">C34/B34</f>
+        <v>0.37006802721088433</v>
+      </c>
       <c r="G34" s="32">
-        <f t="shared" ref="G34:G37" si="2">C34/B34</f>
-        <v>0.37006802721088433</v>
+        <f t="shared" ref="G34:G37" si="3">D34/B34</f>
+        <v>0.27460317460317463</v>
       </c>
       <c r="H34" s="32">
-        <f t="shared" ref="H34:H37" si="3">D34/B34</f>
-        <v>0.27460317460317463</v>
-      </c>
-      <c r="I34" s="32">
-        <f t="shared" ref="I34:I37" si="4">E34/B34</f>
+        <f t="shared" ref="H34:H37" si="4">E34/B34</f>
         <v>0.3553287981859411</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>10000</v>
       </c>
@@ -4579,7 +4616,7 @@
         <f>(40807-39196)/1000</f>
         <v>1.611</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="30">
         <f>(738+436+245-120)/1000</f>
         <v>1.2989999999999999</v>
       </c>
@@ -4587,20 +4624,20 @@
         <f t="shared" si="1"/>
         <v>1.58</v>
       </c>
-      <c r="G35" s="32">
+      <c r="F35" s="32">
         <f t="shared" si="2"/>
         <v>0.35879732739420933</v>
       </c>
-      <c r="H35" s="32">
+      <c r="G35" s="32">
         <f t="shared" si="3"/>
         <v>0.28930957683741643</v>
       </c>
-      <c r="I35" s="32">
+      <c r="H35" s="32">
         <f t="shared" si="4"/>
         <v>0.35189309576837419</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>10000</v>
       </c>
@@ -4611,7 +4648,7 @@
         <f>(47402-45711)/1000</f>
         <v>1.6910000000000001</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="30">
         <f>(681+366+217-127)/1000</f>
         <v>1.137</v>
       </c>
@@ -4619,20 +4656,20 @@
         <f t="shared" si="1"/>
         <v>1.4719999999999995</v>
       </c>
-      <c r="G36" s="32">
+      <c r="F36" s="32">
         <f t="shared" si="2"/>
         <v>0.39325581395348841</v>
       </c>
-      <c r="H36" s="32">
+      <c r="G36" s="32">
         <f t="shared" si="3"/>
         <v>0.26441860465116279</v>
       </c>
-      <c r="I36" s="32">
+      <c r="H36" s="32">
         <f t="shared" si="4"/>
         <v>0.34232558139534874</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>10000</v>
       </c>
@@ -4643,7 +4680,7 @@
         <f>(58488-56866)/1000</f>
         <v>1.6220000000000001</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="30">
         <f>(655+340+209-120)/1000</f>
         <v>1.0840000000000001</v>
       </c>
@@ -4651,37 +4688,39 @@
         <f t="shared" si="1"/>
         <v>1.2839999999999998</v>
       </c>
-      <c r="G37" s="32">
+      <c r="F37" s="32">
         <f t="shared" si="2"/>
         <v>0.40651629072681705</v>
       </c>
-      <c r="H37" s="32">
+      <c r="G37" s="32">
         <f t="shared" si="3"/>
         <v>0.27167919799498746</v>
       </c>
-      <c r="I37" s="32">
+      <c r="H37" s="32">
         <f t="shared" si="4"/>
         <v>0.32180451127819543</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
       <c r="E38" s="30"/>
+      <c r="F38" s="32"/>
       <c r="G38" s="32"/>
       <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>20000</v>
       </c>
       <c r="B39" s="8">
         <v>6.16</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="30">
         <f>(55575-53906)/1000</f>
         <v>1.669</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="30">
         <f>(773+824+436-205)/1000</f>
         <v>1.8280000000000001</v>
       </c>
@@ -4689,31 +4728,31 @@
         <f t="shared" si="1"/>
         <v>2.6630000000000003</v>
       </c>
+      <c r="F39" s="32">
+        <f>C39/B39</f>
+        <v>0.27094155844155843</v>
+      </c>
       <c r="G39" s="32">
-        <f t="shared" ref="G38:G54" si="5">C39/B39</f>
-        <v>0.27094155844155843</v>
+        <f>D39/B39</f>
+        <v>0.29675324675324677</v>
       </c>
       <c r="H39" s="32">
-        <f t="shared" ref="H38:H54" si="6">D39/B39</f>
-        <v>0.29675324675324677</v>
-      </c>
-      <c r="I39" s="32">
-        <f t="shared" ref="I38:I54" si="7">E39/B39</f>
+        <f>E39/B39</f>
         <v>0.43230519480519486</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>20000</v>
       </c>
       <c r="B40" s="8">
         <v>6.41</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="30">
         <f>(64461-62676)/1000</f>
         <v>1.7849999999999999</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="30">
         <f>(778+742+703-452)/1000</f>
         <v>1.7709999999999999</v>
       </c>
@@ -4721,31 +4760,31 @@
         <f t="shared" si="1"/>
         <v>2.8540000000000001</v>
       </c>
+      <c r="F40" s="32">
+        <f>C40/B40</f>
+        <v>0.2784711388455538</v>
+      </c>
       <c r="G40" s="32">
-        <f t="shared" si="5"/>
-        <v>0.2784711388455538</v>
+        <f>D40/B40</f>
+        <v>0.27628705148205929</v>
       </c>
       <c r="H40" s="32">
-        <f t="shared" si="6"/>
-        <v>0.27628705148205929</v>
-      </c>
-      <c r="I40" s="32">
-        <f t="shared" si="7"/>
+        <f>E40/B40</f>
         <v>0.44524180967238691</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>20000</v>
       </c>
       <c r="B41" s="8">
         <v>6.11</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="30">
         <f>(15434-13705)/1000</f>
         <v>1.7290000000000001</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="30">
         <f>(887+791+432-265)/1000</f>
         <v>1.845</v>
       </c>
@@ -4753,31 +4792,31 @@
         <f t="shared" si="1"/>
         <v>2.5360000000000005</v>
       </c>
+      <c r="F41" s="32">
+        <f>C41/B41</f>
+        <v>0.28297872340425534</v>
+      </c>
       <c r="G41" s="32">
-        <f t="shared" si="5"/>
-        <v>0.28297872340425534</v>
+        <f>D41/B41</f>
+        <v>0.30196399345335512</v>
       </c>
       <c r="H41" s="32">
-        <f t="shared" si="6"/>
-        <v>0.30196399345335512</v>
-      </c>
-      <c r="I41" s="32">
-        <f t="shared" si="7"/>
+        <f>E41/B41</f>
         <v>0.4150572831423896</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <v>20000</v>
       </c>
       <c r="B42" s="8">
         <v>5.65</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="30">
         <f>(12215-10626)/1000</f>
         <v>1.589</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="30">
         <f>(730+716+386-226)/1000</f>
         <v>1.6060000000000001</v>
       </c>
@@ -4785,31 +4824,31 @@
         <f t="shared" si="1"/>
         <v>2.4550000000000001</v>
       </c>
+      <c r="F42" s="32">
+        <f>C42/B42</f>
+        <v>0.2812389380530973</v>
+      </c>
       <c r="G42" s="32">
-        <f t="shared" si="5"/>
-        <v>0.2812389380530973</v>
+        <f>D42/B42</f>
+        <v>0.28424778761061947</v>
       </c>
       <c r="H42" s="32">
-        <f t="shared" si="6"/>
-        <v>0.28424778761061947</v>
-      </c>
-      <c r="I42" s="32">
-        <f t="shared" si="7"/>
+        <f>E42/B42</f>
         <v>0.43451327433628317</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <v>20000</v>
       </c>
       <c r="B43" s="8">
         <v>6.84</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="30">
         <f>(21190-18773)/1000</f>
         <v>2.4169999999999998</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="30">
         <f>(722+718+474-307)/1000</f>
         <v>1.607</v>
       </c>
@@ -4817,37 +4856,39 @@
         <f t="shared" si="1"/>
         <v>2.8159999999999998</v>
       </c>
+      <c r="F43" s="32">
+        <f>C43/B43</f>
+        <v>0.35336257309941521</v>
+      </c>
       <c r="G43" s="32">
-        <f t="shared" si="5"/>
-        <v>0.35336257309941521</v>
+        <f>D43/B43</f>
+        <v>0.23494152046783626</v>
       </c>
       <c r="H43" s="32">
-        <f t="shared" si="6"/>
-        <v>0.23494152046783626</v>
-      </c>
-      <c r="I43" s="32">
-        <f t="shared" si="7"/>
+        <f>E43/B43</f>
         <v>0.4116959064327485</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
       <c r="E44" s="30"/>
+      <c r="F44" s="32"/>
       <c r="G44" s="32"/>
       <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>30000</v>
       </c>
       <c r="B45" s="8">
         <v>7.66</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="30">
         <f>(45123-43507)/1000</f>
         <v>1.6160000000000001</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="30">
         <f>(862+1112+582-285)/1000</f>
         <v>2.2709999999999999</v>
       </c>
@@ -4855,31 +4896,31 @@
         <f t="shared" si="1"/>
         <v>3.7730000000000001</v>
       </c>
+      <c r="F45" s="32">
+        <f>C45/B45</f>
+        <v>0.21096605744125327</v>
+      </c>
       <c r="G45" s="32">
-        <f t="shared" si="5"/>
-        <v>0.21096605744125327</v>
+        <f>D45/B45</f>
+        <v>0.2964751958224543</v>
       </c>
       <c r="H45" s="32">
-        <f t="shared" si="6"/>
-        <v>0.2964751958224543</v>
-      </c>
-      <c r="I45" s="32">
-        <f t="shared" si="7"/>
+        <f>E45/B45</f>
         <v>0.49255874673629246</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <v>30000</v>
       </c>
       <c r="B46" s="8">
         <v>7.59</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="30">
         <f>(1747-184)/1000</f>
         <v>1.5629999999999999</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="30">
         <f>(1010+1112+582-327)/1000</f>
         <v>2.3769999999999998</v>
       </c>
@@ -4887,31 +4928,31 @@
         <f t="shared" si="1"/>
         <v>3.6500000000000004</v>
       </c>
+      <c r="F46" s="32">
+        <f>C46/B46</f>
+        <v>0.20592885375494072</v>
+      </c>
       <c r="G46" s="32">
-        <f t="shared" si="5"/>
-        <v>0.20592885375494072</v>
+        <f>D46/B46</f>
+        <v>0.3131752305665349</v>
       </c>
       <c r="H46" s="32">
-        <f t="shared" si="6"/>
-        <v>0.3131752305665349</v>
-      </c>
-      <c r="I46" s="32">
-        <f t="shared" si="7"/>
+        <f>E46/B46</f>
         <v>0.48089591567852441</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>30000</v>
       </c>
       <c r="B47" s="8">
         <v>7.7</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="30">
         <f>(18853-17328)/1000</f>
         <v>1.5249999999999999</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="30">
         <f>(807+1100+618-342)/1000</f>
         <v>2.1829999999999998</v>
       </c>
@@ -4919,31 +4960,31 @@
         <f t="shared" si="1"/>
         <v>3.9920000000000004</v>
       </c>
+      <c r="F47" s="32">
+        <f>C47/B47</f>
+        <v>0.19805194805194803</v>
+      </c>
       <c r="G47" s="32">
-        <f t="shared" si="5"/>
-        <v>0.19805194805194803</v>
+        <f>D47/B47</f>
+        <v>0.28350649350649348</v>
       </c>
       <c r="H47" s="32">
-        <f t="shared" si="6"/>
-        <v>0.28350649350649348</v>
-      </c>
-      <c r="I47" s="32">
-        <f t="shared" si="7"/>
+        <f>E47/B47</f>
         <v>0.51844155844155848</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <v>30000</v>
       </c>
       <c r="B48" s="8">
         <v>8.31</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="30">
         <f>(34499-32895)/1000</f>
         <v>1.6040000000000001</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="30">
         <f>(828+1360+669-330)/1000</f>
         <v>2.5270000000000001</v>
       </c>
@@ -4951,31 +4992,31 @@
         <f t="shared" si="1"/>
         <v>4.1790000000000003</v>
       </c>
+      <c r="F48" s="32">
+        <f>C48/B48</f>
+        <v>0.19302045728038508</v>
+      </c>
       <c r="G48" s="32">
-        <f t="shared" si="5"/>
-        <v>0.19302045728038508</v>
+        <f>D48/B48</f>
+        <v>0.30409145607701565</v>
       </c>
       <c r="H48" s="32">
-        <f t="shared" si="6"/>
-        <v>0.30409145607701565</v>
-      </c>
-      <c r="I48" s="32">
-        <f t="shared" si="7"/>
+        <f>E48/B48</f>
         <v>0.50288808664259932</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>30000</v>
       </c>
       <c r="B49" s="8">
         <v>7.99</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="30">
         <f>(45136-43378)/1000</f>
         <v>1.758</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="30">
         <f>(844+1120+608-354)/1000</f>
         <v>2.218</v>
       </c>
@@ -4983,43 +5024,276 @@
         <f t="shared" si="1"/>
         <v>4.0140000000000002</v>
       </c>
+      <c r="F49" s="32">
+        <f>C49/B49</f>
+        <v>0.22002503128911138</v>
+      </c>
       <c r="G49" s="32">
-        <f t="shared" si="5"/>
-        <v>0.22002503128911138</v>
+        <f>D49/B49</f>
+        <v>0.27759699624530665</v>
       </c>
       <c r="H49" s="32">
-        <f t="shared" si="6"/>
-        <v>0.27759699624530665</v>
-      </c>
-      <c r="I49" s="32">
-        <f t="shared" si="7"/>
+        <f>E49/B49</f>
         <v>0.50237797246558202</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F50" s="32"/>
       <c r="G50" s="32"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F51" s="32"/>
       <c r="G51" s="32"/>
       <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F52" s="32"/>
       <c r="G52" s="32"/>
       <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C53" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D53" t="s">
+        <v>187</v>
+      </c>
+      <c r="E53" t="s">
+        <v>188</v>
+      </c>
+      <c r="F53" s="32" t="s">
+        <v>190</v>
+      </c>
       <c r="G53" s="32"/>
       <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B54" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="C54" s="30">
+        <f>AVERAGE($C$33:$C$49,$C$13:$C$29)</f>
+        <v>1.7003000000000001</v>
+      </c>
+      <c r="D54" s="30">
+        <f>MIN($C$33:$C$49,$C$13:$C$29)</f>
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="E54" s="30">
+        <f>MAX($C$33:$C$49,$C$13:$C$29)</f>
+        <v>2.4169999999999998</v>
+      </c>
+      <c r="F54" s="30">
+        <f>STDEV($C$33:$C$49,$C$13:$C$29)</f>
+        <v>0.2051346319892845</v>
+      </c>
       <c r="G54" s="32"/>
       <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B55" s="35" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B56" s="8">
+        <v>10000</v>
+      </c>
+      <c r="C56" s="30">
+        <f>AVERAGE($D$33:$D$37,$D$13:$D$17)</f>
+        <v>1.2067999999999999</v>
+      </c>
+      <c r="D56" s="30">
+        <f>MIN($D$33:$D$37,$D$13:$D$17)</f>
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="E56" s="30">
+        <f>MAX($D$33:$D$37,$D$13:$D$17)</f>
+        <v>1.395</v>
+      </c>
+      <c r="F56" s="30">
+        <f>STDEV($D$33:$D$37,$D$13:$D$17)</f>
+        <v>0.11199285691507295</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B57" s="8">
+        <v>20000</v>
+      </c>
+      <c r="C57" s="30">
+        <f>AVERAGE($D$39:$D$43,$D$19:$D$23)</f>
+        <v>1.8975000000000002</v>
+      </c>
+      <c r="D57" s="30">
+        <f>MIN($D$39:$D$43,$D$19:$D$23)</f>
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="E57" s="30">
+        <f>MAX($D$39:$D$43,$D$19:$D$23)</f>
+        <v>2.4250000000000003</v>
+      </c>
+      <c r="F57" s="30">
+        <f>STDEV($D$39:$D$43,$D$19:$D$23)</f>
+        <v>0.26367077535778793</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B58" s="8">
+        <v>30000</v>
+      </c>
+      <c r="C58" s="30">
+        <f>AVERAGE($D$45:$D$49,$D$25:$D$29)</f>
+        <v>2.4242550000000005</v>
+      </c>
+      <c r="D58" s="30">
+        <f>MIN($D$45:$D$49,$D$25:$D$29)</f>
+        <v>2.1829999999999998</v>
+      </c>
+      <c r="E58" s="30">
+        <f>MAX($D$45:$D$49,$D$25:$D$29)</f>
+        <v>2.8485499999999999</v>
+      </c>
+      <c r="F58" s="30">
+        <f>STDEV($D$45:$D$49,$D$25:$D$29)</f>
+        <v>0.19969645082530194</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B60" s="35" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B61" s="8">
+        <v>10000</v>
+      </c>
+      <c r="C61" s="30">
+        <f>AVERAGE($E$13:E17)</f>
+        <v>0.53159999999999996</v>
+      </c>
+      <c r="D61" s="30">
+        <f>MIN($E$13:$E$29)</f>
+        <v>0.46499999999999986</v>
+      </c>
+      <c r="E61" s="30">
+        <f>MAX($E$13:$E$29)</f>
+        <v>1.3320000000000003</v>
+      </c>
+      <c r="F61" s="30">
+        <f>STDEV($E$13:$E$29)</f>
+        <v>0.31366882926484935</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B62" s="8">
+        <v>20000</v>
+      </c>
+      <c r="C62" s="30">
+        <f>AVERAGE($E$19:$E$23)</f>
+        <v>0.99599999999999977</v>
+      </c>
+      <c r="D62" s="30">
+        <f>MIN($E$19:$E$23)</f>
+        <v>0.87699999999999978</v>
+      </c>
+      <c r="E62" s="30">
+        <f>MAX($E$19:$E$23)</f>
+        <v>1.1390000000000002</v>
+      </c>
+      <c r="F62" s="30">
+        <f>STDEV($E$19:$E$23)</f>
+        <v>0.10784247771634335</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B63" s="8">
+        <v>30000</v>
+      </c>
+      <c r="C63" s="30">
+        <f>AVERAGE($E$25:$E$29)</f>
+        <v>1.2412899999999998</v>
+      </c>
+      <c r="D63" s="30">
+        <f>MIN($E$25:$E$29)</f>
+        <v>1.1680000000000001</v>
+      </c>
+      <c r="E63" s="30">
+        <f>MAX($E$25:$E$29)</f>
+        <v>1.3320000000000003</v>
+      </c>
+      <c r="F63" s="30">
+        <f>STDEV($E$25:$E$29)</f>
+        <v>6.1557456900037805E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B65" s="35" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B66" s="8">
+        <v>10000</v>
+      </c>
+      <c r="C66" s="30">
+        <f>AVERAGE($E$33:$E$37)</f>
+        <v>1.4457999999999998</v>
+      </c>
+      <c r="D66" s="30">
+        <f>MIN($E$33:$E$37)</f>
+        <v>1.2839999999999998</v>
+      </c>
+      <c r="E66" s="30">
+        <f>MAX($E$33:$E$37)</f>
+        <v>1.58</v>
+      </c>
+      <c r="F66" s="30">
+        <f>STDEV($E$33:$E$37)</f>
+        <v>0.13593822126245456</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B67" s="8">
+        <v>20000</v>
+      </c>
+      <c r="C67" s="30">
+        <f>AVERAGE($E39:$E43)</f>
+        <v>2.6648000000000005</v>
+      </c>
+      <c r="D67" s="30">
+        <f>MIN($E39:$E43)</f>
+        <v>2.4550000000000001</v>
+      </c>
+      <c r="E67" s="30">
+        <f>MAX($E39:$E43)</f>
+        <v>2.8540000000000001</v>
+      </c>
+      <c r="F67" s="30">
+        <f>STDEV($E39:$E43)</f>
+        <v>0.17267512849278543</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B68" s="8">
+        <v>30000</v>
+      </c>
+      <c r="C68" s="30">
+        <f>AVERAGE($E$45:$E$49)</f>
+        <v>3.9216000000000002</v>
+      </c>
+      <c r="D68" s="30">
+        <f>MIN($E$45:$E$49)</f>
+        <v>3.6500000000000004</v>
+      </c>
+      <c r="E68" s="30">
+        <f>MAX($E$45:$E$49)</f>
+        <v>4.1790000000000003</v>
+      </c>
+      <c r="F68" s="30">
+        <f>STDEV($E$45:$E$49)</f>
+        <v>0.20952159793205091</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/Requirements.xlsx
+++ b/docs/Requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorrit/Documents/master-software-engineering/thesis/DYNAMOS/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04AD650-A631-D24A-B373-3C93716A415A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D96A335-99E8-E444-AA6B-CE1F617F4020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12240" yWindow="500" windowWidth="32120" windowHeight="20200" activeTab="3" xr2:uid="{D6BE7BD5-07AA-4048-B7F7-9B37E5199ABD}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="209">
   <si>
     <t>Receive messages from an input queue</t>
   </si>
@@ -622,6 +622,51 @@
   </si>
   <si>
     <t>Total StartupTime:</t>
+  </si>
+  <si>
+    <t>99th percentile: 5.170977229s</t>
+  </si>
+  <si>
+    <t>Requests      [total, rate, throughput]         150, 0.37, 0.20</t>
+  </si>
+  <si>
+    <t>Duration      [total, attack, wait]             6m42s, 6m42s, 262.809ms</t>
+  </si>
+  <si>
+    <t>Latencies     [min, mean, 50, 90, 95, 99, max]  19.415ms, 1.59s, 650.649ms, 4.641s, 5.122s, 5.171s, 5.305s</t>
+  </si>
+  <si>
+    <t>Bytes In      [total, mean]                     23982, 159.88</t>
+  </si>
+  <si>
+    <t>Bytes Out     [total, mean]                     24642, 164.28</t>
+  </si>
+  <si>
+    <t>Success       [ratio]                           53.33%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status Codes  [code:count]                      200:80  503:70  </t>
+  </si>
+  <si>
+    <t>Error Set:</t>
+  </si>
+  <si>
+    <t>503 Service Unavailable</t>
+  </si>
+  <si>
+    <t>1.690896378088185e+09   INFO    /Users/jorrit/Documents/master-software-engineering/thesis/DYNAMOS/go/cmd/loadtest/main.go:155  Custom metrics:</t>
+  </si>
+  <si>
+    <t>1.690896378088397e+09   INFO    /Users/jorrit/Documents/master-software-engineering/thesis/DYNAMOS/go/cmd/loadtest/main.go:156  Request: 0</t>
+  </si>
+  <si>
+    <t>1.6908963780884118e+09  INFO    /Users/jorrit/Documents/master-software-engineering/thesis/DYNAMOS/go/cmd/loadtest/main.go:157  Successes: 34</t>
+  </si>
+  <si>
+    <t>1.6908963780884259e+09  INFO    /Users/jorrit/Documents/master-software-engineering/thesis/DYNAMOS/go/cmd/loadtest/main.go:158  Failures: 46</t>
+  </si>
+  <si>
+    <t>The test took 7m9.01669741s seconds to execute.</t>
   </si>
 </sst>
 </file>
@@ -887,19 +932,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -920,6 +952,19 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1479,11 +1524,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -1644,35 +1689,35 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="K8" s="19" t="s">
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="K8" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="21"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="33"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C9" s="7" t="s">
@@ -1684,10 +1729,10 @@
       <c r="E9" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="17" t="s">
         <v>96</v>
       </c>
       <c r="H9" s="7"/>
@@ -1700,10 +1745,10 @@
       <c r="K9" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="L9" s="26" t="s">
+      <c r="L9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="M9" s="24" t="s">
+      <c r="M9" s="17" t="s">
         <v>98</v>
       </c>
       <c r="N9" s="7" t="s">
@@ -1712,10 +1757,10 @@
       <c r="O9" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P9" s="26" t="s">
+      <c r="P9" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="Q9" s="25" t="s">
+      <c r="Q9" s="18" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2603,11 +2648,11 @@
       <c r="F31" s="9">
         <v>983455</v>
       </c>
-      <c r="G31" s="31">
+      <c r="G31" s="24">
         <f>AVERAGE(E10:E14,L10:L14,F10:F14,O10:P14)</f>
         <v>101.52</v>
       </c>
-      <c r="H31" s="30">
+      <c r="H31" s="23">
         <f>(D31/G31)/1000</f>
         <v>13.24762608353034</v>
       </c>
@@ -2620,19 +2665,19 @@
       <c r="L31" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M31" s="26" t="s">
+      <c r="M31" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="N31" s="24" t="s">
+      <c r="N31" s="17" t="s">
         <v>96</v>
       </c>
       <c r="O31" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="P31" s="26" t="s">
+      <c r="P31" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="Q31" s="24" t="s">
+      <c r="Q31" s="17" t="s">
         <v>98</v>
       </c>
       <c r="R31" s="7" t="s">
@@ -2641,10 +2686,10 @@
       <c r="S31" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="T31" s="26" t="s">
+      <c r="T31" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="U31" s="25" t="s">
+      <c r="U31" s="18" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2661,11 +2706,11 @@
       <c r="F32" s="9">
         <v>2463677</v>
       </c>
-      <c r="G32" s="27">
+      <c r="G32" s="20">
         <f>AVERAGE(E16:F20,L16:L20,O16:P20)</f>
         <v>200.48</v>
       </c>
-      <c r="H32" s="30">
+      <c r="H32" s="23">
         <f>(D32/G32)/1000</f>
         <v>13.43458200319234</v>
       </c>
@@ -2727,11 +2772,11 @@
       <c r="F33" s="9">
         <v>2955314</v>
       </c>
-      <c r="G33" s="27">
+      <c r="G33" s="20">
         <f>AVERAGE(E22:F26,L22:L26,O22:P26)</f>
         <v>296.12</v>
       </c>
-      <c r="H33" s="30">
+      <c r="H33" s="23">
         <f>(D33/G33)/1000</f>
         <v>13.63217276779684</v>
       </c>
@@ -2959,11 +3004,11 @@
         <f>AVERAGE($G$10:$G$14,$M$10:$M$14,$Q$10:$Q$14)</f>
         <v>150.6</v>
       </c>
-      <c r="F37" s="30">
+      <c r="F37" s="23">
         <f>(D37/E37)/1000</f>
         <v>8.9302722443559102</v>
       </c>
-      <c r="G37" s="32">
+      <c r="G37" s="25">
         <f>F37/H31</f>
         <v>0.6741035856573705</v>
       </c>
@@ -2990,11 +3035,11 @@
         <f>AVERAGE($G$16:$G$20,$M$16:$M$20,$Q$16:$Q$20)</f>
         <v>295.13333333333333</v>
       </c>
-      <c r="F38" s="30">
+      <c r="F38" s="23">
         <f t="shared" ref="F38:F39" si="0">(D38/E38)/1000</f>
         <v>9.1259261350801903</v>
       </c>
-      <c r="G38" s="32">
+      <c r="G38" s="25">
         <f>F38/H32</f>
         <v>0.67928619832843906</v>
       </c>
@@ -3059,11 +3104,11 @@
         <f>AVERAGE($G$22:$G$26,$M$22:$M$26,$Q$22:$Q$26)</f>
         <v>470.8</v>
       </c>
-      <c r="F39" s="30">
+      <c r="F39" s="23">
         <f t="shared" si="0"/>
         <v>8.5742544604927797</v>
       </c>
-      <c r="G39" s="32">
+      <c r="G39" s="25">
         <f>F39/H33</f>
         <v>0.62897196261682253</v>
       </c>
@@ -3634,19 +3679,19 @@
       <c r="C62">
         <v>10000</v>
       </c>
-      <c r="D62" s="27">
+      <c r="D62" s="20">
         <f>AVERAGE(F10:$F$14,L10:$L$14,P10:$P$14)</f>
         <v>100.53333333333333</v>
       </c>
-      <c r="E62" s="27">
+      <c r="E62" s="20">
         <f>MIN(F10:$F$14,$L$10:L14,P10:$P$14)</f>
         <v>84</v>
       </c>
-      <c r="F62" s="27">
+      <c r="F62" s="20">
         <f>MAX($F$10:F14,L10:$L$14,$P$10:P14)</f>
         <v>124</v>
       </c>
-      <c r="G62" s="27">
+      <c r="G62" s="20">
         <f>STDEV($F$10:F14,$L$10:L14,P10:$P$14)</f>
         <v>12.506379324549695</v>
       </c>
@@ -3945,10 +3990,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D402B211-41A9-054B-9CDE-A7E508CC657A}">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3986,12 +4031,12 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
@@ -4026,27 +4071,27 @@
       <c r="B13" s="8">
         <v>3.22</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="23">
         <f>(46935-45382)/1000</f>
         <v>1.5529999999999999</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="23">
         <f>0.677+0.337+0.136</f>
         <v>1.1499999999999999</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="23">
         <f>B13-(D13+C13)</f>
         <v>0.51700000000000035</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="25">
         <f>C13/B13</f>
         <v>0.48229813664596266</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="25">
         <f>D13/B13</f>
         <v>0.3571428571428571</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="25">
         <f>E13/B13</f>
         <v>0.16055900621118022</v>
       </c>
@@ -4058,27 +4103,27 @@
       <c r="B14" s="8">
         <v>3.41</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="23">
         <f>(53772-52220)/1000</f>
         <v>1.552</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="23">
         <f>0.79+0.343+0.227</f>
         <v>1.36</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="23">
         <f t="shared" ref="E14:E29" si="0">B14-(D14+C14)</f>
         <v>0.49800000000000022</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="25">
         <f>C14/B14</f>
         <v>0.45513196480938417</v>
       </c>
-      <c r="G14" s="32">
+      <c r="G14" s="25">
         <f>D14/B14</f>
         <v>0.3988269794721408</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="25">
         <f>E14/B14</f>
         <v>0.14604105571847514</v>
       </c>
@@ -4090,27 +4135,27 @@
       <c r="B15" s="8">
         <v>3.17</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="23">
         <f>(60126-58557)/1000</f>
         <v>1.569</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="23">
         <f>0.654+0.347+0.135</f>
         <v>1.1359999999999999</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="23">
         <f t="shared" si="0"/>
         <v>0.46499999999999986</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15" s="25">
         <f>C15/B15</f>
         <v>0.49495268138801263</v>
       </c>
-      <c r="G15" s="32">
+      <c r="G15" s="25">
         <f>D15/B15</f>
         <v>0.35835962145110406</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H15" s="25">
         <f>E15/B15</f>
         <v>0.14668769716088323</v>
       </c>
@@ -4122,27 +4167,27 @@
       <c r="B16" s="8">
         <v>4.1399999999999997</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="23">
         <f>(6441-4331)/1000</f>
         <v>2.11</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="23">
         <f>0.814+0.44+0.141</f>
         <v>1.395</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="23">
         <f t="shared" si="0"/>
         <v>0.63499999999999979</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="25">
         <f>C16/B16</f>
         <v>0.50966183574879231</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="25">
         <f>D16/B16</f>
         <v>0.33695652173913049</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="25">
         <f>E16/B16</f>
         <v>0.15338164251207725</v>
       </c>
@@ -4154,27 +4199,27 @@
       <c r="B17" s="8">
         <v>3.73</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="23">
         <f>(17727-15760)/1000</f>
         <v>1.9670000000000001</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="23">
         <f>0.707+0.376+0.137</f>
         <v>1.22</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="23">
         <f t="shared" si="0"/>
         <v>0.54299999999999971</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="25">
         <f>C17/B17</f>
         <v>0.52734584450402144</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="25">
         <f>D17/B17</f>
         <v>0.32707774798927614</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="25">
         <f>E17/B17</f>
         <v>0.14557640750670234</v>
       </c>
@@ -4182,12 +4227,12 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
@@ -4196,27 +4241,27 @@
       <c r="B19" s="8">
         <v>4.3099999999999996</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="23">
         <f>(30512-28931)/1000</f>
         <v>1.581</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="23">
         <f>0.732+0.788+0.308</f>
         <v>1.8280000000000001</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="23">
         <f t="shared" si="0"/>
         <v>0.9009999999999998</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="25">
         <f>C19/B19</f>
         <v>0.36682134570765662</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="25">
         <f>D19/B19</f>
         <v>0.42412993039443159</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="25">
         <f>E19/B19</f>
         <v>0.20904872389791179</v>
       </c>
@@ -4228,27 +4273,27 @@
       <c r="B20" s="8">
         <v>5.63</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C20" s="23">
         <f>(37379-35219)/1000</f>
         <v>2.16</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="23">
         <f>0.882+1.23+0.313</f>
         <v>2.4250000000000003</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="23">
         <f t="shared" si="0"/>
         <v>1.044999999999999</v>
       </c>
-      <c r="F20" s="32">
+      <c r="F20" s="25">
         <f>C20/B20</f>
         <v>0.38365896980461817</v>
       </c>
-      <c r="G20" s="32">
+      <c r="G20" s="25">
         <f>D20/B20</f>
         <v>0.43072824156305511</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H20" s="25">
         <f>E20/B20</f>
         <v>0.18561278863232666</v>
       </c>
@@ -4260,27 +4305,27 @@
       <c r="B21" s="8">
         <v>4.47</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="23">
         <f>(44176-42565)/1000</f>
         <v>1.611</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="23">
         <f>0.762+0.348+0.731</f>
         <v>1.8409999999999997</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="23">
         <f t="shared" si="0"/>
         <v>1.0179999999999998</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="25">
         <f>C21/B21</f>
         <v>0.3604026845637584</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="25">
         <f>D21/B21</f>
         <v>0.4118568232662192</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="25">
         <f>E21/B21</f>
         <v>0.22774049217002235</v>
       </c>
@@ -4292,27 +4337,27 @@
       <c r="B22" s="8">
         <v>4.42</v>
       </c>
-      <c r="C22" s="30">
+      <c r="C22" s="23">
         <f>(51500-49904)/1000</f>
         <v>1.5960000000000001</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="23">
         <f>0.779+0.816+0.352</f>
         <v>1.9470000000000001</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="23">
         <f t="shared" si="0"/>
         <v>0.87699999999999978</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F22" s="25">
         <f>C22/B22</f>
         <v>0.36108597285067878</v>
       </c>
-      <c r="G22" s="32">
+      <c r="G22" s="25">
         <f>D22/B22</f>
         <v>0.44049773755656113</v>
       </c>
-      <c r="H22" s="32">
+      <c r="H22" s="25">
         <f>E22/B22</f>
         <v>0.19841628959276014</v>
       </c>
@@ -4324,27 +4369,27 @@
       <c r="B23" s="8">
         <v>5.1100000000000003</v>
       </c>
-      <c r="C23" s="30">
+      <c r="C23" s="23">
         <f>(58885-57191)/1000</f>
         <v>1.694</v>
       </c>
-      <c r="D23" s="30">
+      <c r="D23" s="23">
         <f>1.03+0.911+0.336</f>
         <v>2.2770000000000001</v>
       </c>
-      <c r="E23" s="30">
+      <c r="E23" s="23">
         <f t="shared" si="0"/>
         <v>1.1390000000000002</v>
       </c>
-      <c r="F23" s="32">
+      <c r="F23" s="25">
         <f>C23/B23</f>
         <v>0.33150684931506846</v>
       </c>
-      <c r="G23" s="32">
+      <c r="G23" s="25">
         <f>D23/B23</f>
         <v>0.44559686888454014</v>
       </c>
-      <c r="H23" s="32">
+      <c r="H23" s="25">
         <f>E23/B23</f>
         <v>0.22289628180039142</v>
       </c>
@@ -4352,12 +4397,12 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
@@ -4366,27 +4411,27 @@
       <c r="B25" s="8">
         <v>5.24</v>
       </c>
-      <c r="C25" s="30">
+      <c r="C25" s="23">
         <f>(34819-33278)/1000</f>
         <v>1.5409999999999999</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="23">
         <f>0.412+1.12+0.835</f>
         <v>2.367</v>
       </c>
-      <c r="E25" s="30">
+      <c r="E25" s="23">
         <f t="shared" si="0"/>
         <v>1.3320000000000003</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F25" s="25">
         <f>C25/B25</f>
         <v>0.29408396946564885</v>
       </c>
-      <c r="G25" s="32">
+      <c r="G25" s="25">
         <f>D25/B25</f>
         <v>0.45171755725190837</v>
       </c>
-      <c r="H25" s="32">
+      <c r="H25" s="25">
         <f>E25/B25</f>
         <v>0.25419847328244277</v>
       </c>
@@ -4398,27 +4443,27 @@
       <c r="B26" s="8">
         <v>5.76</v>
       </c>
-      <c r="C26" s="30">
+      <c r="C26" s="23">
         <f>(40627-38982)/1000</f>
         <v>1.645</v>
       </c>
-      <c r="D26" s="30">
+      <c r="D26" s="23">
         <f>0.971+0.47755+1.4</f>
         <v>2.8485499999999999</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="23">
         <f t="shared" si="0"/>
         <v>1.2664499999999999</v>
       </c>
-      <c r="F26" s="32">
+      <c r="F26" s="25">
         <f>C26/B26</f>
         <v>0.28559027777777779</v>
       </c>
-      <c r="G26" s="32">
+      <c r="G26" s="25">
         <f>D26/B26</f>
         <v>0.49453993055555556</v>
       </c>
-      <c r="H26" s="32">
+      <c r="H26" s="25">
         <f>E26/B26</f>
         <v>0.21986979166666665</v>
       </c>
@@ -4430,27 +4475,27 @@
       <c r="B27" s="8">
         <v>5.34</v>
       </c>
-      <c r="C27" s="30">
+      <c r="C27" s="23">
         <f>(13207-11507)/1000</f>
         <v>1.7</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="23">
         <f>0.845+1.07+0.508</f>
         <v>2.423</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="23">
         <f t="shared" si="0"/>
         <v>1.2169999999999996</v>
       </c>
-      <c r="F27" s="32">
+      <c r="F27" s="25">
         <f>C27/B27</f>
         <v>0.31835205992509363</v>
       </c>
-      <c r="G27" s="32">
+      <c r="G27" s="25">
         <f>D27/B27</f>
         <v>0.45374531835205995</v>
       </c>
-      <c r="H27" s="32">
+      <c r="H27" s="25">
         <f>E27/B27</f>
         <v>0.22790262172284639</v>
       </c>
@@ -4462,27 +4507,27 @@
       <c r="B28" s="8">
         <v>5.2</v>
       </c>
-      <c r="C28" s="30">
+      <c r="C28" s="23">
         <f>(24839-23215)/1000</f>
         <v>1.6240000000000001</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="23">
         <f>0.858+1.1+0.45</f>
         <v>2.4080000000000004</v>
       </c>
-      <c r="E28" s="30">
+      <c r="E28" s="23">
         <f t="shared" si="0"/>
         <v>1.1680000000000001</v>
       </c>
-      <c r="F28" s="32">
+      <c r="F28" s="25">
         <f>C28/B28</f>
         <v>0.31230769230769234</v>
       </c>
-      <c r="G28" s="32">
+      <c r="G28" s="25">
         <f>D28/B28</f>
         <v>0.46307692307692311</v>
       </c>
-      <c r="H28" s="32">
+      <c r="H28" s="25">
         <f>E28/B28</f>
         <v>0.22461538461538463</v>
       </c>
@@ -4494,27 +4539,27 @@
       <c r="B29" s="8">
         <v>5.41</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="23">
         <f>(33612-32045)/1000</f>
         <v>1.5669999999999999</v>
       </c>
-      <c r="D29" s="30">
+      <c r="D29" s="23">
         <f>0.84+1.36+0.42</f>
         <v>2.62</v>
       </c>
-      <c r="E29" s="30">
+      <c r="E29" s="23">
         <f t="shared" si="0"/>
         <v>1.2229999999999999</v>
       </c>
-      <c r="F29" s="32">
+      <c r="F29" s="25">
         <f>C29/B29</f>
         <v>0.28964879852125691</v>
       </c>
-      <c r="G29" s="32">
+      <c r="G29" s="25">
         <f>D29/B29</f>
         <v>0.48428835489833644</v>
       </c>
-      <c r="H29" s="32">
+      <c r="H29" s="25">
         <f>E29/B29</f>
         <v>0.22606284658040662</v>
       </c>
@@ -4538,8 +4583,8 @@
       <c r="E32" t="s">
         <v>175</v>
       </c>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
@@ -4548,27 +4593,27 @@
       <c r="B33" s="8">
         <v>4.13</v>
       </c>
-      <c r="C33" s="30">
+      <c r="C33" s="23">
         <f>(8944-7216)/1000</f>
         <v>1.728</v>
       </c>
-      <c r="D33" s="30">
+      <c r="D33" s="23">
         <f>0.98+0.216-0.12</f>
         <v>1.0760000000000001</v>
       </c>
-      <c r="E33" s="30">
+      <c r="E33" s="23">
         <f t="shared" ref="E33:E49" si="1">B33-(D33+C33)</f>
         <v>1.3259999999999996</v>
       </c>
-      <c r="F33" s="32">
+      <c r="F33" s="25">
         <f>C33/B33</f>
         <v>0.41840193704600487</v>
       </c>
-      <c r="G33" s="32">
+      <c r="G33" s="25">
         <f>D33/B33</f>
         <v>0.26053268765133175</v>
       </c>
-      <c r="H33" s="32">
+      <c r="H33" s="25">
         <f>E33/B33</f>
         <v>0.32106537530266338</v>
       </c>
@@ -4580,27 +4625,27 @@
       <c r="B34" s="8">
         <v>4.41</v>
       </c>
-      <c r="C34" s="30">
+      <c r="C34" s="23">
         <f>(18278-16646)/1000</f>
         <v>1.6319999999999999</v>
       </c>
-      <c r="D34" s="30">
+      <c r="D34" s="23">
         <f>(723+378+315-205)/1000</f>
         <v>1.2110000000000001</v>
       </c>
-      <c r="E34" s="30">
+      <c r="E34" s="23">
         <f t="shared" si="1"/>
         <v>1.5670000000000002</v>
       </c>
-      <c r="F34" s="32">
+      <c r="F34" s="25">
         <f t="shared" ref="F34:F37" si="2">C34/B34</f>
         <v>0.37006802721088433</v>
       </c>
-      <c r="G34" s="32">
+      <c r="G34" s="25">
         <f t="shared" ref="G34:G37" si="3">D34/B34</f>
         <v>0.27460317460317463</v>
       </c>
-      <c r="H34" s="32">
+      <c r="H34" s="25">
         <f t="shared" ref="H34:H37" si="4">E34/B34</f>
         <v>0.3553287981859411</v>
       </c>
@@ -4612,27 +4657,27 @@
       <c r="B35" s="8">
         <v>4.49</v>
       </c>
-      <c r="C35" s="30">
+      <c r="C35" s="23">
         <f>(40807-39196)/1000</f>
         <v>1.611</v>
       </c>
-      <c r="D35" s="30">
+      <c r="D35" s="23">
         <f>(738+436+245-120)/1000</f>
         <v>1.2989999999999999</v>
       </c>
-      <c r="E35" s="30">
+      <c r="E35" s="23">
         <f t="shared" si="1"/>
         <v>1.58</v>
       </c>
-      <c r="F35" s="32">
+      <c r="F35" s="25">
         <f t="shared" si="2"/>
         <v>0.35879732739420933</v>
       </c>
-      <c r="G35" s="32">
+      <c r="G35" s="25">
         <f t="shared" si="3"/>
         <v>0.28930957683741643</v>
       </c>
-      <c r="H35" s="32">
+      <c r="H35" s="25">
         <f t="shared" si="4"/>
         <v>0.35189309576837419</v>
       </c>
@@ -4644,27 +4689,27 @@
       <c r="B36" s="8">
         <v>4.3</v>
       </c>
-      <c r="C36" s="30">
+      <c r="C36" s="23">
         <f>(47402-45711)/1000</f>
         <v>1.6910000000000001</v>
       </c>
-      <c r="D36" s="30">
+      <c r="D36" s="23">
         <f>(681+366+217-127)/1000</f>
         <v>1.137</v>
       </c>
-      <c r="E36" s="30">
+      <c r="E36" s="23">
         <f t="shared" si="1"/>
         <v>1.4719999999999995</v>
       </c>
-      <c r="F36" s="32">
+      <c r="F36" s="25">
         <f t="shared" si="2"/>
         <v>0.39325581395348841</v>
       </c>
-      <c r="G36" s="32">
+      <c r="G36" s="25">
         <f t="shared" si="3"/>
         <v>0.26441860465116279</v>
       </c>
-      <c r="H36" s="32">
+      <c r="H36" s="25">
         <f t="shared" si="4"/>
         <v>0.34232558139534874</v>
       </c>
@@ -4676,38 +4721,38 @@
       <c r="B37" s="8">
         <v>3.99</v>
       </c>
-      <c r="C37" s="30">
+      <c r="C37" s="23">
         <f>(58488-56866)/1000</f>
         <v>1.6220000000000001</v>
       </c>
-      <c r="D37" s="30">
+      <c r="D37" s="23">
         <f>(655+340+209-120)/1000</f>
         <v>1.0840000000000001</v>
       </c>
-      <c r="E37" s="30">
+      <c r="E37" s="23">
         <f t="shared" si="1"/>
         <v>1.2839999999999998</v>
       </c>
-      <c r="F37" s="32">
+      <c r="F37" s="25">
         <f t="shared" si="2"/>
         <v>0.40651629072681705</v>
       </c>
-      <c r="G37" s="32">
+      <c r="G37" s="25">
         <f t="shared" si="3"/>
         <v>0.27167919799498746</v>
       </c>
-      <c r="H37" s="32">
+      <c r="H37" s="25">
         <f t="shared" si="4"/>
         <v>0.32180451127819543</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
@@ -4716,27 +4761,27 @@
       <c r="B39" s="8">
         <v>6.16</v>
       </c>
-      <c r="C39" s="30">
+      <c r="C39" s="23">
         <f>(55575-53906)/1000</f>
         <v>1.669</v>
       </c>
-      <c r="D39" s="30">
+      <c r="D39" s="23">
         <f>(773+824+436-205)/1000</f>
         <v>1.8280000000000001</v>
       </c>
-      <c r="E39" s="30">
+      <c r="E39" s="23">
         <f t="shared" si="1"/>
         <v>2.6630000000000003</v>
       </c>
-      <c r="F39" s="32">
+      <c r="F39" s="25">
         <f>C39/B39</f>
         <v>0.27094155844155843</v>
       </c>
-      <c r="G39" s="32">
+      <c r="G39" s="25">
         <f>D39/B39</f>
         <v>0.29675324675324677</v>
       </c>
-      <c r="H39" s="32">
+      <c r="H39" s="25">
         <f>E39/B39</f>
         <v>0.43230519480519486</v>
       </c>
@@ -4748,27 +4793,27 @@
       <c r="B40" s="8">
         <v>6.41</v>
       </c>
-      <c r="C40" s="30">
+      <c r="C40" s="23">
         <f>(64461-62676)/1000</f>
         <v>1.7849999999999999</v>
       </c>
-      <c r="D40" s="30">
+      <c r="D40" s="23">
         <f>(778+742+703-452)/1000</f>
         <v>1.7709999999999999</v>
       </c>
-      <c r="E40" s="30">
+      <c r="E40" s="23">
         <f t="shared" si="1"/>
         <v>2.8540000000000001</v>
       </c>
-      <c r="F40" s="32">
+      <c r="F40" s="25">
         <f>C40/B40</f>
         <v>0.2784711388455538</v>
       </c>
-      <c r="G40" s="32">
+      <c r="G40" s="25">
         <f>D40/B40</f>
         <v>0.27628705148205929</v>
       </c>
-      <c r="H40" s="32">
+      <c r="H40" s="25">
         <f>E40/B40</f>
         <v>0.44524180967238691</v>
       </c>
@@ -4780,27 +4825,27 @@
       <c r="B41" s="8">
         <v>6.11</v>
       </c>
-      <c r="C41" s="30">
+      <c r="C41" s="23">
         <f>(15434-13705)/1000</f>
         <v>1.7290000000000001</v>
       </c>
-      <c r="D41" s="30">
+      <c r="D41" s="23">
         <f>(887+791+432-265)/1000</f>
         <v>1.845</v>
       </c>
-      <c r="E41" s="30">
+      <c r="E41" s="23">
         <f t="shared" si="1"/>
         <v>2.5360000000000005</v>
       </c>
-      <c r="F41" s="32">
+      <c r="F41" s="25">
         <f>C41/B41</f>
         <v>0.28297872340425534</v>
       </c>
-      <c r="G41" s="32">
+      <c r="G41" s="25">
         <f>D41/B41</f>
         <v>0.30196399345335512</v>
       </c>
-      <c r="H41" s="32">
+      <c r="H41" s="25">
         <f>E41/B41</f>
         <v>0.4150572831423896</v>
       </c>
@@ -4812,27 +4857,27 @@
       <c r="B42" s="8">
         <v>5.65</v>
       </c>
-      <c r="C42" s="30">
+      <c r="C42" s="23">
         <f>(12215-10626)/1000</f>
         <v>1.589</v>
       </c>
-      <c r="D42" s="30">
+      <c r="D42" s="23">
         <f>(730+716+386-226)/1000</f>
         <v>1.6060000000000001</v>
       </c>
-      <c r="E42" s="30">
+      <c r="E42" s="23">
         <f t="shared" si="1"/>
         <v>2.4550000000000001</v>
       </c>
-      <c r="F42" s="32">
+      <c r="F42" s="25">
         <f>C42/B42</f>
         <v>0.2812389380530973</v>
       </c>
-      <c r="G42" s="32">
+      <c r="G42" s="25">
         <f>D42/B42</f>
         <v>0.28424778761061947</v>
       </c>
-      <c r="H42" s="32">
+      <c r="H42" s="25">
         <f>E42/B42</f>
         <v>0.43451327433628317</v>
       </c>
@@ -4844,38 +4889,38 @@
       <c r="B43" s="8">
         <v>6.84</v>
       </c>
-      <c r="C43" s="30">
+      <c r="C43" s="23">
         <f>(21190-18773)/1000</f>
         <v>2.4169999999999998</v>
       </c>
-      <c r="D43" s="30">
+      <c r="D43" s="23">
         <f>(722+718+474-307)/1000</f>
         <v>1.607</v>
       </c>
-      <c r="E43" s="30">
+      <c r="E43" s="23">
         <f t="shared" si="1"/>
         <v>2.8159999999999998</v>
       </c>
-      <c r="F43" s="32">
+      <c r="F43" s="25">
         <f>C43/B43</f>
         <v>0.35336257309941521</v>
       </c>
-      <c r="G43" s="32">
+      <c r="G43" s="25">
         <f>D43/B43</f>
         <v>0.23494152046783626</v>
       </c>
-      <c r="H43" s="32">
+      <c r="H43" s="25">
         <f>E43/B43</f>
         <v>0.4116959064327485</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
@@ -4884,27 +4929,27 @@
       <c r="B45" s="8">
         <v>7.66</v>
       </c>
-      <c r="C45" s="30">
+      <c r="C45" s="23">
         <f>(45123-43507)/1000</f>
         <v>1.6160000000000001</v>
       </c>
-      <c r="D45" s="30">
+      <c r="D45" s="23">
         <f>(862+1112+582-285)/1000</f>
         <v>2.2709999999999999</v>
       </c>
-      <c r="E45" s="30">
+      <c r="E45" s="23">
         <f t="shared" si="1"/>
         <v>3.7730000000000001</v>
       </c>
-      <c r="F45" s="32">
+      <c r="F45" s="25">
         <f>C45/B45</f>
         <v>0.21096605744125327</v>
       </c>
-      <c r="G45" s="32">
+      <c r="G45" s="25">
         <f>D45/B45</f>
         <v>0.2964751958224543</v>
       </c>
-      <c r="H45" s="32">
+      <c r="H45" s="25">
         <f>E45/B45</f>
         <v>0.49255874673629246</v>
       </c>
@@ -4916,27 +4961,27 @@
       <c r="B46" s="8">
         <v>7.59</v>
       </c>
-      <c r="C46" s="30">
+      <c r="C46" s="23">
         <f>(1747-184)/1000</f>
         <v>1.5629999999999999</v>
       </c>
-      <c r="D46" s="30">
+      <c r="D46" s="23">
         <f>(1010+1112+582-327)/1000</f>
         <v>2.3769999999999998</v>
       </c>
-      <c r="E46" s="30">
+      <c r="E46" s="23">
         <f t="shared" si="1"/>
         <v>3.6500000000000004</v>
       </c>
-      <c r="F46" s="32">
+      <c r="F46" s="25">
         <f>C46/B46</f>
         <v>0.20592885375494072</v>
       </c>
-      <c r="G46" s="32">
+      <c r="G46" s="25">
         <f>D46/B46</f>
         <v>0.3131752305665349</v>
       </c>
-      <c r="H46" s="32">
+      <c r="H46" s="25">
         <f>E46/B46</f>
         <v>0.48089591567852441</v>
       </c>
@@ -4948,27 +4993,27 @@
       <c r="B47" s="8">
         <v>7.7</v>
       </c>
-      <c r="C47" s="30">
+      <c r="C47" s="23">
         <f>(18853-17328)/1000</f>
         <v>1.5249999999999999</v>
       </c>
-      <c r="D47" s="30">
+      <c r="D47" s="23">
         <f>(807+1100+618-342)/1000</f>
         <v>2.1829999999999998</v>
       </c>
-      <c r="E47" s="30">
+      <c r="E47" s="23">
         <f t="shared" si="1"/>
         <v>3.9920000000000004</v>
       </c>
-      <c r="F47" s="32">
+      <c r="F47" s="25">
         <f>C47/B47</f>
         <v>0.19805194805194803</v>
       </c>
-      <c r="G47" s="32">
+      <c r="G47" s="25">
         <f>D47/B47</f>
         <v>0.28350649350649348</v>
       </c>
-      <c r="H47" s="32">
+      <c r="H47" s="25">
         <f>E47/B47</f>
         <v>0.51844155844155848</v>
       </c>
@@ -4980,27 +5025,27 @@
       <c r="B48" s="8">
         <v>8.31</v>
       </c>
-      <c r="C48" s="30">
+      <c r="C48" s="23">
         <f>(34499-32895)/1000</f>
         <v>1.6040000000000001</v>
       </c>
-      <c r="D48" s="30">
+      <c r="D48" s="23">
         <f>(828+1360+669-330)/1000</f>
         <v>2.5270000000000001</v>
       </c>
-      <c r="E48" s="30">
+      <c r="E48" s="23">
         <f t="shared" si="1"/>
         <v>4.1790000000000003</v>
       </c>
-      <c r="F48" s="32">
+      <c r="F48" s="25">
         <f>C48/B48</f>
         <v>0.19302045728038508</v>
       </c>
-      <c r="G48" s="32">
+      <c r="G48" s="25">
         <f>D48/B48</f>
         <v>0.30409145607701565</v>
       </c>
-      <c r="H48" s="32">
+      <c r="H48" s="25">
         <f>E48/B48</f>
         <v>0.50288808664259932</v>
       </c>
@@ -5012,48 +5057,48 @@
       <c r="B49" s="8">
         <v>7.99</v>
       </c>
-      <c r="C49" s="30">
+      <c r="C49" s="23">
         <f>(45136-43378)/1000</f>
         <v>1.758</v>
       </c>
-      <c r="D49" s="30">
+      <c r="D49" s="23">
         <f>(844+1120+608-354)/1000</f>
         <v>2.218</v>
       </c>
-      <c r="E49" s="30">
+      <c r="E49" s="23">
         <f t="shared" si="1"/>
         <v>4.0140000000000002</v>
       </c>
-      <c r="F49" s="32">
+      <c r="F49" s="25">
         <f>C49/B49</f>
         <v>0.22002503128911138</v>
       </c>
-      <c r="G49" s="32">
+      <c r="G49" s="25">
         <f>D49/B49</f>
         <v>0.27759699624530665</v>
       </c>
-      <c r="H49" s="32">
+      <c r="H49" s="25">
         <f>E49/B49</f>
         <v>0.50237797246558202</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C53" s="30" t="s">
+      <c r="C53" s="23" t="s">
         <v>186</v>
       </c>
       <c r="D53" t="s">
@@ -5062,37 +5107,37 @@
       <c r="E53" t="s">
         <v>188</v>
       </c>
-      <c r="F53" s="32" t="s">
+      <c r="F53" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="C54" s="30">
+      <c r="C54" s="23">
         <f>AVERAGE($C$33:$C$49,$C$13:$C$29)</f>
         <v>1.7003000000000001</v>
       </c>
-      <c r="D54" s="30">
+      <c r="D54" s="23">
         <f>MIN($C$33:$C$49,$C$13:$C$29)</f>
         <v>1.5249999999999999</v>
       </c>
-      <c r="E54" s="30">
+      <c r="E54" s="23">
         <f>MAX($C$33:$C$49,$C$13:$C$29)</f>
         <v>2.4169999999999998</v>
       </c>
-      <c r="F54" s="30">
+      <c r="F54" s="23">
         <f>STDEV($C$33:$C$49,$C$13:$C$29)</f>
         <v>0.2051346319892845</v>
       </c>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B55" s="35" t="s">
+      <c r="B55" s="28" t="s">
         <v>189</v>
       </c>
     </row>
@@ -5100,19 +5145,19 @@
       <c r="B56" s="8">
         <v>10000</v>
       </c>
-      <c r="C56" s="30">
+      <c r="C56" s="23">
         <f>AVERAGE($D$33:$D$37,$D$13:$D$17)</f>
         <v>1.2067999999999999</v>
       </c>
-      <c r="D56" s="30">
+      <c r="D56" s="23">
         <f>MIN($D$33:$D$37,$D$13:$D$17)</f>
         <v>1.0760000000000001</v>
       </c>
-      <c r="E56" s="30">
+      <c r="E56" s="23">
         <f>MAX($D$33:$D$37,$D$13:$D$17)</f>
         <v>1.395</v>
       </c>
-      <c r="F56" s="30">
+      <c r="F56" s="23">
         <f>STDEV($D$33:$D$37,$D$13:$D$17)</f>
         <v>0.11199285691507295</v>
       </c>
@@ -5121,19 +5166,19 @@
       <c r="B57" s="8">
         <v>20000</v>
       </c>
-      <c r="C57" s="30">
+      <c r="C57" s="23">
         <f>AVERAGE($D$39:$D$43,$D$19:$D$23)</f>
         <v>1.8975000000000002</v>
       </c>
-      <c r="D57" s="30">
+      <c r="D57" s="23">
         <f>MIN($D$39:$D$43,$D$19:$D$23)</f>
         <v>1.6060000000000001</v>
       </c>
-      <c r="E57" s="30">
+      <c r="E57" s="23">
         <f>MAX($D$39:$D$43,$D$19:$D$23)</f>
         <v>2.4250000000000003</v>
       </c>
-      <c r="F57" s="30">
+      <c r="F57" s="23">
         <f>STDEV($D$39:$D$43,$D$19:$D$23)</f>
         <v>0.26367077535778793</v>
       </c>
@@ -5142,25 +5187,25 @@
       <c r="B58" s="8">
         <v>30000</v>
       </c>
-      <c r="C58" s="30">
+      <c r="C58" s="23">
         <f>AVERAGE($D$45:$D$49,$D$25:$D$29)</f>
         <v>2.4242550000000005</v>
       </c>
-      <c r="D58" s="30">
+      <c r="D58" s="23">
         <f>MIN($D$45:$D$49,$D$25:$D$29)</f>
         <v>2.1829999999999998</v>
       </c>
-      <c r="E58" s="30">
+      <c r="E58" s="23">
         <f>MAX($D$45:$D$49,$D$25:$D$29)</f>
         <v>2.8485499999999999</v>
       </c>
-      <c r="F58" s="30">
+      <c r="F58" s="23">
         <f>STDEV($D$45:$D$49,$D$25:$D$29)</f>
         <v>0.19969645082530194</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B60" s="35" t="s">
+      <c r="B60" s="28" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5168,19 +5213,19 @@
       <c r="B61" s="8">
         <v>10000</v>
       </c>
-      <c r="C61" s="30">
+      <c r="C61" s="23">
         <f>AVERAGE($E$13:E17)</f>
         <v>0.53159999999999996</v>
       </c>
-      <c r="D61" s="30">
+      <c r="D61" s="23">
         <f>MIN($E$13:$E$29)</f>
         <v>0.46499999999999986</v>
       </c>
-      <c r="E61" s="30">
+      <c r="E61" s="23">
         <f>MAX($E$13:$E$29)</f>
         <v>1.3320000000000003</v>
       </c>
-      <c r="F61" s="30">
+      <c r="F61" s="23">
         <f>STDEV($E$13:$E$29)</f>
         <v>0.31366882926484935</v>
       </c>
@@ -5189,19 +5234,19 @@
       <c r="B62" s="8">
         <v>20000</v>
       </c>
-      <c r="C62" s="30">
+      <c r="C62" s="23">
         <f>AVERAGE($E$19:$E$23)</f>
         <v>0.99599999999999977</v>
       </c>
-      <c r="D62" s="30">
+      <c r="D62" s="23">
         <f>MIN($E$19:$E$23)</f>
         <v>0.87699999999999978</v>
       </c>
-      <c r="E62" s="30">
+      <c r="E62" s="23">
         <f>MAX($E$19:$E$23)</f>
         <v>1.1390000000000002</v>
       </c>
-      <c r="F62" s="30">
+      <c r="F62" s="23">
         <f>STDEV($E$19:$E$23)</f>
         <v>0.10784247771634335</v>
       </c>
@@ -5210,25 +5255,25 @@
       <c r="B63" s="8">
         <v>30000</v>
       </c>
-      <c r="C63" s="30">
+      <c r="C63" s="23">
         <f>AVERAGE($E$25:$E$29)</f>
         <v>1.2412899999999998</v>
       </c>
-      <c r="D63" s="30">
+      <c r="D63" s="23">
         <f>MIN($E$25:$E$29)</f>
         <v>1.1680000000000001</v>
       </c>
-      <c r="E63" s="30">
+      <c r="E63" s="23">
         <f>MAX($E$25:$E$29)</f>
         <v>1.3320000000000003</v>
       </c>
-      <c r="F63" s="30">
+      <c r="F63" s="23">
         <f>STDEV($E$25:$E$29)</f>
         <v>6.1557456900037805E-2</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B65" s="35" t="s">
+      <c r="B65" s="28" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5236,19 +5281,19 @@
       <c r="B66" s="8">
         <v>10000</v>
       </c>
-      <c r="C66" s="30">
+      <c r="C66" s="23">
         <f>AVERAGE($E$33:$E$37)</f>
         <v>1.4457999999999998</v>
       </c>
-      <c r="D66" s="30">
+      <c r="D66" s="23">
         <f>MIN($E$33:$E$37)</f>
         <v>1.2839999999999998</v>
       </c>
-      <c r="E66" s="30">
+      <c r="E66" s="23">
         <f>MAX($E$33:$E$37)</f>
         <v>1.58</v>
       </c>
-      <c r="F66" s="30">
+      <c r="F66" s="23">
         <f>STDEV($E$33:$E$37)</f>
         <v>0.13593822126245456</v>
       </c>
@@ -5257,19 +5302,19 @@
       <c r="B67" s="8">
         <v>20000</v>
       </c>
-      <c r="C67" s="30">
+      <c r="C67" s="23">
         <f>AVERAGE($E39:$E43)</f>
         <v>2.6648000000000005</v>
       </c>
-      <c r="D67" s="30">
+      <c r="D67" s="23">
         <f>MIN($E39:$E43)</f>
         <v>2.4550000000000001</v>
       </c>
-      <c r="E67" s="30">
+      <c r="E67" s="23">
         <f>MAX($E39:$E43)</f>
         <v>2.8540000000000001</v>
       </c>
-      <c r="F67" s="30">
+      <c r="F67" s="23">
         <f>STDEV($E39:$E43)</f>
         <v>0.17267512849278543</v>
       </c>
@@ -5278,21 +5323,96 @@
       <c r="B68" s="8">
         <v>30000</v>
       </c>
-      <c r="C68" s="30">
+      <c r="C68" s="23">
         <f>AVERAGE($E$45:$E$49)</f>
         <v>3.9216000000000002</v>
       </c>
-      <c r="D68" s="30">
+      <c r="D68" s="23">
         <f>MIN($E$45:$E$49)</f>
         <v>3.6500000000000004</v>
       </c>
-      <c r="E68" s="30">
+      <c r="E68" s="23">
         <f>MAX($E$45:$E$49)</f>
         <v>4.1790000000000003</v>
       </c>
-      <c r="F68" s="30">
+      <c r="F68" s="23">
         <f>STDEV($E$45:$E$49)</f>
         <v>0.20952159793205091</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Requirements.xlsx
+++ b/docs/Requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorrit/Documents/master-software-engineering/thesis/DYNAMOS/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D96A335-99E8-E444-AA6B-CE1F617F4020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBAB684-D142-FA4B-B3BC-166C10110C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12240" yWindow="500" windowWidth="32120" windowHeight="20200" activeTab="3" xr2:uid="{D6BE7BD5-07AA-4048-B7F7-9B37E5199ABD}"/>
+    <workbookView xWindow="4020" yWindow="500" windowWidth="32120" windowHeight="20200" activeTab="3" xr2:uid="{D6BE7BD5-07AA-4048-B7F7-9B37E5199ABD}"/>
   </bookViews>
   <sheets>
     <sheet name="Microservices" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="226">
   <si>
     <t>Receive messages from an input queue</t>
   </si>
@@ -667,6 +667,57 @@
   </si>
   <si>
     <t>The test took 7m9.01669741s seconds to execute.</t>
+  </si>
+  <si>
+    <t>Name:                artifact-passingxjd42</t>
+  </si>
+  <si>
+    <t>Namespace:           argo</t>
+  </si>
+  <si>
+    <t>ServiceAccount:      unset (will run with the default ServiceAccount)</t>
+  </si>
+  <si>
+    <t>Status:              Succeeded</t>
+  </si>
+  <si>
+    <t>Conditions:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PodRunning          False</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Completed           True</t>
+  </si>
+  <si>
+    <t>Created:             Wed Aug 02 14:38:58 +0200 (20 seconds ago)</t>
+  </si>
+  <si>
+    <t>Started:             Wed Aug 02 14:38:58 +0200 (20 seconds ago)</t>
+  </si>
+  <si>
+    <t>Finished:            Wed Aug 02 14:39:18 +0200 (now)</t>
+  </si>
+  <si>
+    <t>Duration:            20 seconds</t>
+  </si>
+  <si>
+    <t>Progress:            2/2</t>
+  </si>
+  <si>
+    <t>ResourcesDuration:   9s*(1 cpu),9s*(100Mi memory)</t>
+  </si>
+  <si>
+    <t>STEP                      TEMPLATE          PODNAME                                         DURATION  MESSAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ✔ artifact-passingxjd42  artifact-example</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ├───✔ generate-artifact  whalesay          artifact-passingxjd42-whalesay-4165260985       5s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> └───✔ consume-artifact   print-message     artifact-passingxjd42-print-message-3486085679  5s</t>
   </si>
 </sst>
 </file>
@@ -3990,10 +4041,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D402B211-41A9-054B-9CDE-A7E508CC657A}">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+      <selection activeCell="B91" sqref="B91:B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5413,6 +5464,91 @@
     <row r="86" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>208</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Requirements.xlsx
+++ b/docs/Requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorrit/Documents/master-software-engineering/thesis/DYNAMOS/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBAB684-D142-FA4B-B3BC-166C10110C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B043BE83-E1E0-5E4A-83FD-98A3BC1F8823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4020" yWindow="500" windowWidth="32120" windowHeight="20200" activeTab="3" xr2:uid="{D6BE7BD5-07AA-4048-B7F7-9B37E5199ABD}"/>
   </bookViews>
@@ -18,8 +18,10 @@
     <sheet name="Experiment 1" sheetId="4" r:id="rId3"/>
     <sheet name="Experiment 2" sheetId="5" r:id="rId4"/>
     <sheet name="Dynamos" sheetId="2" r:id="rId5"/>
+    <sheet name="architectures" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="231">
   <si>
     <t>Receive messages from an input queue</t>
   </si>
@@ -718,13 +720,28 @@
   </si>
   <si>
     <t xml:space="preserve"> └───✔ consume-artifact   print-message     artifact-passingxjd42-print-message-3486085679  5s</t>
+  </si>
+  <si>
+    <t>Persistent</t>
+  </si>
+  <si>
+    <t>Ephemeral</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Marten:</t>
+  </si>
+  <si>
+    <t>Adjusted without startup time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -812,6 +829,30 @@
       <sz val="14"/>
       <color rgb="FF24292E"/>
       <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF008080"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -955,7 +996,7 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1003,6 +1044,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1016,6 +1059,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1575,11 +1620,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -1713,10 +1758,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E058B4D8-EEB6-994D-9F38-3AD51C0357E5}">
-  <dimension ref="B4:U76"/>
+  <dimension ref="B2:U76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1732,6 +1777,7 @@
     <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="25.6640625" customWidth="1"/>
     <col min="15" max="15" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.33203125" customWidth="1"/>
     <col min="20" max="20" width="18.6640625" customWidth="1"/>
     <col min="21" max="22" width="19.6640625" customWidth="1"/>
     <col min="23" max="23" width="35" customWidth="1"/>
@@ -1739,9 +1785,45 @@
     <col min="25" max="25" width="36.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:17" ht="18" x14ac:dyDescent="0.25">
+      <c r="N2" s="38">
+        <v>19423</v>
+      </c>
+      <c r="O2" s="38">
+        <v>22837</v>
+      </c>
+      <c r="P2">
+        <f>O2-N2</f>
+        <v>3414</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" ht="18" x14ac:dyDescent="0.2">
+      <c r="N3" s="39">
+        <f>6.37+0.32</f>
+        <v>6.69</v>
+      </c>
+      <c r="O3">
+        <v>7.14</v>
+      </c>
+      <c r="P3">
+        <f>O3-N3</f>
+        <v>0.44999999999999929</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="18" x14ac:dyDescent="0.2">
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
+      <c r="N4">
+        <f>4.99+0.12</f>
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="O4" s="39">
+        <v>5.29</v>
+      </c>
+      <c r="P4">
+        <f>O4-N4</f>
+        <v>0.17999999999999972</v>
+      </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E7" s="21"/>
@@ -1754,21 +1836,21 @@
       <c r="B8" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="K8" s="31" t="s">
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="K8" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="33"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="35"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C9" s="7" t="s">
@@ -1855,8 +1937,8 @@
         <v>150</v>
       </c>
       <c r="N10">
-        <f>1071-848</f>
-        <v>223</v>
+        <f>1071-848-125</f>
+        <v>98</v>
       </c>
       <c r="O10">
         <v>98</v>
@@ -1910,8 +1992,8 @@
         <v>163</v>
       </c>
       <c r="N11">
-        <f>858-605</f>
-        <v>253</v>
+        <f>858-605-125</f>
+        <v>128</v>
       </c>
       <c r="O11">
         <v>96</v>
@@ -1965,8 +2047,8 @@
         <v>175</v>
       </c>
       <c r="N12">
-        <f>850-586</f>
-        <v>264</v>
+        <f>850-586-125</f>
+        <v>139</v>
       </c>
       <c r="O12">
         <v>95</v>
@@ -2020,8 +2102,8 @@
         <v>152</v>
       </c>
       <c r="N13">
-        <f>831-575</f>
-        <v>256</v>
+        <f>831-575-125</f>
+        <v>131</v>
       </c>
       <c r="O13">
         <v>111</v>
@@ -2075,8 +2157,8 @@
         <v>150</v>
       </c>
       <c r="N14">
-        <f>1107-864</f>
-        <v>243</v>
+        <f>1107-864-125</f>
+        <v>118</v>
       </c>
       <c r="O14">
         <v>97</v>
@@ -2140,9 +2222,8 @@
         <f>979-656</f>
         <v>323</v>
       </c>
-      <c r="N16">
-        <f>890-120</f>
-        <v>770</v>
+      <c r="N16" s="1">
+        <v>296</v>
       </c>
       <c r="O16">
         <v>273</v>
@@ -2195,8 +2276,8 @@
         <v>300</v>
       </c>
       <c r="N17">
-        <f>46971-46491</f>
-        <v>480</v>
+        <f>46971-46491-196</f>
+        <v>284</v>
       </c>
       <c r="O17">
         <v>211</v>
@@ -2250,8 +2331,8 @@
         <v>291</v>
       </c>
       <c r="N18">
-        <f>14954-14500</f>
-        <v>454</v>
+        <f>14954-14500-196</f>
+        <v>258</v>
       </c>
       <c r="O18">
         <v>211</v>
@@ -2305,8 +2386,8 @@
         <v>281</v>
       </c>
       <c r="N19">
-        <f>38129-37707</f>
-        <v>422</v>
+        <f>38129-37707-196</f>
+        <v>226</v>
       </c>
       <c r="O19">
         <v>190</v>
@@ -2360,8 +2441,8 @@
         <v>312</v>
       </c>
       <c r="N20">
-        <f>56625-56178</f>
-        <v>447</v>
+        <f>56625-56178-196</f>
+        <v>251</v>
       </c>
       <c r="O20">
         <v>202</v>
@@ -2426,8 +2507,8 @@
         <v>424</v>
       </c>
       <c r="N22">
-        <f>19736-19039</f>
-        <v>697</v>
+        <f>19736-19039-360</f>
+        <v>337</v>
       </c>
       <c r="O22">
         <v>320</v>
@@ -2481,8 +2562,8 @@
         <v>460</v>
       </c>
       <c r="N23">
-        <f>37294-36627</f>
-        <v>667</v>
+        <f>37294-36627-360</f>
+        <v>307</v>
       </c>
       <c r="O23">
         <v>278</v>
@@ -2536,8 +2617,8 @@
         <v>475</v>
       </c>
       <c r="N24">
-        <f>1506-840</f>
-        <v>666</v>
+        <f>1506-840-360</f>
+        <v>306</v>
       </c>
       <c r="O24">
         <v>287</v>
@@ -2591,8 +2672,8 @@
         <v>468</v>
       </c>
       <c r="N25">
-        <f>16632-15954</f>
-        <v>678</v>
+        <f>16632-15954-360</f>
+        <v>318</v>
       </c>
       <c r="O25">
         <f>309</f>
@@ -2647,8 +2728,8 @@
         <v>486</v>
       </c>
       <c r="N26" s="15">
-        <f>32866-32218</f>
-        <v>648</v>
+        <f>32866-32218-360</f>
+        <v>288</v>
       </c>
       <c r="O26" s="15">
         <v>283</v>
@@ -2795,8 +2876,8 @@
         <v>150</v>
       </c>
       <c r="R32">
-        <f>1071-848</f>
-        <v>223</v>
+        <f>1071-848-125</f>
+        <v>98</v>
       </c>
       <c r="S32">
         <v>98</v>
@@ -2861,8 +2942,8 @@
         <v>163</v>
       </c>
       <c r="R33">
-        <f>858-605</f>
-        <v>253</v>
+        <f>858-605-125</f>
+        <v>128</v>
       </c>
       <c r="S33">
         <v>96</v>
@@ -2912,8 +2993,8 @@
         <v>175</v>
       </c>
       <c r="R34">
-        <f>850-586</f>
-        <v>264</v>
+        <f>850-586-125</f>
+        <v>139</v>
       </c>
       <c r="S34">
         <v>95</v>
@@ -2963,8 +3044,8 @@
         <v>152</v>
       </c>
       <c r="R35">
-        <f>831-575</f>
-        <v>256</v>
+        <f>831-575-125</f>
+        <v>131</v>
       </c>
       <c r="S35">
         <v>111</v>
@@ -3029,8 +3110,8 @@
         <v>150</v>
       </c>
       <c r="R36">
-        <f>1107-864</f>
-        <v>243</v>
+        <f>1107-864-125</f>
+        <v>118</v>
       </c>
       <c r="S36">
         <v>97</v>
@@ -3087,7 +3168,7 @@
         <v>295.13333333333333</v>
       </c>
       <c r="F38" s="23">
-        <f t="shared" ref="F38:F39" si="0">(D38/E38)/1000</f>
+        <f>(D38/E38)/1000</f>
         <v>9.1259261350801903</v>
       </c>
       <c r="G38" s="25">
@@ -3128,9 +3209,8 @@
         <f>979-656</f>
         <v>323</v>
       </c>
-      <c r="R38">
-        <f>890-120</f>
-        <v>770</v>
+      <c r="R38" s="1">
+        <v>296</v>
       </c>
       <c r="S38">
         <v>273</v>
@@ -3156,7 +3236,7 @@
         <v>470.8</v>
       </c>
       <c r="F39" s="23">
-        <f t="shared" si="0"/>
+        <f>(D39/E39)/1000</f>
         <v>8.5742544604927797</v>
       </c>
       <c r="G39" s="25">
@@ -3193,8 +3273,8 @@
         <v>300</v>
       </c>
       <c r="R39">
-        <f>46971-46491</f>
-        <v>480</v>
+        <f>46971-46491-196</f>
+        <v>284</v>
       </c>
       <c r="S39">
         <v>211</v>
@@ -3240,8 +3320,8 @@
         <v>291</v>
       </c>
       <c r="R40">
-        <f>14954-14500</f>
-        <v>454</v>
+        <f>14954-14500-196</f>
+        <v>258</v>
       </c>
       <c r="S40">
         <v>211</v>
@@ -3287,8 +3367,8 @@
         <v>281</v>
       </c>
       <c r="R41">
-        <f>38129-37707</f>
-        <v>422</v>
+        <f>38129-37707-196</f>
+        <v>226</v>
       </c>
       <c r="S41">
         <v>190</v>
@@ -3336,8 +3416,8 @@
         <v>312</v>
       </c>
       <c r="R42">
-        <f>56625-56178</f>
-        <v>447</v>
+        <f>56625-56178-196</f>
+        <v>251</v>
       </c>
       <c r="S42">
         <v>202</v>
@@ -3396,8 +3476,8 @@
         <v>424</v>
       </c>
       <c r="R44">
-        <f>19736-19039</f>
-        <v>697</v>
+        <f>19736-19039-360</f>
+        <v>337</v>
       </c>
       <c r="S44">
         <v>320</v>
@@ -3446,8 +3526,8 @@
         <v>460</v>
       </c>
       <c r="R45">
-        <f>37294-36627</f>
-        <v>667</v>
+        <f>37294-36627-360</f>
+        <v>307</v>
       </c>
       <c r="S45">
         <v>278</v>
@@ -3493,8 +3573,8 @@
         <v>475</v>
       </c>
       <c r="R46">
-        <f>1506-840</f>
-        <v>666</v>
+        <f>1506-840-360</f>
+        <v>306</v>
       </c>
       <c r="S46">
         <v>287</v>
@@ -3540,8 +3620,8 @@
         <v>468</v>
       </c>
       <c r="R47">
-        <f>16632-15954</f>
-        <v>678</v>
+        <f>16632-15954-360</f>
+        <v>318</v>
       </c>
       <c r="S47">
         <f>309</f>
@@ -3588,8 +3668,8 @@
         <v>486</v>
       </c>
       <c r="R48" s="15">
-        <f>32866-32218</f>
-        <v>648</v>
+        <f>32866-32218-360</f>
+        <v>288</v>
       </c>
       <c r="S48" s="15">
         <v>283</v>
@@ -3870,19 +3950,19 @@
       </c>
       <c r="D70" s="9">
         <f>AVERAGE($N$10:$N$14)</f>
-        <v>247.8</v>
+        <v>122.8</v>
       </c>
       <c r="E70" s="9">
         <f>MIN($N$10:$N$14)</f>
-        <v>223</v>
+        <v>98</v>
       </c>
       <c r="F70" s="9">
         <f>MAX($N$10:$N$14)</f>
-        <v>264</v>
+        <v>139</v>
       </c>
       <c r="G70" s="9">
         <f>STDEV($N$10:$N$14)</f>
-        <v>15.77022510936353</v>
+        <v>15.770225109363555</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.2">
@@ -3891,19 +3971,19 @@
       </c>
       <c r="D71" s="9">
         <f>AVERAGE($N$16:$N$20)</f>
-        <v>514.6</v>
+        <v>263</v>
       </c>
       <c r="E71" s="9">
         <f>MIN($N$16:$N$20)</f>
-        <v>422</v>
+        <v>226</v>
       </c>
       <c r="F71" s="9">
         <f>MAX($N$16:$N$20)</f>
-        <v>770</v>
+        <v>296</v>
       </c>
       <c r="G71" s="9">
         <f>STDEV($N$16:$N$20)</f>
-        <v>144.25948842277234</v>
+        <v>27.694764848252458</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.2">
@@ -3912,15 +3992,15 @@
       </c>
       <c r="D72" s="9">
         <f>AVERAGE($N$22:$N$26)</f>
-        <v>671.2</v>
+        <v>311.2</v>
       </c>
       <c r="E72" s="9">
         <f>MIN($N$22:$N$26)</f>
-        <v>648</v>
+        <v>288</v>
       </c>
       <c r="F72" s="9">
         <f>MAX($N$22:$N$26)</f>
-        <v>697</v>
+        <v>337</v>
       </c>
       <c r="G72" s="9">
         <f>STDEV($N$22:$N$26)</f>
@@ -4036,15 +4116,16 @@
     <hyperlink ref="B26" r:id="rId28" tooltip="Trace: 938ef240abfc392dc6ce906e84570887" display="http://localhost:30001/grafana/explore?left=%7B%22range%22%3A%7B%22from%22%3A%22now-1h%22%2C%22to%22%3A%22now%22%7D%2C%22datasource%22%3A%22PC9A941E8F2E49454%22%2C%22queries%22%3A%5B%7B%22query%22%3A%22938ef240abfc392dc6ce906e84570887%22%7D%5D%7D" xr:uid="{5E263B18-FE6A-BC44-A6D1-9AAD270B6871}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D402B211-41A9-054B-9CDE-A7E508CC657A}">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91:B109"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4057,7 +4138,7 @@
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>176</v>
       </c>
@@ -4065,7 +4146,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>174</v>
       </c>
@@ -4073,7 +4154,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>173</v>
       </c>
@@ -4081,15 +4162,15 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="34" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>83</v>
       </c>
@@ -4114,8 +4195,11 @@
       <c r="H12" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>10000</v>
       </c>
@@ -4146,8 +4230,12 @@
         <f>E13/B13</f>
         <v>0.16055900621118022</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="25">
+        <f t="shared" ref="I13:I32" si="0">E13/(B13-C13)</f>
+        <v>0.31013797240551905</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>10000</v>
       </c>
@@ -4163,7 +4251,7 @@
         <v>1.36</v>
       </c>
       <c r="E14" s="23">
-        <f t="shared" ref="E14:E29" si="0">B14-(D14+C14)</f>
+        <f t="shared" ref="E14:E29" si="1">B14-(D14+C14)</f>
         <v>0.49800000000000022</v>
       </c>
       <c r="F14" s="25">
@@ -4178,8 +4266,12 @@
         <f>E14/B14</f>
         <v>0.14604105571847514</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="25">
+        <f t="shared" si="0"/>
+        <v>0.26803013993541452</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>10000</v>
       </c>
@@ -4195,7 +4287,7 @@
         <v>1.1359999999999999</v>
       </c>
       <c r="E15" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.46499999999999986</v>
       </c>
       <c r="F15" s="25">
@@ -4210,8 +4302,12 @@
         <f>E15/B15</f>
         <v>0.14668769716088323</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="25">
+        <f t="shared" si="0"/>
+        <v>0.29044347282948146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10000</v>
       </c>
@@ -4227,7 +4323,7 @@
         <v>1.395</v>
       </c>
       <c r="E16" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.63499999999999979</v>
       </c>
       <c r="F16" s="25">
@@ -4242,8 +4338,12 @@
         <f>E16/B16</f>
         <v>0.15338164251207725</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="25">
+        <f t="shared" si="0"/>
+        <v>0.31280788177339897</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>10000</v>
       </c>
@@ -4259,7 +4359,7 @@
         <v>1.22</v>
       </c>
       <c r="E17" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.54299999999999971</v>
       </c>
       <c r="F17" s="25">
@@ -4274,8 +4374,12 @@
         <f>E17/B17</f>
         <v>0.14557640750670234</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="25">
+        <f t="shared" si="0"/>
+        <v>0.30799773114010193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="23"/>
@@ -4284,8 +4388,9 @@
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="25"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>20000</v>
       </c>
@@ -4301,7 +4406,7 @@
         <v>1.8280000000000001</v>
       </c>
       <c r="E19" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.9009999999999998</v>
       </c>
       <c r="F19" s="25">
@@ -4316,8 +4421,12 @@
         <f>E19/B19</f>
         <v>0.20904872389791179</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" s="25">
+        <f t="shared" si="0"/>
+        <v>0.33015756687431291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>20000</v>
       </c>
@@ -4333,7 +4442,7 @@
         <v>2.4250000000000003</v>
       </c>
       <c r="E20" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.044999999999999</v>
       </c>
       <c r="F20" s="25">
@@ -4348,8 +4457,12 @@
         <f>E20/B20</f>
         <v>0.18561278863232666</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="25">
+        <f t="shared" si="0"/>
+        <v>0.30115273775216111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>20000</v>
       </c>
@@ -4365,7 +4478,7 @@
         <v>1.8409999999999997</v>
       </c>
       <c r="E21" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0179999999999998</v>
       </c>
       <c r="F21" s="25">
@@ -4380,8 +4493,12 @@
         <f>E21/B21</f>
         <v>0.22774049217002235</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" s="25">
+        <f t="shared" si="0"/>
+        <v>0.3560685554389646</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>20000</v>
       </c>
@@ -4397,7 +4514,7 @@
         <v>1.9470000000000001</v>
       </c>
       <c r="E22" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.87699999999999978</v>
       </c>
       <c r="F22" s="25">
@@ -4412,8 +4529,12 @@
         <f>E22/B22</f>
         <v>0.19841628959276014</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" s="25">
+        <f t="shared" si="0"/>
+        <v>0.31055240793201128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>20000</v>
       </c>
@@ -4429,7 +4550,7 @@
         <v>2.2770000000000001</v>
       </c>
       <c r="E23" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1390000000000002</v>
       </c>
       <c r="F23" s="25">
@@ -4444,8 +4565,12 @@
         <f>E23/B23</f>
         <v>0.22289628180039142</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" s="25">
+        <f t="shared" si="0"/>
+        <v>0.33343091334894615</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="23"/>
@@ -4454,8 +4579,9 @@
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" s="25"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>30000</v>
       </c>
@@ -4471,7 +4597,7 @@
         <v>2.367</v>
       </c>
       <c r="E25" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3320000000000003</v>
       </c>
       <c r="F25" s="25">
@@ -4486,8 +4612,12 @@
         <f>E25/B25</f>
         <v>0.25419847328244277</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" s="25">
+        <f t="shared" si="0"/>
+        <v>0.3600973236009733</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>30000</v>
       </c>
@@ -4503,7 +4633,7 @@
         <v>2.8485499999999999</v>
       </c>
       <c r="E26" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2664499999999999</v>
       </c>
       <c r="F26" s="25">
@@ -4518,8 +4648,12 @@
         <f>E26/B26</f>
         <v>0.21986979166666665</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" s="25">
+        <f t="shared" si="0"/>
+        <v>0.3077642770352369</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>30000</v>
       </c>
@@ -4535,7 +4669,7 @@
         <v>2.423</v>
       </c>
       <c r="E27" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2169999999999996</v>
       </c>
       <c r="F27" s="25">
@@ -4550,8 +4684,12 @@
         <f>E27/B27</f>
         <v>0.22790262172284639</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" s="25">
+        <f t="shared" si="0"/>
+        <v>0.33434065934065926</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>30000</v>
       </c>
@@ -4567,7 +4705,7 @@
         <v>2.4080000000000004</v>
       </c>
       <c r="E28" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1680000000000001</v>
       </c>
       <c r="F28" s="25">
@@ -4582,8 +4720,12 @@
         <f>E28/B28</f>
         <v>0.22461538461538463</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" s="25">
+        <f t="shared" si="0"/>
+        <v>0.32662192393736023</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>30000</v>
       </c>
@@ -4599,7 +4741,7 @@
         <v>2.62</v>
       </c>
       <c r="E29" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2229999999999999</v>
       </c>
       <c r="F29" s="25">
@@ -4614,11 +4756,19 @@
         <f>E29/B29</f>
         <v>0.22606284658040662</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" s="25">
+        <f t="shared" si="0"/>
+        <v>0.31824095758521986</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I30" s="25"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B31" s="8"/>
-    </row>
-    <row r="32" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I31" s="25"/>
+    </row>
+    <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>83</v>
       </c>
@@ -4636,8 +4786,9 @@
       </c>
       <c r="F32" s="26"/>
       <c r="G32" s="26"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" s="25"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>10000</v>
       </c>
@@ -4653,7 +4804,7 @@
         <v>1.0760000000000001</v>
       </c>
       <c r="E33" s="23">
-        <f t="shared" ref="E33:E49" si="1">B33-(D33+C33)</f>
+        <f t="shared" ref="E33:E49" si="2">B33-(D33+C33)</f>
         <v>1.3259999999999996</v>
       </c>
       <c r="F33" s="25">
@@ -4668,8 +4819,12 @@
         <f>E33/B33</f>
         <v>0.32106537530266338</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" s="25">
+        <f>E33/(B33-C33)</f>
+        <v>0.55203996669442112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>10000</v>
       </c>
@@ -4685,23 +4840,27 @@
         <v>1.2110000000000001</v>
       </c>
       <c r="E34" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5670000000000002</v>
       </c>
       <c r="F34" s="25">
-        <f t="shared" ref="F34:F37" si="2">C34/B34</f>
+        <f>C34/B34</f>
         <v>0.37006802721088433</v>
       </c>
       <c r="G34" s="25">
-        <f t="shared" ref="G34:G37" si="3">D34/B34</f>
+        <f>D34/B34</f>
         <v>0.27460317460317463</v>
       </c>
       <c r="H34" s="25">
-        <f t="shared" ref="H34:H37" si="4">E34/B34</f>
+        <f>E34/B34</f>
         <v>0.3553287981859411</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" s="25">
+        <f t="shared" ref="I34:I49" si="3">E34/(B34-C34)</f>
+        <v>0.56407487401007916</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>10000</v>
       </c>
@@ -4717,23 +4876,27 @@
         <v>1.2989999999999999</v>
       </c>
       <c r="E35" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.58</v>
       </c>
       <c r="F35" s="25">
-        <f t="shared" si="2"/>
+        <f>C35/B35</f>
         <v>0.35879732739420933</v>
       </c>
       <c r="G35" s="25">
+        <f>D35/B35</f>
+        <v>0.28930957683741643</v>
+      </c>
+      <c r="H35" s="25">
+        <f>E35/B35</f>
+        <v>0.35189309576837419</v>
+      </c>
+      <c r="I35" s="25">
         <f t="shared" si="3"/>
-        <v>0.28930957683741643</v>
-      </c>
-      <c r="H35" s="25">
-        <f t="shared" si="4"/>
-        <v>0.35189309576837419</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.54880166724557133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>10000</v>
       </c>
@@ -4749,23 +4912,27 @@
         <v>1.137</v>
       </c>
       <c r="E36" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4719999999999995</v>
       </c>
       <c r="F36" s="25">
-        <f t="shared" si="2"/>
+        <f>C36/B36</f>
         <v>0.39325581395348841</v>
       </c>
       <c r="G36" s="25">
+        <f>D36/B36</f>
+        <v>0.26441860465116279</v>
+      </c>
+      <c r="H36" s="25">
+        <f>E36/B36</f>
+        <v>0.34232558139534874</v>
+      </c>
+      <c r="I36" s="25">
         <f t="shared" si="3"/>
-        <v>0.26441860465116279</v>
-      </c>
-      <c r="H36" s="25">
-        <f t="shared" si="4"/>
-        <v>0.34232558139534874</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.56420084323495578</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>10000</v>
       </c>
@@ -4781,31 +4948,36 @@
         <v>1.0840000000000001</v>
       </c>
       <c r="E37" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2839999999999998</v>
       </c>
       <c r="F37" s="25">
-        <f t="shared" si="2"/>
+        <f>C37/B37</f>
         <v>0.40651629072681705</v>
       </c>
       <c r="G37" s="25">
+        <f>D37/B37</f>
+        <v>0.27167919799498746</v>
+      </c>
+      <c r="H37" s="25">
+        <f>E37/B37</f>
+        <v>0.32180451127819543</v>
+      </c>
+      <c r="I37" s="25">
         <f t="shared" si="3"/>
-        <v>0.27167919799498746</v>
-      </c>
-      <c r="H37" s="25">
-        <f t="shared" si="4"/>
-        <v>0.32180451127819543</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.5422297297297296</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C38" s="23"/>
       <c r="D38" s="23"/>
       <c r="E38" s="23"/>
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
       <c r="H38" s="25"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" s="25"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>20000</v>
       </c>
@@ -4821,7 +4993,7 @@
         <v>1.8280000000000001</v>
       </c>
       <c r="E39" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6630000000000003</v>
       </c>
       <c r="F39" s="25">
@@ -4836,8 +5008,12 @@
         <f>E39/B39</f>
         <v>0.43230519480519486</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39" s="25">
+        <f t="shared" si="3"/>
+        <v>0.59296370518815422</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>20000</v>
       </c>
@@ -4853,7 +5029,7 @@
         <v>1.7709999999999999</v>
       </c>
       <c r="E40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8540000000000001</v>
       </c>
       <c r="F40" s="25">
@@ -4868,8 +5044,12 @@
         <f>E40/B40</f>
         <v>0.44524180967238691</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40" s="25">
+        <f t="shared" si="3"/>
+        <v>0.61708108108108106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>20000</v>
       </c>
@@ -4885,7 +5065,7 @@
         <v>1.845</v>
       </c>
       <c r="E41" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5360000000000005</v>
       </c>
       <c r="F41" s="25">
@@ -4900,8 +5080,12 @@
         <f>E41/B41</f>
         <v>0.4150572831423896</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41" s="25">
+        <f t="shared" si="3"/>
+        <v>0.57886327322529108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <v>20000</v>
       </c>
@@ -4917,7 +5101,7 @@
         <v>1.6060000000000001</v>
       </c>
       <c r="E42" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4550000000000001</v>
       </c>
       <c r="F42" s="25">
@@ -4932,8 +5116,12 @@
         <f>E42/B42</f>
         <v>0.43451327433628317</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42" s="25">
+        <f t="shared" si="3"/>
+        <v>0.60453090371829599</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <v>20000</v>
       </c>
@@ -4949,7 +5137,7 @@
         <v>1.607</v>
       </c>
       <c r="E43" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8159999999999998</v>
       </c>
       <c r="F43" s="25">
@@ -4964,16 +5152,21 @@
         <f>E43/B43</f>
         <v>0.4116959064327485</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43" s="25">
+        <f t="shared" si="3"/>
+        <v>0.63667194212073253</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C44" s="23"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
       <c r="F44" s="25"/>
       <c r="G44" s="25"/>
       <c r="H44" s="25"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44" s="25"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>30000</v>
       </c>
@@ -4989,7 +5182,7 @@
         <v>2.2709999999999999</v>
       </c>
       <c r="E45" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.7730000000000001</v>
       </c>
       <c r="F45" s="25">
@@ -5004,8 +5197,12 @@
         <f>E45/B45</f>
         <v>0.49255874673629246</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45" s="25">
+        <f t="shared" si="3"/>
+        <v>0.62425545996029119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <v>30000</v>
       </c>
@@ -5021,7 +5218,7 @@
         <v>2.3769999999999998</v>
       </c>
       <c r="E46" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6500000000000004</v>
       </c>
       <c r="F46" s="25">
@@ -5036,8 +5233,12 @@
         <f>E46/B46</f>
         <v>0.48089591567852441</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46" s="25">
+        <f t="shared" si="3"/>
+        <v>0.60560809689729556</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>30000</v>
       </c>
@@ -5053,7 +5254,7 @@
         <v>2.1829999999999998</v>
       </c>
       <c r="E47" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.9920000000000004</v>
       </c>
       <c r="F47" s="25">
@@ -5068,8 +5269,12 @@
         <f>E47/B47</f>
         <v>0.51844155844155848</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47" s="25">
+        <f t="shared" si="3"/>
+        <v>0.64647773279352228</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <v>30000</v>
       </c>
@@ -5085,7 +5290,7 @@
         <v>2.5270000000000001</v>
       </c>
       <c r="E48" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.1790000000000003</v>
       </c>
       <c r="F48" s="25">
@@ -5100,8 +5305,12 @@
         <f>E48/B48</f>
         <v>0.50288808664259932</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48" s="25">
+        <f t="shared" si="3"/>
+        <v>0.62317327766179542</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>30000</v>
       </c>
@@ -5117,7 +5326,7 @@
         <v>2.218</v>
       </c>
       <c r="E49" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0140000000000002</v>
       </c>
       <c r="F49" s="25">
@@ -5132,23 +5341,27 @@
         <f>E49/B49</f>
         <v>0.50237797246558202</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49" s="25">
+        <f t="shared" si="3"/>
+        <v>0.64409499358151479</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F50" s="25"/>
       <c r="G50" s="25"/>
       <c r="H50" s="25"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F51" s="25"/>
       <c r="G51" s="25"/>
       <c r="H51" s="25"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F52" s="25"/>
       <c r="G52" s="25"/>
       <c r="H52" s="25"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C53" s="23" t="s">
         <v>186</v>
       </c>
@@ -5164,7 +5377,7 @@
       <c r="G53" s="25"/>
       <c r="H53" s="25"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B54" s="28" t="s">
         <v>193</v>
       </c>
@@ -5187,12 +5400,12 @@
       <c r="G54" s="25"/>
       <c r="H54" s="25"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B55" s="28" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B56" s="8">
         <v>10000</v>
       </c>
@@ -5213,7 +5426,7 @@
         <v>0.11199285691507295</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B57" s="8">
         <v>20000</v>
       </c>
@@ -5234,7 +5447,7 @@
         <v>0.26367077535778793</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B58" s="8">
         <v>30000</v>
       </c>
@@ -5255,12 +5468,12 @@
         <v>0.19969645082530194</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B60" s="28" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B61" s="8">
         <v>10000</v>
       </c>
@@ -5281,7 +5494,7 @@
         <v>0.31366882926484935</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B62" s="8">
         <v>20000</v>
       </c>
@@ -5302,7 +5515,7 @@
         <v>0.10784247771634335</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B63" s="8">
         <v>30000</v>
       </c>
@@ -5549,6 +5762,30 @@
     <row r="109" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>225</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>229</v>
+      </c>
+      <c r="B116">
+        <f>1340-(126+298)</f>
+        <v>916</v>
+      </c>
+      <c r="C116">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B119">
+        <v>1.46</v>
+      </c>
+      <c r="C119">
+        <v>2.4</v>
+      </c>
+      <c r="D119">
+        <f>B119/C119</f>
+        <v>0.60833333333333339</v>
       </c>
     </row>
   </sheetData>
@@ -5563,7 +5800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A469EDB9-BA4C-4942-8C93-E43D2C82CF7F}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -5714,4 +5951,55 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA13EEEB-3F37-E444-8BD7-E97389517ACC}">
+  <dimension ref="B4:D11"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="43.5" customWidth="1"/>
+    <col min="4" max="4" width="34.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="B5" s="29"/>
+    </row>
+    <row r="6" spans="2:4" ht="20" x14ac:dyDescent="0.25">
+      <c r="B6" s="30"/>
+    </row>
+    <row r="7" spans="2:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="B7" s="29"/>
+    </row>
+    <row r="8" spans="2:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="B8" s="29"/>
+    </row>
+    <row r="9" spans="2:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="B9" s="29"/>
+    </row>
+    <row r="10" spans="2:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="B10" s="29"/>
+    </row>
+    <row r="11" spans="2:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="B11" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/Requirements.xlsx
+++ b/docs/Requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorrit/Documents/master-software-engineering/thesis/DYNAMOS/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B043BE83-E1E0-5E4A-83FD-98A3BC1F8823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3956E5-D17F-8A4B-BB18-BE5F7A477E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="500" windowWidth="32120" windowHeight="20200" activeTab="3" xr2:uid="{D6BE7BD5-07AA-4048-B7F7-9B37E5199ABD}"/>
+    <workbookView xWindow="12240" yWindow="500" windowWidth="32120" windowHeight="20200" activeTab="2" xr2:uid="{D6BE7BD5-07AA-4048-B7F7-9B37E5199ABD}"/>
   </bookViews>
   <sheets>
     <sheet name="Microservices" sheetId="1" r:id="rId1"/>
@@ -1382,7 +1382,7 @@
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1760,8 +1760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E058B4D8-EEB6-994D-9F38-3AD51C0357E5}">
   <dimension ref="B2:U76"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I70" sqref="I70"/>
+    <sheetView tabSelected="1" topLeftCell="F11" workbookViewId="0">
+      <selection activeCell="R44" sqref="R44:R49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4124,8 +4124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D402B211-41A9-054B-9CDE-A7E508CC657A}">
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I29" sqref="I13:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5793,6 +5793,7 @@
     <mergeCell ref="B11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
